--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adorb\Documents\2018-01-08_internship-M2\ERC\Analyses\MEG\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="24780" windowHeight="12405"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="24780" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="172">
   <si>
     <t>group</t>
   </si>
@@ -245,12 +249,300 @@
   </si>
   <si>
     <t>coreg</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,9 +666,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,6 +676,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,18 +705,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,6 +714,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -470,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,9 +798,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,6 +850,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -713,130 +1042,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AZ197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="1"/>
+    <col min="11" max="12" width="11.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1328125" style="1"/>
+    <col min="26" max="26" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="1"/>
-    <col min="37" max="37" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.1328125" style="1"/>
+    <col min="37" max="37" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="1"/>
+    <col min="41" max="41" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="31.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="24" t="s">
+    <row r="1" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Z1" s="19" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Z1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AK1" s="19" t="s">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AK1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
-    </row>
-    <row r="2" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+    </row>
+    <row r="2" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -844,79 +1173,79 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="20" t="s">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26"/>
       <c r="T2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
       <c r="Z2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23" t="s">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23" t="s">
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
       <c r="AK2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AN2" s="15"/>
+      <c r="AN2" s="23"/>
       <c r="AO2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AP2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15" t="s">
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15" t="s">
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="15"/>
-    </row>
-    <row r="3" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW2" s="23"/>
+    </row>
+    <row r="3" spans="2:52" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1054,11 +1383,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:52" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1087,19 +1416,22 @@
       <c r="O4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="20">
         <v>17380395</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="27" t="s">
+      <c r="S4" s="21" t="s">
         <v>74</v>
       </c>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
       <c r="M5" s="9"/>
@@ -1108,12 +1440,15 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="27" t="s">
+      <c r="S5" s="21" t="s">
         <v>73</v>
       </c>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C6" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
       <c r="M6" s="9"/>
@@ -1125,7 +1460,10 @@
       <c r="S6" s="7"/>
       <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C7" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
       <c r="M7" s="9"/>
@@ -1137,7 +1475,10 @@
       <c r="S7" s="7"/>
       <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C8" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
       <c r="M8" s="9"/>
@@ -1149,7 +1490,10 @@
       <c r="S8" s="7"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C9" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="9"/>
@@ -1161,7 +1505,10 @@
       <c r="S9" s="7"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C10" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="7"/>
       <c r="M10" s="9"/>
@@ -1173,7 +1520,10 @@
       <c r="S10" s="7"/>
       <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C11" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
@@ -1185,7 +1535,10 @@
       <c r="S11" s="7"/>
       <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C12" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="7"/>
       <c r="M12" s="9"/>
@@ -1197,7 +1550,10 @@
       <c r="S12" s="7"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C13" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
       <c r="M13" s="9"/>
@@ -1209,7 +1565,10 @@
       <c r="S13" s="7"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C14" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
       <c r="M14" s="9"/>
@@ -1221,7 +1580,10 @@
       <c r="S14" s="7"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C15" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
@@ -1233,7 +1595,10 @@
       <c r="S15" s="7"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:52" x14ac:dyDescent="0.45">
+      <c r="C16" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
@@ -1245,7 +1610,10 @@
       <c r="S16" s="7"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C17" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
@@ -1257,31 +1625,40 @@
       <c r="S17" s="7"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C18" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
       <c r="N18" s="7"/>
       <c r="O18" s="9"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="5"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="16"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C19" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
       <c r="N19" s="7"/>
       <c r="O19" s="9"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="5"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="16"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C20" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
       <c r="M20" s="9"/>
@@ -1293,7 +1670,10 @@
       <c r="S20" s="7"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C21" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
@@ -1305,7 +1685,10 @@
       <c r="S21" s="7"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C22" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
@@ -1317,7 +1700,10 @@
       <c r="S22" s="7"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C23" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="7"/>
       <c r="M23" s="9"/>
@@ -1329,7 +1715,10 @@
       <c r="S23" s="7"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C24" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="9"/>
@@ -1341,7 +1730,10 @@
       <c r="S24" s="7"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C25" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="7"/>
       <c r="M25" s="9"/>
@@ -1353,7 +1745,10 @@
       <c r="S25" s="7"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C26" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="7"/>
       <c r="M26" s="9"/>
@@ -1365,7 +1760,10 @@
       <c r="S26" s="7"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C27" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="7"/>
       <c r="M27" s="9"/>
@@ -1377,7 +1775,10 @@
       <c r="S27" s="7"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C28" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="7"/>
       <c r="M28" s="9"/>
@@ -1389,7 +1790,10 @@
       <c r="S28" s="7"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C29" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="7"/>
       <c r="M29" s="9"/>
@@ -1401,7 +1805,10 @@
       <c r="S29" s="7"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C30" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="7"/>
       <c r="M30" s="9"/>
@@ -1413,7 +1820,10 @@
       <c r="S30" s="7"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C31" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
       <c r="M31" s="9"/>
@@ -1425,7 +1835,10 @@
       <c r="S31" s="7"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C32" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="7"/>
       <c r="M32" s="9"/>
@@ -1437,7 +1850,10 @@
       <c r="S32" s="7"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C33" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
       <c r="M33" s="9"/>
@@ -1449,31 +1865,40 @@
       <c r="S33" s="7"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C34" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
       <c r="M34" s="9"/>
       <c r="N34" s="7"/>
       <c r="O34" s="9"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="14"/>
-    </row>
-    <row r="35" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q34" s="15"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C35" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="7"/>
       <c r="M35" s="9"/>
       <c r="N35" s="7"/>
       <c r="O35" s="9"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="14"/>
-    </row>
-    <row r="36" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q35" s="15"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C36" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="7"/>
       <c r="M36" s="9"/>
@@ -1485,7 +1910,10 @@
       <c r="S36" s="7"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C37" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="7"/>
       <c r="M37" s="9"/>
@@ -1497,7 +1925,10 @@
       <c r="S37" s="7"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C38" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="7"/>
       <c r="M38" s="9"/>
@@ -1509,7 +1940,10 @@
       <c r="S38" s="7"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C39" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="7"/>
       <c r="M39" s="9"/>
@@ -1521,7 +1955,10 @@
       <c r="S39" s="7"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="40" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C40" s="19" t="s">
+        <v>111</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="7"/>
       <c r="M40" s="9"/>
@@ -1533,7 +1970,10 @@
       <c r="S40" s="7"/>
       <c r="T40" s="6"/>
     </row>
-    <row r="41" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C41" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="7"/>
       <c r="M41" s="9"/>
@@ -1545,7 +1985,10 @@
       <c r="S41" s="7"/>
       <c r="T41" s="6"/>
     </row>
-    <row r="42" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C42" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="7"/>
       <c r="M42" s="9"/>
@@ -1557,7 +2000,10 @@
       <c r="S42" s="7"/>
       <c r="T42" s="6"/>
     </row>
-    <row r="43" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C43" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="K43" s="6"/>
       <c r="L43" s="7"/>
       <c r="M43" s="9"/>
@@ -1569,7 +2015,10 @@
       <c r="S43" s="7"/>
       <c r="T43" s="6"/>
     </row>
-    <row r="44" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C44" s="19" t="s">
+        <v>115</v>
+      </c>
       <c r="K44" s="6"/>
       <c r="L44" s="7"/>
       <c r="M44" s="9"/>
@@ -1581,7 +2030,10 @@
       <c r="S44" s="7"/>
       <c r="T44" s="6"/>
     </row>
-    <row r="45" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C45" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="K45" s="6"/>
       <c r="L45" s="7"/>
       <c r="M45" s="9"/>
@@ -1593,7 +2045,10 @@
       <c r="S45" s="7"/>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C46" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="K46" s="6"/>
       <c r="L46" s="7"/>
       <c r="M46" s="9"/>
@@ -1605,7 +2060,10 @@
       <c r="S46" s="7"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C47" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="K47" s="6"/>
       <c r="L47" s="7"/>
       <c r="M47" s="9"/>
@@ -1617,7 +2075,10 @@
       <c r="S47" s="7"/>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C48" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="K48" s="6"/>
       <c r="L48" s="7"/>
       <c r="M48" s="9"/>
@@ -1629,7 +2090,10 @@
       <c r="S48" s="7"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C49" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="K49" s="6"/>
       <c r="L49" s="7"/>
       <c r="M49" s="9"/>
@@ -1641,31 +2105,40 @@
       <c r="S49" s="7"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C50" s="19" t="s">
+        <v>121</v>
+      </c>
       <c r="K50" s="6"/>
       <c r="L50" s="7"/>
       <c r="M50" s="9"/>
       <c r="N50" s="7"/>
       <c r="O50" s="9"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="14"/>
-    </row>
-    <row r="51" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q50" s="15"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="17"/>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C51" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="K51" s="6"/>
       <c r="L51" s="7"/>
       <c r="M51" s="9"/>
       <c r="N51" s="7"/>
       <c r="O51" s="9"/>
       <c r="P51" s="7"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="14"/>
-    </row>
-    <row r="52" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q51" s="15"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="17"/>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C52" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="K52" s="6"/>
       <c r="L52" s="7"/>
       <c r="M52" s="9"/>
@@ -1677,7 +2150,10 @@
       <c r="S52" s="7"/>
       <c r="T52" s="6"/>
     </row>
-    <row r="53" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C53" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="K53" s="6"/>
       <c r="L53" s="7"/>
       <c r="M53" s="9"/>
@@ -1689,7 +2165,10 @@
       <c r="S53" s="7"/>
       <c r="T53" s="6"/>
     </row>
-    <row r="54" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C54" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="K54" s="6"/>
       <c r="L54" s="7"/>
       <c r="M54" s="9"/>
@@ -1701,7 +2180,10 @@
       <c r="S54" s="7"/>
       <c r="T54" s="6"/>
     </row>
-    <row r="55" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C55" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="K55" s="6"/>
       <c r="L55" s="7"/>
       <c r="M55" s="9"/>
@@ -1713,7 +2195,10 @@
       <c r="S55" s="7"/>
       <c r="T55" s="6"/>
     </row>
-    <row r="56" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C56" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="K56" s="6"/>
       <c r="L56" s="7"/>
       <c r="M56" s="9"/>
@@ -1725,7 +2210,10 @@
       <c r="S56" s="7"/>
       <c r="T56" s="6"/>
     </row>
-    <row r="57" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C57" s="19" t="s">
+        <v>128</v>
+      </c>
       <c r="K57" s="6"/>
       <c r="L57" s="7"/>
       <c r="M57" s="9"/>
@@ -1737,7 +2225,10 @@
       <c r="S57" s="7"/>
       <c r="T57" s="6"/>
     </row>
-    <row r="58" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C58" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="K58" s="6"/>
       <c r="L58" s="7"/>
       <c r="M58" s="9"/>
@@ -1749,7 +2240,10 @@
       <c r="S58" s="7"/>
       <c r="T58" s="6"/>
     </row>
-    <row r="59" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C59" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="K59" s="6"/>
       <c r="L59" s="7"/>
       <c r="M59" s="9"/>
@@ -1761,7 +2255,10 @@
       <c r="S59" s="7"/>
       <c r="T59" s="6"/>
     </row>
-    <row r="60" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C60" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="K60" s="6"/>
       <c r="L60" s="7"/>
       <c r="M60" s="9"/>
@@ -1773,7 +2270,10 @@
       <c r="S60" s="7"/>
       <c r="T60" s="6"/>
     </row>
-    <row r="61" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C61" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="K61" s="6"/>
       <c r="L61" s="7"/>
       <c r="M61" s="9"/>
@@ -1785,7 +2285,10 @@
       <c r="S61" s="7"/>
       <c r="T61" s="6"/>
     </row>
-    <row r="62" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C62" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="K62" s="6"/>
       <c r="L62" s="7"/>
       <c r="M62" s="9"/>
@@ -1797,7 +2300,10 @@
       <c r="S62" s="7"/>
       <c r="T62" s="6"/>
     </row>
-    <row r="63" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C63" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="K63" s="6"/>
       <c r="L63" s="7"/>
       <c r="M63" s="9"/>
@@ -1809,7 +2315,10 @@
       <c r="S63" s="7"/>
       <c r="T63" s="6"/>
     </row>
-    <row r="64" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C64" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="K64" s="6"/>
       <c r="L64" s="7"/>
       <c r="M64" s="9"/>
@@ -1821,7 +2330,10 @@
       <c r="S64" s="7"/>
       <c r="T64" s="6"/>
     </row>
-    <row r="65" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C65" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="K65" s="6"/>
       <c r="L65" s="7"/>
       <c r="M65" s="9"/>
@@ -1833,31 +2345,40 @@
       <c r="S65" s="7"/>
       <c r="T65" s="6"/>
     </row>
-    <row r="66" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C66" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="K66" s="6"/>
       <c r="L66" s="7"/>
       <c r="M66" s="9"/>
       <c r="N66" s="7"/>
       <c r="O66" s="9"/>
       <c r="P66" s="7"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="14"/>
-    </row>
-    <row r="67" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q66" s="15"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="17"/>
+    </row>
+    <row r="67" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C67" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="K67" s="6"/>
       <c r="L67" s="7"/>
       <c r="M67" s="9"/>
       <c r="N67" s="7"/>
       <c r="O67" s="9"/>
       <c r="P67" s="7"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="14"/>
-    </row>
-    <row r="68" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q67" s="15"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="17"/>
+    </row>
+    <row r="68" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C68" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="K68" s="6"/>
       <c r="L68" s="7"/>
       <c r="M68" s="9"/>
@@ -1869,7 +2390,10 @@
       <c r="S68" s="7"/>
       <c r="T68" s="6"/>
     </row>
-    <row r="69" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C69" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="K69" s="6"/>
       <c r="L69" s="7"/>
       <c r="M69" s="9"/>
@@ -1881,7 +2405,10 @@
       <c r="S69" s="7"/>
       <c r="T69" s="6"/>
     </row>
-    <row r="70" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C70" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="K70" s="6"/>
       <c r="L70" s="7"/>
       <c r="M70" s="9"/>
@@ -1893,7 +2420,10 @@
       <c r="S70" s="7"/>
       <c r="T70" s="6"/>
     </row>
-    <row r="71" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C71" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="K71" s="6"/>
       <c r="L71" s="7"/>
       <c r="M71" s="9"/>
@@ -1905,7 +2435,10 @@
       <c r="S71" s="7"/>
       <c r="T71" s="6"/>
     </row>
-    <row r="72" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C72" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="K72" s="6"/>
       <c r="L72" s="7"/>
       <c r="M72" s="9"/>
@@ -1917,7 +2450,10 @@
       <c r="S72" s="7"/>
       <c r="T72" s="6"/>
     </row>
-    <row r="73" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C73" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="K73" s="6"/>
       <c r="L73" s="7"/>
       <c r="M73" s="9"/>
@@ -1929,7 +2465,10 @@
       <c r="S73" s="7"/>
       <c r="T73" s="6"/>
     </row>
-    <row r="74" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C74" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="K74" s="6"/>
       <c r="L74" s="7"/>
       <c r="M74" s="9"/>
@@ -1941,7 +2480,10 @@
       <c r="S74" s="7"/>
       <c r="T74" s="6"/>
     </row>
-    <row r="75" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C75" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="K75" s="6"/>
       <c r="L75" s="7"/>
       <c r="M75" s="9"/>
@@ -1953,7 +2495,10 @@
       <c r="S75" s="7"/>
       <c r="T75" s="6"/>
     </row>
-    <row r="76" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C76" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="K76" s="6"/>
       <c r="L76" s="7"/>
       <c r="M76" s="9"/>
@@ -1965,7 +2510,10 @@
       <c r="S76" s="7"/>
       <c r="T76" s="6"/>
     </row>
-    <row r="77" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C77" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="K77" s="6"/>
       <c r="L77" s="7"/>
       <c r="M77" s="9"/>
@@ -1977,7 +2525,10 @@
       <c r="S77" s="7"/>
       <c r="T77" s="6"/>
     </row>
-    <row r="78" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C78" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="K78" s="6"/>
       <c r="L78" s="7"/>
       <c r="M78" s="9"/>
@@ -1989,7 +2540,10 @@
       <c r="S78" s="7"/>
       <c r="T78" s="6"/>
     </row>
-    <row r="79" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C79" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="K79" s="6"/>
       <c r="L79" s="7"/>
       <c r="M79" s="9"/>
@@ -2001,7 +2555,10 @@
       <c r="S79" s="7"/>
       <c r="T79" s="6"/>
     </row>
-    <row r="80" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C80" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="K80" s="6"/>
       <c r="L80" s="7"/>
       <c r="M80" s="9"/>
@@ -2013,7 +2570,10 @@
       <c r="S80" s="7"/>
       <c r="T80" s="6"/>
     </row>
-    <row r="81" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C81" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="K81" s="6"/>
       <c r="L81" s="7"/>
       <c r="M81" s="9"/>
@@ -2025,31 +2585,40 @@
       <c r="S81" s="7"/>
       <c r="T81" s="6"/>
     </row>
-    <row r="82" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C82" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="K82" s="6"/>
       <c r="L82" s="7"/>
       <c r="M82" s="9"/>
       <c r="N82" s="7"/>
       <c r="O82" s="9"/>
       <c r="P82" s="7"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="14"/>
-    </row>
-    <row r="83" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q82" s="15"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="17"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C83" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="K83" s="6"/>
       <c r="L83" s="7"/>
       <c r="M83" s="9"/>
       <c r="N83" s="7"/>
       <c r="O83" s="9"/>
       <c r="P83" s="7"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="14"/>
-    </row>
-    <row r="84" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q83" s="15"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="17"/>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C84" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="K84" s="6"/>
       <c r="L84" s="7"/>
       <c r="M84" s="9"/>
@@ -2061,7 +2630,10 @@
       <c r="S84" s="7"/>
       <c r="T84" s="6"/>
     </row>
-    <row r="85" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C85" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="K85" s="6"/>
       <c r="L85" s="7"/>
       <c r="M85" s="9"/>
@@ -2073,7 +2645,10 @@
       <c r="S85" s="7"/>
       <c r="T85" s="6"/>
     </row>
-    <row r="86" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C86" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="K86" s="6"/>
       <c r="L86" s="7"/>
       <c r="M86" s="9"/>
@@ -2085,7 +2660,10 @@
       <c r="S86" s="7"/>
       <c r="T86" s="6"/>
     </row>
-    <row r="87" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C87" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="K87" s="6"/>
       <c r="L87" s="7"/>
       <c r="M87" s="9"/>
@@ -2097,7 +2675,10 @@
       <c r="S87" s="7"/>
       <c r="T87" s="6"/>
     </row>
-    <row r="88" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C88" s="19" t="s">
+        <v>159</v>
+      </c>
       <c r="K88" s="6"/>
       <c r="L88" s="7"/>
       <c r="M88" s="9"/>
@@ -2109,7 +2690,10 @@
       <c r="S88" s="7"/>
       <c r="T88" s="6"/>
     </row>
-    <row r="89" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C89" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="K89" s="6"/>
       <c r="L89" s="7"/>
       <c r="M89" s="9"/>
@@ -2121,7 +2705,10 @@
       <c r="S89" s="7"/>
       <c r="T89" s="6"/>
     </row>
-    <row r="90" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C90" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="K90" s="6"/>
       <c r="L90" s="7"/>
       <c r="M90" s="9"/>
@@ -2133,7 +2720,10 @@
       <c r="S90" s="7"/>
       <c r="T90" s="6"/>
     </row>
-    <row r="91" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C91" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="K91" s="6"/>
       <c r="L91" s="7"/>
       <c r="M91" s="9"/>
@@ -2145,7 +2735,10 @@
       <c r="S91" s="7"/>
       <c r="T91" s="6"/>
     </row>
-    <row r="92" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C92" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="K92" s="6"/>
       <c r="L92" s="7"/>
       <c r="M92" s="9"/>
@@ -2157,7 +2750,10 @@
       <c r="S92" s="7"/>
       <c r="T92" s="6"/>
     </row>
-    <row r="93" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C93" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="K93" s="6"/>
       <c r="L93" s="7"/>
       <c r="M93" s="9"/>
@@ -2169,7 +2765,10 @@
       <c r="S93" s="7"/>
       <c r="T93" s="6"/>
     </row>
-    <row r="94" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C94" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="K94" s="6"/>
       <c r="L94" s="7"/>
       <c r="M94" s="9"/>
@@ -2181,7 +2780,10 @@
       <c r="S94" s="7"/>
       <c r="T94" s="6"/>
     </row>
-    <row r="95" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C95" s="19" t="s">
+        <v>166</v>
+      </c>
       <c r="K95" s="6"/>
       <c r="L95" s="7"/>
       <c r="M95" s="9"/>
@@ -2193,7 +2795,10 @@
       <c r="S95" s="7"/>
       <c r="T95" s="6"/>
     </row>
-    <row r="96" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C96" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="K96" s="6"/>
       <c r="L96" s="7"/>
       <c r="M96" s="9"/>
@@ -2205,7 +2810,10 @@
       <c r="S96" s="7"/>
       <c r="T96" s="6"/>
     </row>
-    <row r="97" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C97" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="K97" s="6"/>
       <c r="L97" s="7"/>
       <c r="M97" s="9"/>
@@ -2217,31 +2825,40 @@
       <c r="S97" s="7"/>
       <c r="T97" s="6"/>
     </row>
-    <row r="98" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C98" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="K98" s="6"/>
       <c r="L98" s="7"/>
       <c r="M98" s="9"/>
       <c r="N98" s="7"/>
       <c r="O98" s="9"/>
       <c r="P98" s="7"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="14"/>
-    </row>
-    <row r="99" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q98" s="15"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="17"/>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C99" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="K99" s="6"/>
       <c r="L99" s="7"/>
       <c r="M99" s="9"/>
       <c r="N99" s="7"/>
       <c r="O99" s="9"/>
       <c r="P99" s="7"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="14"/>
-    </row>
-    <row r="100" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q99" s="15"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="17"/>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.45">
+      <c r="C100" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="K100" s="6"/>
       <c r="L100" s="7"/>
       <c r="M100" s="9"/>
@@ -2253,7 +2870,7 @@
       <c r="S100" s="7"/>
       <c r="T100" s="6"/>
     </row>
-    <row r="101" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K101" s="6"/>
       <c r="L101" s="7"/>
       <c r="M101" s="9"/>
@@ -2265,7 +2882,7 @@
       <c r="S101" s="7"/>
       <c r="T101" s="6"/>
     </row>
-    <row r="102" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K102" s="6"/>
       <c r="L102" s="7"/>
       <c r="M102" s="9"/>
@@ -2277,7 +2894,7 @@
       <c r="S102" s="7"/>
       <c r="T102" s="6"/>
     </row>
-    <row r="103" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K103" s="6"/>
       <c r="L103" s="7"/>
       <c r="M103" s="9"/>
@@ -2289,7 +2906,7 @@
       <c r="S103" s="7"/>
       <c r="T103" s="6"/>
     </row>
-    <row r="104" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K104" s="6"/>
       <c r="L104" s="7"/>
       <c r="M104" s="9"/>
@@ -2301,7 +2918,7 @@
       <c r="S104" s="7"/>
       <c r="T104" s="6"/>
     </row>
-    <row r="105" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K105" s="6"/>
       <c r="L105" s="7"/>
       <c r="M105" s="9"/>
@@ -2313,7 +2930,7 @@
       <c r="S105" s="7"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K106" s="6"/>
       <c r="L106" s="7"/>
       <c r="M106" s="9"/>
@@ -2325,7 +2942,7 @@
       <c r="S106" s="7"/>
       <c r="T106" s="6"/>
     </row>
-    <row r="107" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K107" s="6"/>
       <c r="L107" s="7"/>
       <c r="M107" s="9"/>
@@ -2337,7 +2954,7 @@
       <c r="S107" s="7"/>
       <c r="T107" s="6"/>
     </row>
-    <row r="108" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K108" s="6"/>
       <c r="L108" s="7"/>
       <c r="M108" s="9"/>
@@ -2349,7 +2966,7 @@
       <c r="S108" s="7"/>
       <c r="T108" s="6"/>
     </row>
-    <row r="109" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K109" s="6"/>
       <c r="L109" s="7"/>
       <c r="M109" s="9"/>
@@ -2361,7 +2978,7 @@
       <c r="S109" s="7"/>
       <c r="T109" s="6"/>
     </row>
-    <row r="110" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K110" s="6"/>
       <c r="L110" s="7"/>
       <c r="M110" s="9"/>
@@ -2373,7 +2990,7 @@
       <c r="S110" s="7"/>
       <c r="T110" s="6"/>
     </row>
-    <row r="111" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K111" s="6"/>
       <c r="L111" s="7"/>
       <c r="M111" s="9"/>
@@ -2385,7 +3002,7 @@
       <c r="S111" s="7"/>
       <c r="T111" s="6"/>
     </row>
-    <row r="112" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.45">
       <c r="K112" s="6"/>
       <c r="L112" s="7"/>
       <c r="M112" s="9"/>
@@ -2397,7 +3014,7 @@
       <c r="S112" s="7"/>
       <c r="T112" s="6"/>
     </row>
-    <row r="113" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K113" s="6"/>
       <c r="L113" s="7"/>
       <c r="M113" s="9"/>
@@ -2409,31 +3026,31 @@
       <c r="S113" s="7"/>
       <c r="T113" s="6"/>
     </row>
-    <row r="114" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K114" s="6"/>
       <c r="L114" s="7"/>
       <c r="M114" s="9"/>
       <c r="N114" s="7"/>
       <c r="O114" s="9"/>
       <c r="P114" s="7"/>
-      <c r="Q114" s="16"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="14"/>
-    </row>
-    <row r="115" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q114" s="15"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="17"/>
+    </row>
+    <row r="115" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K115" s="6"/>
       <c r="L115" s="7"/>
       <c r="M115" s="9"/>
       <c r="N115" s="7"/>
       <c r="O115" s="9"/>
       <c r="P115" s="7"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="14"/>
-    </row>
-    <row r="116" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q115" s="15"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="17"/>
+    </row>
+    <row r="116" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K116" s="6"/>
       <c r="L116" s="7"/>
       <c r="M116" s="9"/>
@@ -2445,7 +3062,7 @@
       <c r="S116" s="7"/>
       <c r="T116" s="6"/>
     </row>
-    <row r="117" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K117" s="6"/>
       <c r="L117" s="7"/>
       <c r="M117" s="9"/>
@@ -2457,7 +3074,7 @@
       <c r="S117" s="7"/>
       <c r="T117" s="6"/>
     </row>
-    <row r="118" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K118" s="6"/>
       <c r="L118" s="7"/>
       <c r="M118" s="9"/>
@@ -2469,7 +3086,7 @@
       <c r="S118" s="7"/>
       <c r="T118" s="6"/>
     </row>
-    <row r="119" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K119" s="6"/>
       <c r="L119" s="7"/>
       <c r="M119" s="9"/>
@@ -2481,7 +3098,7 @@
       <c r="S119" s="7"/>
       <c r="T119" s="6"/>
     </row>
-    <row r="120" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K120" s="6"/>
       <c r="L120" s="7"/>
       <c r="M120" s="9"/>
@@ -2493,7 +3110,7 @@
       <c r="S120" s="7"/>
       <c r="T120" s="6"/>
     </row>
-    <row r="121" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K121" s="6"/>
       <c r="L121" s="7"/>
       <c r="M121" s="9"/>
@@ -2505,7 +3122,7 @@
       <c r="S121" s="7"/>
       <c r="T121" s="6"/>
     </row>
-    <row r="122" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K122" s="6"/>
       <c r="L122" s="7"/>
       <c r="M122" s="9"/>
@@ -2517,7 +3134,7 @@
       <c r="S122" s="7"/>
       <c r="T122" s="6"/>
     </row>
-    <row r="123" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K123" s="6"/>
       <c r="L123" s="7"/>
       <c r="M123" s="9"/>
@@ -2529,7 +3146,7 @@
       <c r="S123" s="7"/>
       <c r="T123" s="6"/>
     </row>
-    <row r="124" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K124" s="6"/>
       <c r="L124" s="7"/>
       <c r="M124" s="9"/>
@@ -2541,7 +3158,7 @@
       <c r="S124" s="7"/>
       <c r="T124" s="6"/>
     </row>
-    <row r="125" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K125" s="6"/>
       <c r="L125" s="7"/>
       <c r="M125" s="9"/>
@@ -2553,7 +3170,7 @@
       <c r="S125" s="7"/>
       <c r="T125" s="6"/>
     </row>
-    <row r="126" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K126" s="6"/>
       <c r="L126" s="7"/>
       <c r="M126" s="9"/>
@@ -2565,7 +3182,7 @@
       <c r="S126" s="7"/>
       <c r="T126" s="6"/>
     </row>
-    <row r="127" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K127" s="6"/>
       <c r="L127" s="7"/>
       <c r="M127" s="9"/>
@@ -2577,7 +3194,7 @@
       <c r="S127" s="7"/>
       <c r="T127" s="6"/>
     </row>
-    <row r="128" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K128" s="6"/>
       <c r="L128" s="7"/>
       <c r="M128" s="9"/>
@@ -2589,7 +3206,7 @@
       <c r="S128" s="7"/>
       <c r="T128" s="6"/>
     </row>
-    <row r="129" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K129" s="6"/>
       <c r="L129" s="7"/>
       <c r="M129" s="9"/>
@@ -2601,31 +3218,31 @@
       <c r="S129" s="7"/>
       <c r="T129" s="6"/>
     </row>
-    <row r="130" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K130" s="6"/>
       <c r="L130" s="7"/>
       <c r="M130" s="9"/>
       <c r="N130" s="7"/>
       <c r="O130" s="9"/>
       <c r="P130" s="7"/>
-      <c r="Q130" s="16"/>
-      <c r="R130" s="18"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="14"/>
-    </row>
-    <row r="131" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q130" s="15"/>
+      <c r="R130" s="17"/>
+      <c r="S130" s="16"/>
+      <c r="T130" s="17"/>
+    </row>
+    <row r="131" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K131" s="6"/>
       <c r="L131" s="7"/>
       <c r="M131" s="9"/>
       <c r="N131" s="7"/>
       <c r="O131" s="9"/>
       <c r="P131" s="7"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="14"/>
-    </row>
-    <row r="132" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q131" s="15"/>
+      <c r="R131" s="17"/>
+      <c r="S131" s="16"/>
+      <c r="T131" s="17"/>
+    </row>
+    <row r="132" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K132" s="6"/>
       <c r="L132" s="7"/>
       <c r="M132" s="9"/>
@@ -2637,7 +3254,7 @@
       <c r="S132" s="7"/>
       <c r="T132" s="6"/>
     </row>
-    <row r="133" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K133" s="6"/>
       <c r="L133" s="7"/>
       <c r="M133" s="9"/>
@@ -2649,7 +3266,7 @@
       <c r="S133" s="7"/>
       <c r="T133" s="6"/>
     </row>
-    <row r="134" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K134" s="6"/>
       <c r="L134" s="7"/>
       <c r="M134" s="9"/>
@@ -2661,7 +3278,7 @@
       <c r="S134" s="7"/>
       <c r="T134" s="6"/>
     </row>
-    <row r="135" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K135" s="6"/>
       <c r="L135" s="7"/>
       <c r="M135" s="9"/>
@@ -2673,7 +3290,7 @@
       <c r="S135" s="7"/>
       <c r="T135" s="6"/>
     </row>
-    <row r="136" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K136" s="6"/>
       <c r="L136" s="7"/>
       <c r="M136" s="9"/>
@@ -2685,7 +3302,7 @@
       <c r="S136" s="7"/>
       <c r="T136" s="6"/>
     </row>
-    <row r="137" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K137" s="6"/>
       <c r="L137" s="7"/>
       <c r="M137" s="9"/>
@@ -2697,7 +3314,7 @@
       <c r="S137" s="7"/>
       <c r="T137" s="6"/>
     </row>
-    <row r="138" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K138" s="6"/>
       <c r="L138" s="7"/>
       <c r="M138" s="9"/>
@@ -2709,7 +3326,7 @@
       <c r="S138" s="7"/>
       <c r="T138" s="6"/>
     </row>
-    <row r="139" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K139" s="6"/>
       <c r="L139" s="7"/>
       <c r="M139" s="9"/>
@@ -2721,7 +3338,7 @@
       <c r="S139" s="7"/>
       <c r="T139" s="6"/>
     </row>
-    <row r="140" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K140" s="6"/>
       <c r="L140" s="7"/>
       <c r="M140" s="9"/>
@@ -2733,7 +3350,7 @@
       <c r="S140" s="7"/>
       <c r="T140" s="6"/>
     </row>
-    <row r="141" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K141" s="6"/>
       <c r="L141" s="7"/>
       <c r="M141" s="9"/>
@@ -2745,7 +3362,7 @@
       <c r="S141" s="7"/>
       <c r="T141" s="6"/>
     </row>
-    <row r="142" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K142" s="6"/>
       <c r="L142" s="7"/>
       <c r="M142" s="9"/>
@@ -2757,7 +3374,7 @@
       <c r="S142" s="7"/>
       <c r="T142" s="6"/>
     </row>
-    <row r="143" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K143" s="6"/>
       <c r="L143" s="7"/>
       <c r="M143" s="9"/>
@@ -2769,7 +3386,7 @@
       <c r="S143" s="7"/>
       <c r="T143" s="6"/>
     </row>
-    <row r="144" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K144" s="6"/>
       <c r="L144" s="7"/>
       <c r="M144" s="9"/>
@@ -2781,7 +3398,7 @@
       <c r="S144" s="7"/>
       <c r="T144" s="6"/>
     </row>
-    <row r="145" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K145" s="6"/>
       <c r="L145" s="7"/>
       <c r="M145" s="9"/>
@@ -2793,31 +3410,31 @@
       <c r="S145" s="7"/>
       <c r="T145" s="6"/>
     </row>
-    <row r="146" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K146" s="6"/>
       <c r="L146" s="7"/>
       <c r="M146" s="9"/>
       <c r="N146" s="7"/>
       <c r="O146" s="9"/>
       <c r="P146" s="7"/>
-      <c r="Q146" s="16"/>
-      <c r="R146" s="18"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="14"/>
-    </row>
-    <row r="147" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q146" s="15"/>
+      <c r="R146" s="17"/>
+      <c r="S146" s="16"/>
+      <c r="T146" s="17"/>
+    </row>
+    <row r="147" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K147" s="6"/>
       <c r="L147" s="7"/>
       <c r="M147" s="9"/>
       <c r="N147" s="7"/>
       <c r="O147" s="9"/>
       <c r="P147" s="7"/>
-      <c r="Q147" s="8"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="14"/>
-    </row>
-    <row r="148" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q147" s="15"/>
+      <c r="R147" s="17"/>
+      <c r="S147" s="16"/>
+      <c r="T147" s="17"/>
+    </row>
+    <row r="148" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K148" s="6"/>
       <c r="L148" s="7"/>
       <c r="M148" s="9"/>
@@ -2829,7 +3446,7 @@
       <c r="S148" s="7"/>
       <c r="T148" s="6"/>
     </row>
-    <row r="149" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K149" s="6"/>
       <c r="L149" s="7"/>
       <c r="M149" s="9"/>
@@ -2841,7 +3458,7 @@
       <c r="S149" s="7"/>
       <c r="T149" s="6"/>
     </row>
-    <row r="150" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K150" s="6"/>
       <c r="L150" s="7"/>
       <c r="M150" s="9"/>
@@ -2853,7 +3470,7 @@
       <c r="S150" s="7"/>
       <c r="T150" s="6"/>
     </row>
-    <row r="151" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K151" s="6"/>
       <c r="L151" s="7"/>
       <c r="M151" s="9"/>
@@ -2865,7 +3482,7 @@
       <c r="S151" s="7"/>
       <c r="T151" s="6"/>
     </row>
-    <row r="152" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K152" s="6"/>
       <c r="L152" s="7"/>
       <c r="M152" s="9"/>
@@ -2877,7 +3494,7 @@
       <c r="S152" s="7"/>
       <c r="T152" s="6"/>
     </row>
-    <row r="153" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K153" s="6"/>
       <c r="L153" s="7"/>
       <c r="M153" s="9"/>
@@ -2889,7 +3506,7 @@
       <c r="S153" s="7"/>
       <c r="T153" s="6"/>
     </row>
-    <row r="154" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K154" s="6"/>
       <c r="L154" s="7"/>
       <c r="M154" s="9"/>
@@ -2901,7 +3518,7 @@
       <c r="S154" s="7"/>
       <c r="T154" s="6"/>
     </row>
-    <row r="155" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K155" s="6"/>
       <c r="L155" s="7"/>
       <c r="M155" s="9"/>
@@ -2913,7 +3530,7 @@
       <c r="S155" s="7"/>
       <c r="T155" s="6"/>
     </row>
-    <row r="156" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K156" s="6"/>
       <c r="L156" s="7"/>
       <c r="M156" s="9"/>
@@ -2925,7 +3542,7 @@
       <c r="S156" s="7"/>
       <c r="T156" s="6"/>
     </row>
-    <row r="157" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K157" s="6"/>
       <c r="L157" s="7"/>
       <c r="M157" s="9"/>
@@ -2937,7 +3554,7 @@
       <c r="S157" s="7"/>
       <c r="T157" s="6"/>
     </row>
-    <row r="158" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K158" s="6"/>
       <c r="L158" s="7"/>
       <c r="M158" s="9"/>
@@ -2949,7 +3566,7 @@
       <c r="S158" s="7"/>
       <c r="T158" s="6"/>
     </row>
-    <row r="159" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K159" s="6"/>
       <c r="L159" s="7"/>
       <c r="M159" s="9"/>
@@ -2961,7 +3578,7 @@
       <c r="S159" s="7"/>
       <c r="T159" s="6"/>
     </row>
-    <row r="160" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K160" s="6"/>
       <c r="L160" s="7"/>
       <c r="M160" s="9"/>
@@ -2973,7 +3590,7 @@
       <c r="S160" s="7"/>
       <c r="T160" s="6"/>
     </row>
-    <row r="161" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K161" s="6"/>
       <c r="L161" s="7"/>
       <c r="M161" s="9"/>
@@ -2985,31 +3602,31 @@
       <c r="S161" s="7"/>
       <c r="T161" s="6"/>
     </row>
-    <row r="162" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K162" s="6"/>
       <c r="L162" s="7"/>
       <c r="M162" s="9"/>
       <c r="N162" s="7"/>
       <c r="O162" s="9"/>
       <c r="P162" s="7"/>
-      <c r="Q162" s="16"/>
-      <c r="R162" s="18"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="14"/>
-    </row>
-    <row r="163" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q162" s="15"/>
+      <c r="R162" s="17"/>
+      <c r="S162" s="16"/>
+      <c r="T162" s="17"/>
+    </row>
+    <row r="163" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K163" s="6"/>
       <c r="L163" s="7"/>
       <c r="M163" s="9"/>
       <c r="N163" s="7"/>
       <c r="O163" s="9"/>
       <c r="P163" s="7"/>
-      <c r="Q163" s="8"/>
-      <c r="R163" s="4"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="14"/>
-    </row>
-    <row r="164" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q163" s="15"/>
+      <c r="R163" s="17"/>
+      <c r="S163" s="16"/>
+      <c r="T163" s="17"/>
+    </row>
+    <row r="164" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K164" s="6"/>
       <c r="L164" s="7"/>
       <c r="M164" s="9"/>
@@ -3021,7 +3638,7 @@
       <c r="S164" s="7"/>
       <c r="T164" s="6"/>
     </row>
-    <row r="165" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K165" s="6"/>
       <c r="L165" s="7"/>
       <c r="Q165" s="9"/>
@@ -3029,7 +3646,7 @@
       <c r="S165" s="9"/>
       <c r="T165" s="6"/>
     </row>
-    <row r="166" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K166" s="6"/>
       <c r="L166" s="7"/>
       <c r="Q166" s="9"/>
@@ -3037,7 +3654,7 @@
       <c r="S166" s="9"/>
       <c r="T166" s="6"/>
     </row>
-    <row r="167" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K167" s="6"/>
       <c r="L167" s="7"/>
       <c r="Q167" s="9"/>
@@ -3045,7 +3662,7 @@
       <c r="S167" s="9"/>
       <c r="T167" s="6"/>
     </row>
-    <row r="168" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K168" s="6"/>
       <c r="L168" s="7"/>
       <c r="Q168" s="9"/>
@@ -3053,7 +3670,7 @@
       <c r="S168" s="9"/>
       <c r="T168" s="6"/>
     </row>
-    <row r="169" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K169" s="6"/>
       <c r="L169" s="7"/>
       <c r="Q169" s="9"/>
@@ -3061,7 +3678,7 @@
       <c r="S169" s="9"/>
       <c r="T169" s="6"/>
     </row>
-    <row r="170" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K170" s="6"/>
       <c r="L170" s="7"/>
       <c r="Q170" s="9"/>
@@ -3069,7 +3686,7 @@
       <c r="S170" s="9"/>
       <c r="T170" s="6"/>
     </row>
-    <row r="171" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K171" s="6"/>
       <c r="L171" s="7"/>
       <c r="Q171" s="9"/>
@@ -3077,7 +3694,7 @@
       <c r="S171" s="9"/>
       <c r="T171" s="6"/>
     </row>
-    <row r="172" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K172" s="6"/>
       <c r="L172" s="7"/>
       <c r="Q172" s="9"/>
@@ -3085,7 +3702,7 @@
       <c r="S172" s="9"/>
       <c r="T172" s="6"/>
     </row>
-    <row r="173" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K173" s="6"/>
       <c r="L173" s="7"/>
       <c r="Q173" s="9"/>
@@ -3093,7 +3710,7 @@
       <c r="S173" s="9"/>
       <c r="T173" s="6"/>
     </row>
-    <row r="174" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K174" s="6"/>
       <c r="L174" s="7"/>
       <c r="Q174" s="9"/>
@@ -3101,7 +3718,7 @@
       <c r="S174" s="9"/>
       <c r="T174" s="6"/>
     </row>
-    <row r="175" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K175" s="6"/>
       <c r="L175" s="7"/>
       <c r="Q175" s="9"/>
@@ -3109,7 +3726,7 @@
       <c r="S175" s="9"/>
       <c r="T175" s="6"/>
     </row>
-    <row r="176" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K176" s="6"/>
       <c r="L176" s="7"/>
       <c r="Q176" s="9"/>
@@ -3117,108 +3734,108 @@
       <c r="S176" s="9"/>
       <c r="T176" s="6"/>
     </row>
-    <row r="177" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K177" s="6"/>
       <c r="L177" s="7"/>
-      <c r="O177" s="16"/>
-      <c r="P177" s="17"/>
+      <c r="O177" s="15"/>
+      <c r="P177" s="16"/>
       <c r="Q177" s="9"/>
       <c r="R177" s="7"/>
       <c r="S177" s="9"/>
       <c r="T177" s="6"/>
     </row>
-    <row r="178" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K178" s="6"/>
       <c r="L178" s="7"/>
-      <c r="O178" s="8"/>
-      <c r="P178" s="5"/>
-    </row>
-    <row r="179" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="O178" s="15"/>
+      <c r="P178" s="16"/>
+    </row>
+    <row r="179" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K179" s="6"/>
       <c r="L179" s="7"/>
       <c r="O179" s="9"/>
       <c r="P179" s="7"/>
     </row>
-    <row r="180" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K180" s="6"/>
       <c r="L180" s="7"/>
       <c r="O180" s="9"/>
       <c r="P180" s="7"/>
     </row>
-    <row r="181" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K181" s="6"/>
       <c r="L181" s="7"/>
       <c r="O181" s="9"/>
       <c r="P181" s="7"/>
     </row>
-    <row r="182" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K182" s="6"/>
       <c r="L182" s="7"/>
       <c r="O182" s="9"/>
       <c r="P182" s="7"/>
     </row>
-    <row r="183" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K183" s="6"/>
       <c r="L183" s="7"/>
     </row>
-    <row r="184" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K184" s="6"/>
       <c r="L184" s="7"/>
     </row>
-    <row r="185" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K185" s="6"/>
       <c r="L185" s="7"/>
     </row>
-    <row r="186" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K186" s="6"/>
       <c r="L186" s="7"/>
     </row>
-    <row r="187" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K187" s="6"/>
       <c r="L187" s="7"/>
     </row>
-    <row r="188" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K188" s="6"/>
       <c r="L188" s="7"/>
     </row>
-    <row r="189" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K189" s="6"/>
       <c r="L189" s="7"/>
     </row>
-    <row r="190" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K190" s="6"/>
       <c r="L190" s="7"/>
     </row>
-    <row r="191" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K191" s="6"/>
       <c r="L191" s="7"/>
     </row>
-    <row r="192" spans="11:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="11:20" x14ac:dyDescent="0.45">
       <c r="K192" s="6"/>
       <c r="L192" s="7"/>
     </row>
-    <row r="193" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K193" s="6"/>
       <c r="L193" s="7"/>
     </row>
-    <row r="194" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K194" s="6"/>
       <c r="L194" s="7"/>
     </row>
-    <row r="195" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K195" s="6"/>
       <c r="L195" s="7"/>
     </row>
-    <row r="196" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K196" s="6"/>
       <c r="L196" s="7"/>
     </row>
-    <row r="197" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K197" s="6"/>
       <c r="L197" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="16">
     <mergeCell ref="AK1:AZ1"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="B2:C2"/>
@@ -3235,17 +3852,6 @@
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="O177:P177"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="Q98:R98"/>
-    <mergeCell ref="Q114:R114"/>
-    <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="Q146:R146"/>
-    <mergeCell ref="Q162:R162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3253,24 +3859,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adorb\Documents\2018-01-08_internship-M2\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C26D6-884E-45E6-8119-A30DD919669D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="24780" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="165">
   <si>
     <t>group</t>
   </si>
@@ -498,19 +499,22 @@
     <t>E</t>
   </si>
   <si>
-    <t>4|6|7|8</t>
-  </si>
-  <si>
-    <t>4|5|7|8</t>
-  </si>
-  <si>
-    <t>2|3|5|6|7|8</t>
-  </si>
-  <si>
     <t>EEG008</t>
   </si>
   <si>
     <t>EEG061</t>
+  </si>
+  <si>
+    <t>EEG001|EEG002|EEG003|EEG004|EEG005|EEG006|EEG007|EEG008</t>
+  </si>
+  <si>
+    <t>EEG004|EEG005|EEG007|EEG008</t>
+  </si>
+  <si>
+    <t>EEG004|EEG006|EEG007|EEG008</t>
+  </si>
+  <si>
+    <t>EEG002|EEG003|EEG005|EEG006|EEG007|EEG008</t>
   </si>
 </sst>
 </file>
@@ -622,13 +626,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,7 +641,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,7 +988,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1001,54 +1005,54 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
       <c r="X1" s="6"/>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
       <c r="AI1" s="6"/>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
@@ -1066,15 +1070,15 @@
         <v>4</v>
       </c>
       <c r="K2" s="13"/>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="13"/>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="13"/>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="12"/>
@@ -1082,7 +1086,7 @@
       <c r="S2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="U2" s="12"/>
@@ -1092,21 +1096,21 @@
       <c r="Y2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14" t="s">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6" t="s">
         <v>32</v>
@@ -1185,7 +1189,7 @@
         <v>73</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>61</v>
@@ -1413,12 +1417,14 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
       </c>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -1498,12 +1504,14 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T6" s="1">
         <v>1</v>
       </c>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -1565,29 +1573,17 @@
         <v>1</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1662,12 +1658,14 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T8" s="1">
         <v>1</v>
       </c>
-      <c r="U8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -1747,12 +1745,14 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T9" s="1">
         <v>1</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -1832,12 +1832,14 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T10" s="1">
         <v>1</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -1911,12 +1913,14 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T11" s="1">
         <v>1</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -1996,12 +2000,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T12" s="1">
         <v>1</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -2081,12 +2087,14 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T13" s="1">
         <v>1</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -2148,29 +2156,17 @@
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -2245,12 +2241,14 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T15" s="1">
         <v>1</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -2330,24 +2328,32 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T16" s="1">
         <v>1</v>
       </c>
-      <c r="U16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+      <c r="AG16" s="1">
+        <v>0</v>
+      </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -2409,24 +2415,32 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T17" s="1">
         <v>1</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -2470,29 +2484,17 @@
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -2549,29 +2551,17 @@
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1</v>
-      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -2628,29 +2618,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -2707,29 +2685,17 @@
         <v>0</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T21" s="1">
-        <v>1</v>
-      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
@@ -2786,29 +2752,17 @@
         <v>0</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T22" s="1">
-        <v>1</v>
-      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
@@ -2883,12 +2837,14 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T23" s="1">
         <v>1</v>
       </c>
-      <c r="U23" s="1"/>
+      <c r="U23" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -2950,29 +2906,17 @@
         <v>0</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
@@ -3052,7 +2996,9 @@
       <c r="T25" s="1">
         <v>1</v>
       </c>
-      <c r="U25" s="1"/>
+      <c r="U25" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -3132,12 +3078,14 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T26" s="1">
         <v>1</v>
       </c>
-      <c r="U26" s="1"/>
+      <c r="U26" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -3199,29 +3147,17 @@
         <v>0</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
@@ -3278,29 +3214,17 @@
         <v>0</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T28" s="1">
-        <v>1</v>
-      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
@@ -3357,29 +3281,17 @@
         <v>0</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T29" s="1">
-        <v>1</v>
-      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -3454,12 +3366,14 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T30" s="1">
         <v>1</v>
       </c>
-      <c r="U30" s="1"/>
+      <c r="U30" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -3521,29 +3435,17 @@
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -3600,29 +3502,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -3702,7 +3592,9 @@
       <c r="T33" s="1">
         <v>1</v>
       </c>
-      <c r="U33" s="1"/>
+      <c r="U33" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -3781,7 +3673,9 @@
       <c r="T34" s="1">
         <v>1</v>
       </c>
-      <c r="U34" s="1"/>
+      <c r="U34" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -3861,15 +3755,14 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T35" s="1">
         <v>1</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="V35" s="1"/>
+        <v>162</v>
+      </c>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -3930,29 +3823,17 @@
         <v>0</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T36" s="1">
-        <v>1</v>
-      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -4027,12 +3908,14 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T37" s="1">
         <v>1</v>
       </c>
-      <c r="U37" s="1"/>
+      <c r="U37" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -4112,12 +3995,14 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T38" s="1">
         <v>1</v>
       </c>
-      <c r="U38" s="1"/>
+      <c r="U38" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -4197,12 +4082,14 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T39" s="1">
         <v>1</v>
       </c>
-      <c r="U39" s="1"/>
+      <c r="U39" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -4282,12 +4169,14 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T40" s="1">
         <v>0</v>
       </c>
-      <c r="U40" s="1"/>
+      <c r="U40" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -4349,29 +4238,17 @@
         <v>0</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0</v>
-      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
@@ -4434,29 +4311,17 @@
         <v>0</v>
       </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T42" s="1">
-        <v>1</v>
-      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -4513,29 +4378,17 @@
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="S43" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1</v>
-      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -4592,29 +4445,17 @@
         <v>0</v>
       </c>
       <c r="I44" s="1"/>
-      <c r="J44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T44" s="1">
-        <v>1</v>
-      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
@@ -4671,29 +4512,17 @@
         <v>0</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T45" s="1">
-        <v>1</v>
-      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
@@ -4750,29 +4579,17 @@
         <v>0</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T46" s="1">
-        <v>1</v>
-      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
@@ -4847,12 +4664,14 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T47" s="1">
         <v>1</v>
       </c>
-      <c r="U47" s="1"/>
+      <c r="U47" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
@@ -4932,12 +4751,14 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T48" s="1">
         <v>1</v>
       </c>
-      <c r="U48" s="1"/>
+      <c r="U48" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
@@ -4999,29 +4820,17 @@
         <v>0</v>
       </c>
       <c r="I49" s="1"/>
-      <c r="J49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T49" s="1">
-        <v>1</v>
-      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
@@ -5096,12 +4905,14 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T50" s="1">
         <v>1</v>
       </c>
-      <c r="U50" s="1"/>
+      <c r="U50" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
@@ -5181,12 +4992,14 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T51" s="1">
         <v>0</v>
       </c>
-      <c r="U51" s="1"/>
+      <c r="U51" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
@@ -5266,12 +5079,14 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T52" s="1">
         <v>1</v>
       </c>
-      <c r="U52" s="1"/>
+      <c r="U52" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
@@ -5351,12 +5166,14 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T53" s="1">
         <v>1</v>
       </c>
-      <c r="U53" s="1"/>
+      <c r="U53" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
@@ -5436,12 +5253,14 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T54" s="1">
         <v>1</v>
       </c>
-      <c r="U54" s="1"/>
+      <c r="U54" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
@@ -5525,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
@@ -5606,12 +5425,14 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T56" s="1">
         <v>1</v>
       </c>
-      <c r="U56" s="1"/>
+      <c r="U56" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
@@ -5673,29 +5494,17 @@
         <v>0</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="S57" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T57" s="1">
-        <v>1</v>
-      </c>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
@@ -5752,29 +5561,17 @@
         <v>0</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T58" s="1">
-        <v>1</v>
-      </c>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
@@ -5831,29 +5628,17 @@
         <v>0</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T59" s="1">
-        <v>1</v>
-      </c>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
@@ -5910,29 +5695,17 @@
         <v>0</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T60" s="1">
-        <v>1</v>
-      </c>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
@@ -6007,24 +5780,32 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T61" s="1">
         <v>1</v>
       </c>
-      <c r="U61" s="1"/>
+      <c r="U61" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
+      <c r="AD61" s="1">
+        <v>0</v>
+      </c>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
+      <c r="AG61" s="1">
+        <v>0</v>
+      </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
@@ -6086,12 +5867,14 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T62" s="1">
         <v>0</v>
       </c>
-      <c r="U62" s="1"/>
+      <c r="U62" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
@@ -6153,29 +5936,17 @@
         <v>0</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="S63" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T63" s="1">
-        <v>1</v>
-      </c>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
@@ -6250,12 +6021,14 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T64" s="1">
         <v>0</v>
       </c>
-      <c r="U64" s="1"/>
+      <c r="U64" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
@@ -6317,29 +6090,17 @@
         <v>0</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="S65" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T65" s="1">
-        <v>1</v>
-      </c>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
@@ -6414,12 +6175,14 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T66" s="1">
         <v>0</v>
       </c>
-      <c r="U66" s="1"/>
+      <c r="U66" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
@@ -6499,13 +6262,13 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T67" s="1">
+        <v>1</v>
+      </c>
+      <c r="U67" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="T67" s="1">
-        <v>1</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
@@ -6586,12 +6349,14 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T68" s="1">
         <v>0</v>
       </c>
-      <c r="U68" s="1"/>
+      <c r="U68" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
@@ -6653,29 +6418,17 @@
         <v>0</v>
       </c>
       <c r="I69" s="1"/>
-      <c r="J69" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="S69" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T69" s="1">
-        <v>1</v>
-      </c>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
@@ -6750,12 +6503,14 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T70" s="1">
         <v>1</v>
       </c>
-      <c r="U70" s="1"/>
+      <c r="U70" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
@@ -6835,12 +6590,14 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T71" s="1">
         <v>0</v>
       </c>
-      <c r="U71" s="1"/>
+      <c r="U71" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
@@ -6915,18 +6672,18 @@
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T72" s="1">
         <v>1</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
@@ -7007,12 +6764,14 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T73" s="1">
         <v>1</v>
       </c>
-      <c r="U73" s="1"/>
+      <c r="U73" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
@@ -7074,29 +6833,17 @@
         <v>0</v>
       </c>
       <c r="I74" s="1"/>
-      <c r="J74" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T74" s="1">
-        <v>1</v>
-      </c>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
@@ -7153,29 +6900,17 @@
         <v>0</v>
       </c>
       <c r="I75" s="1"/>
-      <c r="J75" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T75" s="1">
-        <v>1</v>
-      </c>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
@@ -7232,29 +6967,17 @@
         <v>0</v>
       </c>
       <c r="I76" s="1"/>
-      <c r="J76" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T76" s="1">
-        <v>1</v>
-      </c>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
@@ -7311,29 +7034,17 @@
         <v>0</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T77" s="1">
-        <v>1</v>
-      </c>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
@@ -7390,29 +7101,17 @@
         <v>0</v>
       </c>
       <c r="I78" s="1"/>
-      <c r="J78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T78" s="1">
-        <v>1</v>
-      </c>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
@@ -7469,29 +7168,17 @@
         <v>0</v>
       </c>
       <c r="I79" s="1"/>
-      <c r="J79" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T79" s="1">
-        <v>1</v>
-      </c>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
@@ -7548,29 +7235,17 @@
         <v>0</v>
       </c>
       <c r="I80" s="1"/>
-      <c r="J80" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-      <c r="N80" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T80" s="1">
-        <v>1</v>
-      </c>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
@@ -7627,29 +7302,17 @@
         <v>0</v>
       </c>
       <c r="I81" s="1"/>
-      <c r="J81" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-      <c r="N81" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="S81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T81" s="1">
-        <v>1</v>
-      </c>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
@@ -7706,29 +7369,17 @@
         <v>0</v>
       </c>
       <c r="I82" s="1"/>
-      <c r="J82" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
-      <c r="S82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T82" s="1">
-        <v>1</v>
-      </c>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
@@ -7785,29 +7436,17 @@
         <v>0</v>
       </c>
       <c r="I83" s="1"/>
-      <c r="J83" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="N83" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-      <c r="S83" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T83" s="1">
-        <v>1</v>
-      </c>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
@@ -7864,29 +7503,17 @@
         <v>0</v>
       </c>
       <c r="I84" s="1"/>
-      <c r="J84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-      <c r="S84" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="T84" s="1">
-        <v>1</v>
-      </c>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
@@ -7961,12 +7588,14 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="T85" s="1">
         <v>1</v>
       </c>
-      <c r="U85" s="1"/>
+      <c r="U85" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
@@ -8000,11 +7629,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="J1:W1"/>
     <mergeCell ref="Y1:AH1"/>
@@ -8016,6 +7640,11 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE74BF3-EBAE-4A94-B979-50AB9446EB48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC67CB-9E3A-4AB3-A5BB-8E0DF7C61FBC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -692,16 +692,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,10 +1095,10 @@
   <dimension ref="A1:AY85"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1106,63 +1106,63 @@
     <row r="1" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="J1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
@@ -1176,23 +1176,23 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
@@ -5499,20 +5499,20 @@
       <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0</v>
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16">
+        <v>1</v>
       </c>
       <c r="F50" s="8">
         <v>0</v>
       </c>
-      <c r="G50" s="8">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0</v>
+      <c r="G50" s="16">
+        <v>1</v>
+      </c>
+      <c r="H50" s="16">
+        <v>1</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5" t="s">
@@ -8695,11 +8695,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="J1:W1"/>
@@ -8712,6 +8707,11 @@
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC67CB-9E3A-4AB3-A5BB-8E0DF7C61FBC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B6FBD-8051-4675-8EC9-B46D2055717A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="167">
   <si>
     <t>ANATOMY</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>109</t>
+  </si>
+  <si>
+    <t>EEG060</t>
+  </si>
+  <si>
+    <t>ico4|6.2</t>
   </si>
 </sst>
 </file>
@@ -692,12 +698,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,6 +708,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,10 +1101,10 @@
   <dimension ref="A1:AY85"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1106,63 +1112,63 @@
     <row r="1" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="J1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
@@ -1176,51 +1182,51 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23" t="s">
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23" t="s">
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1" t="s">
         <v>15</v>
@@ -1285,8 +1291,8 @@
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="8" t="s">
-        <v>27</v>
+      <c r="N3" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="O3" s="5">
         <v>17380395</v>
@@ -1520,14 +1526,16 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1609,14 +1617,16 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="R6" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="S6" s="9" t="s">
         <v>30</v>
       </c>
@@ -1705,7 +1715,9 @@
         <v>90</v>
       </c>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S7" s="5" t="s">
         <v>90</v>
       </c>
@@ -1787,14 +1799,16 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="R8" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1876,14 +1890,16 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="S9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1965,14 +1981,16 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="R10" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="S10" s="9" t="s">
         <v>30</v>
       </c>
@@ -2054,14 +2072,16 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="R11" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S11" s="5" t="s">
         <v>30</v>
       </c>
@@ -2143,14 +2163,16 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="R12" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S12" s="5" t="s">
         <v>30</v>
       </c>
@@ -2232,14 +2254,16 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="R13" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S13" s="5" t="s">
         <v>30</v>
       </c>
@@ -2328,7 +2352,9 @@
         <v>90</v>
       </c>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="R14" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S14" s="5" t="s">
         <v>90</v>
       </c>
@@ -2410,14 +2436,16 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="R15" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S15" s="5" t="s">
         <v>30</v>
       </c>
@@ -2499,14 +2527,16 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S16" s="11" t="s">
         <v>30</v>
       </c>
@@ -2588,14 +2618,16 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11" t="s">
         <v>28</v>
       </c>
       <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="R17" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S17" s="11" t="s">
         <v>30</v>
       </c>
@@ -2684,7 +2716,9 @@
         <v>90</v>
       </c>
       <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="R18" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S18" s="11" t="s">
         <v>90</v>
       </c>
@@ -2773,7 +2807,9 @@
         <v>90</v>
       </c>
       <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="R19" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S19" s="11" t="s">
         <v>90</v>
       </c>
@@ -2862,7 +2898,9 @@
         <v>90</v>
       </c>
       <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="R20" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S20" s="11" t="s">
         <v>90</v>
       </c>
@@ -2951,7 +2989,9 @@
         <v>90</v>
       </c>
       <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
+      <c r="R21" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S21" s="11" t="s">
         <v>90</v>
       </c>
@@ -3040,7 +3080,9 @@
         <v>90</v>
       </c>
       <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="R22" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S22" s="5" t="s">
         <v>90</v>
       </c>
@@ -3122,14 +3164,16 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
+      <c r="R23" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S23" s="5" t="s">
         <v>30</v>
       </c>
@@ -3218,7 +3262,9 @@
         <v>90</v>
       </c>
       <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
+      <c r="R24" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S24" s="5" t="s">
         <v>90</v>
       </c>
@@ -3300,14 +3346,16 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="R25" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S25" s="5" t="s">
         <v>90</v>
       </c>
@@ -3389,14 +3437,16 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="R26" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S26" s="5" t="s">
         <v>30</v>
       </c>
@@ -3485,7 +3535,9 @@
         <v>90</v>
       </c>
       <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
+      <c r="R27" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S27" s="5" t="s">
         <v>90</v>
       </c>
@@ -3574,7 +3626,9 @@
         <v>90</v>
       </c>
       <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="R28" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S28" s="5" t="s">
         <v>90</v>
       </c>
@@ -3663,7 +3717,9 @@
         <v>90</v>
       </c>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
+      <c r="R29" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S29" s="5" t="s">
         <v>90</v>
       </c>
@@ -3745,14 +3801,16 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
+      <c r="R30" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S30" s="5" t="s">
         <v>30</v>
       </c>
@@ -3841,7 +3899,9 @@
         <v>90</v>
       </c>
       <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
+      <c r="R31" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S31" s="5" t="s">
         <v>90</v>
       </c>
@@ -3930,7 +3990,9 @@
         <v>90</v>
       </c>
       <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
+      <c r="R32" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S32" s="11" t="s">
         <v>90</v>
       </c>
@@ -4012,14 +4074,16 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9" t="s">
         <v>28</v>
       </c>
       <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
+      <c r="R33" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="S33" s="9" t="s">
         <v>90</v>
       </c>
@@ -4101,14 +4165,16 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
+      <c r="R34" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S34" s="5" t="s">
         <v>90</v>
       </c>
@@ -4190,14 +4256,16 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
+      <c r="R35" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S35" s="5" t="s">
         <v>30</v>
       </c>
@@ -4285,7 +4353,9 @@
         <v>90</v>
       </c>
       <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
+      <c r="R36" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S36" s="11" t="s">
         <v>90</v>
       </c>
@@ -4367,14 +4437,16 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
+      <c r="R37" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S37" s="5" t="s">
         <v>30</v>
       </c>
@@ -4456,14 +4528,16 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
+      <c r="R38" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4545,14 +4619,16 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
+      <c r="R39" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S39" s="5" t="s">
         <v>30</v>
       </c>
@@ -4634,14 +4710,16 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
+      <c r="R40" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S40" s="5" t="s">
         <v>30</v>
       </c>
@@ -4723,14 +4801,16 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
+      <c r="R41" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S41" s="5" t="s">
         <v>30</v>
       </c>
@@ -4819,7 +4899,9 @@
         <v>90</v>
       </c>
       <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
+      <c r="R42" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S42" s="5" t="s">
         <v>90</v>
       </c>
@@ -4908,7 +4990,9 @@
         <v>90</v>
       </c>
       <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
+      <c r="R43" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S43" s="5" t="s">
         <v>90</v>
       </c>
@@ -4997,7 +5081,9 @@
         <v>90</v>
       </c>
       <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
+      <c r="R44" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S44" s="5" t="s">
         <v>90</v>
       </c>
@@ -5086,7 +5172,9 @@
         <v>90</v>
       </c>
       <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
+      <c r="R45" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S45" s="5" t="s">
         <v>90</v>
       </c>
@@ -5175,7 +5263,9 @@
         <v>90</v>
       </c>
       <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
+      <c r="R46" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S46" s="5" t="s">
         <v>90</v>
       </c>
@@ -5257,14 +5347,16 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
+      <c r="R47" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S47" s="5" t="s">
         <v>30</v>
       </c>
@@ -5346,14 +5438,16 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
+      <c r="R48" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S48" s="5" t="s">
         <v>30</v>
       </c>
@@ -5442,7 +5536,9 @@
         <v>90</v>
       </c>
       <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
+      <c r="R49" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S49" s="11" t="s">
         <v>90</v>
       </c>
@@ -5505,8 +5601,8 @@
       <c r="E50" s="16">
         <v>1</v>
       </c>
-      <c r="F50" s="8">
-        <v>0</v>
+      <c r="F50" s="16">
+        <v>1</v>
       </c>
       <c r="G50" s="16">
         <v>1</v>
@@ -5524,14 +5620,16 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
+      <c r="R50" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S50" s="5" t="s">
         <v>30</v>
       </c>
@@ -5613,14 +5711,16 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
+      <c r="R51" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S51" s="5" t="s">
         <v>30</v>
       </c>
@@ -5702,14 +5802,16 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
+      <c r="R52" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S52" s="5" t="s">
         <v>30</v>
       </c>
@@ -5791,14 +5893,16 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
+      <c r="R53" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S53" s="5" t="s">
         <v>30</v>
       </c>
@@ -5880,14 +5984,16 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
+      <c r="R54" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S54" s="5" t="s">
         <v>30</v>
       </c>
@@ -5969,14 +6075,16 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
+      <c r="R55" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S55" s="5" t="s">
         <v>27</v>
       </c>
@@ -6058,14 +6166,16 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O56" s="5"/>
       <c r="P56" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
+      <c r="R56" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S56" s="5" t="s">
         <v>30</v>
       </c>
@@ -6154,7 +6264,9 @@
         <v>90</v>
       </c>
       <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
+      <c r="R57" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S57" s="11" t="s">
         <v>90</v>
       </c>
@@ -6243,7 +6355,9 @@
         <v>90</v>
       </c>
       <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
+      <c r="R58" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S58" s="11" t="s">
         <v>90</v>
       </c>
@@ -6332,7 +6446,9 @@
         <v>90</v>
       </c>
       <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
+      <c r="R59" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="S59" s="13" t="s">
         <v>90</v>
       </c>
@@ -6421,7 +6537,9 @@
         <v>90</v>
       </c>
       <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
+      <c r="R60" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S60" s="11" t="s">
         <v>90</v>
       </c>
@@ -6503,14 +6621,16 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="9" t="s">
         <v>28</v>
       </c>
       <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
+      <c r="R61" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="S61" s="9" t="s">
         <v>30</v>
       </c>
@@ -6592,14 +6712,16 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O62" s="5"/>
       <c r="P62" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
+      <c r="R62" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S62" s="5" t="s">
         <v>30</v>
       </c>
@@ -6688,7 +6810,9 @@
         <v>90</v>
       </c>
       <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
+      <c r="R63" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S63" s="11" t="s">
         <v>90</v>
       </c>
@@ -6770,14 +6894,16 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
+      <c r="R64" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S64" s="5" t="s">
         <v>30</v>
       </c>
@@ -6866,7 +6992,9 @@
         <v>90</v>
       </c>
       <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
+      <c r="R65" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S65" s="11" t="s">
         <v>90</v>
       </c>
@@ -6948,14 +7076,16 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
+      <c r="R66" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S66" s="5" t="s">
         <v>30</v>
       </c>
@@ -7037,14 +7167,16 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
+      <c r="R67" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S67" s="5" t="s">
         <v>30</v>
       </c>
@@ -7126,14 +7258,16 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O68" s="5"/>
       <c r="P68" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
+      <c r="R68" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S68" s="5" t="s">
         <v>30</v>
       </c>
@@ -7222,7 +7356,9 @@
         <v>90</v>
       </c>
       <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
+      <c r="R69" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S69" s="5" t="s">
         <v>90</v>
       </c>
@@ -7304,14 +7440,16 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O70" s="5"/>
       <c r="P70" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
+      <c r="R70" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S70" s="5" t="s">
         <v>30</v>
       </c>
@@ -7393,14 +7531,16 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O71" s="5"/>
       <c r="P71" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
+      <c r="R71" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S71" s="5" t="s">
         <v>30</v>
       </c>
@@ -7482,14 +7622,16 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5" t="s">
         <v>150</v>
       </c>
       <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
+      <c r="R72" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S72" s="5" t="s">
         <v>30</v>
       </c>
@@ -7571,14 +7713,16 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O73" s="5"/>
       <c r="P73" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
+      <c r="R73" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="S73" s="5" t="s">
         <v>30</v>
       </c>
@@ -7667,7 +7811,9 @@
         <v>90</v>
       </c>
       <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
+      <c r="R74" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S74" s="11" t="s">
         <v>90</v>
       </c>
@@ -7756,7 +7902,9 @@
         <v>90</v>
       </c>
       <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
+      <c r="R75" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S75" s="5" t="s">
         <v>90</v>
       </c>
@@ -7845,7 +7993,9 @@
         <v>90</v>
       </c>
       <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
+      <c r="R76" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S76" s="5" t="s">
         <v>90</v>
       </c>
@@ -7934,7 +8084,9 @@
         <v>90</v>
       </c>
       <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
+      <c r="R77" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S77" s="5" t="s">
         <v>90</v>
       </c>
@@ -8023,7 +8175,9 @@
         <v>90</v>
       </c>
       <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
+      <c r="R78" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S78" s="5" t="s">
         <v>90</v>
       </c>
@@ -8112,7 +8266,9 @@
         <v>90</v>
       </c>
       <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
+      <c r="R79" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S79" s="5" t="s">
         <v>90</v>
       </c>
@@ -8201,7 +8357,9 @@
         <v>90</v>
       </c>
       <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
+      <c r="R80" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S80" s="5" t="s">
         <v>90</v>
       </c>
@@ -8290,7 +8448,9 @@
         <v>90</v>
       </c>
       <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
+      <c r="R81" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S81" s="5" t="s">
         <v>90</v>
       </c>
@@ -8379,7 +8539,9 @@
         <v>90</v>
       </c>
       <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
+      <c r="R82" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S82" s="5" t="s">
         <v>90</v>
       </c>
@@ -8468,7 +8630,9 @@
         <v>90</v>
       </c>
       <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
+      <c r="R83" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S83" s="11" t="s">
         <v>90</v>
       </c>
@@ -8557,7 +8721,9 @@
         <v>90</v>
       </c>
       <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
+      <c r="R84" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S84" s="5" t="s">
         <v>90</v>
       </c>
@@ -8639,14 +8805,16 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O85" s="5"/>
       <c r="P85" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
+      <c r="R85" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="S85" s="5" t="s">
         <v>27</v>
       </c>
@@ -8695,6 +8863,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="J1:W1"/>
@@ -8707,11 +8880,6 @@
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B6FBD-8051-4675-8EC9-B46D2055717A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536EC4EB-B849-4628-A431-D6B31DCBD3E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="169">
   <si>
     <t>ANATOMY</t>
   </si>
@@ -527,6 +527,12 @@
   </si>
   <si>
     <t>ico4|6.2</t>
+  </si>
+  <si>
+    <t>MEG</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
 </sst>
 </file>
@@ -698,6 +704,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,12 +720,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,79 +1104,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY85"/>
+  <dimension ref="A1:AZ85"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="19" t="s">
+      <c r="J1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
@@ -1182,84 +1189,87 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23" t="s">
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="4" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="AA2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21" t="s">
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21" t="s">
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1" t="s">
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AM2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AP2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AP2" s="17"/>
       <c r="AQ2" s="17"/>
       <c r="AR2" s="17"/>
-      <c r="AS2" s="17" t="s">
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17" t="s">
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="1"/>
+      <c r="AW2" s="17"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1316,20 +1326,20 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
@@ -1347,8 +1357,9 @@
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1416,82 +1427,85 @@
       <c r="W4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1" t="s">
+      <c r="X4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1" t="s">
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -1550,20 +1564,20 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5">
+        <v>1</v>
+      </c>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5">
+        <v>1</v>
+      </c>
       <c r="AF5" s="5"/>
-      <c r="AG5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5">
+        <v>1</v>
+      </c>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
@@ -1581,8 +1595,9 @@
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
       <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
     </row>
-    <row r="6" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
@@ -1641,20 +1656,20 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="9">
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9">
         <v>-1</v>
       </c>
-      <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="9">
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9">
         <v>-1</v>
       </c>
-      <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
-      <c r="AG6" s="9">
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9">
         <v>-1</v>
       </c>
-      <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
@@ -1672,8 +1687,9 @@
       <c r="AW6" s="9"/>
       <c r="AX6" s="9"/>
       <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -1732,20 +1748,20 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
@@ -1763,8 +1779,9 @@
       <c r="AW7" s="5"/>
       <c r="AX7" s="5"/>
       <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -1823,20 +1840,20 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5">
+        <v>1</v>
+      </c>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5">
+        <v>1</v>
+      </c>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5">
+        <v>1</v>
+      </c>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
@@ -1854,8 +1871,9 @@
       <c r="AW8" s="5"/>
       <c r="AX8" s="5"/>
       <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
     </row>
-    <row r="9" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
@@ -1914,20 +1932,20 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="9">
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9">
         <v>-1</v>
       </c>
-      <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="9">
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9">
         <v>-1</v>
       </c>
-      <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="9">
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9">
         <v>-1</v>
       </c>
-      <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
@@ -1945,8 +1963,9 @@
       <c r="AW9" s="9"/>
       <c r="AX9" s="9"/>
       <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
     </row>
-    <row r="10" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>76</v>
       </c>
@@ -2005,20 +2024,20 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="9">
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9">
         <v>-1</v>
       </c>
-      <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
-      <c r="AD10" s="9">
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9">
         <v>-1</v>
       </c>
-      <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="9">
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9">
         <v>-1</v>
       </c>
-      <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
@@ -2036,8 +2055,9 @@
       <c r="AW10" s="9"/>
       <c r="AX10" s="9"/>
       <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -2096,20 +2116,20 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5">
+        <v>1</v>
+      </c>
       <c r="AC11" s="5"/>
-      <c r="AD11" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5">
+        <v>1</v>
+      </c>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5">
+        <v>1</v>
+      </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
@@ -2127,8 +2147,9 @@
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
       <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -2187,20 +2208,20 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5">
+        <v>1</v>
+      </c>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5">
+        <v>1</v>
+      </c>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5">
+        <v>1</v>
+      </c>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
@@ -2218,8 +2239,9 @@
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -2278,20 +2300,20 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5">
+        <v>1</v>
+      </c>
       <c r="AC13" s="5"/>
-      <c r="AD13" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5">
+        <v>1</v>
+      </c>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5">
+        <v>1</v>
+      </c>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
@@ -2309,8 +2331,9 @@
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -2369,20 +2392,20 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
@@ -2400,8 +2423,9 @@
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -2460,20 +2484,20 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5">
+        <v>1</v>
+      </c>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5">
+        <v>1</v>
+      </c>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5">
+        <v>1</v>
+      </c>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
@@ -2491,8 +2515,9 @@
       <c r="AW15" s="5"/>
       <c r="AX15" s="5"/>
       <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
     </row>
-    <row r="16" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>76</v>
       </c>
@@ -2551,20 +2576,20 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11">
+        <v>0</v>
+      </c>
       <c r="AC16" s="11"/>
-      <c r="AD16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11">
+        <v>0</v>
+      </c>
       <c r="AF16" s="11"/>
-      <c r="AG16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11">
+        <v>0</v>
+      </c>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
@@ -2582,8 +2607,9 @@
       <c r="AW16" s="11"/>
       <c r="AX16" s="11"/>
       <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
     </row>
-    <row r="17" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
@@ -2642,20 +2668,20 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11">
+        <v>0</v>
+      </c>
       <c r="AC17" s="11"/>
-      <c r="AD17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11">
+        <v>0</v>
+      </c>
       <c r="AF17" s="11"/>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11">
+        <v>0</v>
+      </c>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
@@ -2673,8 +2699,9 @@
       <c r="AW17" s="11"/>
       <c r="AX17" s="11"/>
       <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
     </row>
-    <row r="18" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -2733,20 +2760,20 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC18" s="11"/>
-      <c r="AD18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF18" s="11"/>
-      <c r="AG18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
@@ -2764,8 +2791,9 @@
       <c r="AW18" s="11"/>
       <c r="AX18" s="11"/>
       <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
     </row>
-    <row r="19" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>93</v>
       </c>
@@ -2824,20 +2852,20 @@
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC19" s="11"/>
-      <c r="AD19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF19" s="11"/>
-      <c r="AG19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
@@ -2855,8 +2883,9 @@
       <c r="AW19" s="11"/>
       <c r="AX19" s="11"/>
       <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
     </row>
-    <row r="20" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>76</v>
       </c>
@@ -2915,20 +2944,20 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC20" s="11"/>
-      <c r="AD20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF20" s="11"/>
-      <c r="AG20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
       <c r="AK20" s="11"/>
@@ -2946,8 +2975,9 @@
       <c r="AW20" s="11"/>
       <c r="AX20" s="11"/>
       <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
     </row>
-    <row r="21" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>93</v>
       </c>
@@ -3006,20 +3036,20 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC21" s="11"/>
-      <c r="AD21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF21" s="11"/>
-      <c r="AG21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="11"/>
@@ -3037,8 +3067,9 @@
       <c r="AW21" s="11"/>
       <c r="AX21" s="11"/>
       <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -3097,20 +3128,20 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
@@ -3128,8 +3159,9 @@
       <c r="AW22" s="5"/>
       <c r="AX22" s="5"/>
       <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -3188,20 +3220,20 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5">
+        <v>1</v>
+      </c>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5">
+        <v>1</v>
+      </c>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5">
+        <v>1</v>
+      </c>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
@@ -3219,8 +3251,9 @@
       <c r="AW23" s="5"/>
       <c r="AX23" s="5"/>
       <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -3279,20 +3312,20 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
@@ -3310,8 +3343,9 @@
       <c r="AW24" s="5"/>
       <c r="AX24" s="5"/>
       <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -3370,20 +3404,20 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5">
+        <v>1</v>
+      </c>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5">
+        <v>1</v>
+      </c>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5">
+        <v>1</v>
+      </c>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
@@ -3401,8 +3435,9 @@
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -3461,20 +3496,20 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5">
+        <v>1</v>
+      </c>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5">
+        <v>1</v>
+      </c>
       <c r="AF26" s="5"/>
-      <c r="AG26" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5">
+        <v>1</v>
+      </c>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
@@ -3492,8 +3527,9 @@
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
       <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -3552,20 +3588,20 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
@@ -3583,8 +3619,9 @@
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
       <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -3643,20 +3680,20 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
@@ -3674,8 +3711,9 @@
       <c r="AW28" s="5"/>
       <c r="AX28" s="5"/>
       <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -3734,20 +3772,20 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
@@ -3765,8 +3803,9 @@
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
       <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
@@ -3825,20 +3864,20 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5">
+        <v>1</v>
+      </c>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5">
+        <v>1</v>
+      </c>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5">
+        <v>1</v>
+      </c>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
@@ -3856,8 +3895,9 @@
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -3916,20 +3956,20 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
@@ -3947,8 +3987,9 @@
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
       <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
     </row>
-    <row r="32" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>76</v>
       </c>
@@ -4007,20 +4048,20 @@
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
-      <c r="AA32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC32" s="11"/>
-      <c r="AD32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF32" s="11"/>
-      <c r="AG32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="11"/>
       <c r="AK32" s="11"/>
@@ -4038,8 +4079,9 @@
       <c r="AW32" s="11"/>
       <c r="AX32" s="11"/>
       <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
     </row>
-    <row r="33" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>76</v>
       </c>
@@ -4098,20 +4140,20 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
-      <c r="AA33" s="9">
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9">
         <v>-1</v>
       </c>
-      <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
-      <c r="AD33" s="9">
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9">
         <v>-1</v>
       </c>
-      <c r="AE33" s="9"/>
       <c r="AF33" s="9"/>
-      <c r="AG33" s="9">
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9">
         <v>-1</v>
       </c>
-      <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
@@ -4129,8 +4171,9 @@
       <c r="AW33" s="9"/>
       <c r="AX33" s="9"/>
       <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
@@ -4189,20 +4232,20 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-      <c r="AA34" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5">
+        <v>1</v>
+      </c>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5">
+        <v>1</v>
+      </c>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5">
+        <v>1</v>
+      </c>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
@@ -4220,8 +4263,9 @@
       <c r="AW34" s="5"/>
       <c r="AX34" s="5"/>
       <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -4279,20 +4323,20 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5">
+        <v>1</v>
+      </c>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5">
+        <v>1</v>
+      </c>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5">
+        <v>1</v>
+      </c>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
@@ -4310,8 +4354,9 @@
       <c r="AW35" s="5"/>
       <c r="AX35" s="5"/>
       <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
     </row>
-    <row r="36" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>93</v>
       </c>
@@ -4370,20 +4415,20 @@
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
-      <c r="AA36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC36" s="11"/>
-      <c r="AD36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF36" s="11"/>
-      <c r="AG36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11"/>
       <c r="AK36" s="11"/>
@@ -4401,8 +4446,9 @@
       <c r="AW36" s="11"/>
       <c r="AX36" s="11"/>
       <c r="AY36" s="11"/>
+      <c r="AZ36" s="11"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>93</v>
       </c>
@@ -4461,20 +4507,20 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
-      <c r="AA37" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5">
+        <v>1</v>
+      </c>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5">
+        <v>1</v>
+      </c>
       <c r="AF37" s="5"/>
-      <c r="AG37" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5">
+        <v>1</v>
+      </c>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
@@ -4492,8 +4538,9 @@
       <c r="AW37" s="5"/>
       <c r="AX37" s="5"/>
       <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>93</v>
       </c>
@@ -4552,20 +4599,20 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5">
+        <v>1</v>
+      </c>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5">
+        <v>1</v>
+      </c>
       <c r="AF38" s="5"/>
-      <c r="AG38" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5">
+        <v>1</v>
+      </c>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5"/>
@@ -4583,8 +4630,9 @@
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
       <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>93</v>
       </c>
@@ -4643,20 +4691,20 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5">
+        <v>1</v>
+      </c>
       <c r="AC39" s="5"/>
-      <c r="AD39" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5">
+        <v>1</v>
+      </c>
       <c r="AF39" s="5"/>
-      <c r="AG39" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5">
+        <v>1</v>
+      </c>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
@@ -4674,8 +4722,9 @@
       <c r="AW39" s="5"/>
       <c r="AX39" s="5"/>
       <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>93</v>
       </c>
@@ -4734,20 +4783,20 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5">
+        <v>1</v>
+      </c>
       <c r="AC40" s="5"/>
-      <c r="AD40" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5">
+        <v>1</v>
+      </c>
       <c r="AF40" s="5"/>
-      <c r="AG40" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5">
+        <v>1</v>
+      </c>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
@@ -4765,8 +4814,9 @@
       <c r="AW40" s="5"/>
       <c r="AX40" s="5"/>
       <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>93</v>
       </c>
@@ -4825,20 +4875,20 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5">
+        <v>1</v>
+      </c>
       <c r="AC41" s="5"/>
-      <c r="AD41" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5">
+        <v>1</v>
+      </c>
       <c r="AF41" s="5"/>
-      <c r="AG41" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5">
+        <v>1</v>
+      </c>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
@@ -4856,8 +4906,9 @@
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
       <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>93</v>
       </c>
@@ -4916,20 +4967,20 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC42" s="5"/>
-      <c r="AD42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF42" s="5"/>
-      <c r="AG42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
@@ -4947,8 +4998,9 @@
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
       <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
@@ -5007,20 +5059,20 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC43" s="5"/>
-      <c r="AD43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF43" s="5"/>
-      <c r="AG43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5"/>
@@ -5038,8 +5090,9 @@
       <c r="AW43" s="5"/>
       <c r="AX43" s="5"/>
       <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>93</v>
       </c>
@@ -5098,20 +5151,20 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC44" s="5"/>
-      <c r="AD44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF44" s="5"/>
-      <c r="AG44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
       <c r="AK44" s="5"/>
@@ -5129,8 +5182,9 @@
       <c r="AW44" s="5"/>
       <c r="AX44" s="5"/>
       <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>93</v>
       </c>
@@ -5189,20 +5243,20 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC45" s="5"/>
-      <c r="AD45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF45" s="5"/>
-      <c r="AG45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5"/>
@@ -5220,8 +5274,9 @@
       <c r="AW45" s="5"/>
       <c r="AX45" s="5"/>
       <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -5280,20 +5335,20 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC46" s="5"/>
-      <c r="AD46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF46" s="5"/>
-      <c r="AG46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
       <c r="AK46" s="5"/>
@@ -5311,8 +5366,9 @@
       <c r="AW46" s="5"/>
       <c r="AX46" s="5"/>
       <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>93</v>
       </c>
@@ -5371,20 +5427,20 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5">
+        <v>1</v>
+      </c>
       <c r="AC47" s="5"/>
-      <c r="AD47" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5">
+        <v>1</v>
+      </c>
       <c r="AF47" s="5"/>
-      <c r="AG47" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5">
+        <v>1</v>
+      </c>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
       <c r="AK47" s="5"/>
@@ -5402,8 +5458,9 @@
       <c r="AW47" s="5"/>
       <c r="AX47" s="5"/>
       <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>93</v>
       </c>
@@ -5462,20 +5519,20 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5">
+        <v>1</v>
+      </c>
       <c r="AC48" s="5"/>
-      <c r="AD48" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5">
+        <v>1</v>
+      </c>
       <c r="AF48" s="5"/>
-      <c r="AG48" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5">
+        <v>1</v>
+      </c>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
       <c r="AK48" s="5"/>
@@ -5493,8 +5550,9 @@
       <c r="AW48" s="5"/>
       <c r="AX48" s="5"/>
       <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
     </row>
-    <row r="49" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="11" t="s">
         <v>93</v>
       </c>
@@ -5553,20 +5611,20 @@
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
-      <c r="AA49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC49" s="11"/>
-      <c r="AD49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF49" s="11"/>
-      <c r="AG49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI49" s="11"/>
       <c r="AJ49" s="11"/>
       <c r="AK49" s="11"/>
@@ -5584,8 +5642,9 @@
       <c r="AW49" s="11"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="11"/>
+      <c r="AZ49" s="11"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>93</v>
       </c>
@@ -5644,20 +5703,20 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5">
+        <v>1</v>
+      </c>
       <c r="AC50" s="5"/>
-      <c r="AD50" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5">
+        <v>1</v>
+      </c>
       <c r="AF50" s="5"/>
-      <c r="AG50" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5">
+        <v>1</v>
+      </c>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
       <c r="AK50" s="5"/>
@@ -5675,8 +5734,9 @@
       <c r="AW50" s="5"/>
       <c r="AX50" s="5"/>
       <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
@@ -5735,20 +5795,20 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5">
+        <v>1</v>
+      </c>
       <c r="AC51" s="5"/>
-      <c r="AD51" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5">
+        <v>1</v>
+      </c>
       <c r="AF51" s="5"/>
-      <c r="AG51" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5">
+        <v>1</v>
+      </c>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
       <c r="AK51" s="5"/>
@@ -5766,8 +5826,9 @@
       <c r="AW51" s="5"/>
       <c r="AX51" s="5"/>
       <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>93</v>
       </c>
@@ -5826,20 +5887,20 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-      <c r="AA52" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5">
+        <v>1</v>
+      </c>
       <c r="AC52" s="5"/>
-      <c r="AD52" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5">
+        <v>1</v>
+      </c>
       <c r="AF52" s="5"/>
-      <c r="AG52" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5">
+        <v>1</v>
+      </c>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
       <c r="AK52" s="5"/>
@@ -5857,8 +5918,9 @@
       <c r="AW52" s="5"/>
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>93</v>
       </c>
@@ -5917,20 +5979,20 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
-      <c r="AA53" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5">
+        <v>1</v>
+      </c>
       <c r="AC53" s="5"/>
-      <c r="AD53" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5">
+        <v>1</v>
+      </c>
       <c r="AF53" s="5"/>
-      <c r="AG53" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5">
+        <v>1</v>
+      </c>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
       <c r="AK53" s="5"/>
@@ -5948,8 +6010,9 @@
       <c r="AW53" s="5"/>
       <c r="AX53" s="5"/>
       <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>93</v>
       </c>
@@ -6008,20 +6071,20 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
-      <c r="AA54" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5">
+        <v>1</v>
+      </c>
       <c r="AC54" s="5"/>
-      <c r="AD54" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5">
+        <v>1</v>
+      </c>
       <c r="AF54" s="5"/>
-      <c r="AG54" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5">
+        <v>1</v>
+      </c>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
       <c r="AK54" s="5"/>
@@ -6039,8 +6102,9 @@
       <c r="AW54" s="5"/>
       <c r="AX54" s="5"/>
       <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>93</v>
       </c>
@@ -6099,20 +6163,20 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-      <c r="AA55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5">
+        <v>1</v>
+      </c>
       <c r="AC55" s="5"/>
-      <c r="AD55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5">
+        <v>1</v>
+      </c>
       <c r="AF55" s="5"/>
-      <c r="AG55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5">
+        <v>1</v>
+      </c>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
       <c r="AK55" s="5"/>
@@ -6130,8 +6194,9 @@
       <c r="AW55" s="5"/>
       <c r="AX55" s="5"/>
       <c r="AY55" s="5"/>
+      <c r="AZ55" s="5"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>93</v>
       </c>
@@ -6190,20 +6255,20 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5">
+        <v>1</v>
+      </c>
       <c r="AC56" s="5"/>
-      <c r="AD56" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5">
+        <v>1</v>
+      </c>
       <c r="AF56" s="5"/>
-      <c r="AG56" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5">
+        <v>1</v>
+      </c>
       <c r="AI56" s="5"/>
       <c r="AJ56" s="5"/>
       <c r="AK56" s="5"/>
@@ -6221,8 +6286,9 @@
       <c r="AW56" s="5"/>
       <c r="AX56" s="5"/>
       <c r="AY56" s="5"/>
+      <c r="AZ56" s="5"/>
     </row>
-    <row r="57" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="11" t="s">
         <v>93</v>
       </c>
@@ -6281,20 +6347,20 @@
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
-      <c r="AA57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC57" s="11"/>
-      <c r="AD57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF57" s="11"/>
-      <c r="AG57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI57" s="11"/>
       <c r="AJ57" s="11"/>
       <c r="AK57" s="11"/>
@@ -6312,8 +6378,9 @@
       <c r="AW57" s="11"/>
       <c r="AX57" s="11"/>
       <c r="AY57" s="11"/>
+      <c r="AZ57" s="11"/>
     </row>
-    <row r="58" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="11" t="s">
         <v>93</v>
       </c>
@@ -6372,20 +6439,20 @@
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
-      <c r="AA58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC58" s="11"/>
-      <c r="AD58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF58" s="11"/>
-      <c r="AG58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI58" s="11"/>
       <c r="AJ58" s="11"/>
       <c r="AK58" s="11"/>
@@ -6403,8 +6470,9 @@
       <c r="AW58" s="11"/>
       <c r="AX58" s="11"/>
       <c r="AY58" s="11"/>
+      <c r="AZ58" s="11"/>
     </row>
-    <row r="59" spans="1:51" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>93</v>
       </c>
@@ -6463,20 +6531,20 @@
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
-      <c r="AA59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="15">
+        <v>0</v>
+      </c>
       <c r="AC59" s="13"/>
-      <c r="AD59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="15">
+        <v>0</v>
+      </c>
       <c r="AF59" s="13"/>
-      <c r="AG59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="15">
+        <v>0</v>
+      </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
       <c r="AK59" s="13"/>
@@ -6494,8 +6562,9 @@
       <c r="AW59" s="13"/>
       <c r="AX59" s="13"/>
       <c r="AY59" s="13"/>
+      <c r="AZ59" s="13"/>
     </row>
-    <row r="60" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="11" t="s">
         <v>93</v>
       </c>
@@ -6554,20 +6623,20 @@
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
-      <c r="AA60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC60" s="11"/>
-      <c r="AD60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF60" s="11"/>
-      <c r="AG60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI60" s="11"/>
       <c r="AJ60" s="11"/>
       <c r="AK60" s="11"/>
@@ -6585,8 +6654,9 @@
       <c r="AW60" s="11"/>
       <c r="AX60" s="11"/>
       <c r="AY60" s="11"/>
+      <c r="AZ60" s="11"/>
     </row>
-    <row r="61" spans="1:51" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>76</v>
       </c>
@@ -6645,20 +6715,20 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
-      <c r="AA61" s="9">
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9">
         <v>-1</v>
       </c>
-      <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
-      <c r="AD61" s="9">
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9">
         <v>-1</v>
       </c>
-      <c r="AE61" s="9"/>
       <c r="AF61" s="9"/>
-      <c r="AG61" s="9">
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9">
         <v>-1</v>
       </c>
-      <c r="AH61" s="9"/>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
@@ -6676,8 +6746,9 @@
       <c r="AW61" s="9"/>
       <c r="AX61" s="9"/>
       <c r="AY61" s="9"/>
+      <c r="AZ61" s="9"/>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>76</v>
       </c>
@@ -6736,20 +6807,20 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
-      <c r="AA62" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5">
+        <v>1</v>
+      </c>
       <c r="AC62" s="5"/>
-      <c r="AD62" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5">
+        <v>1</v>
+      </c>
       <c r="AF62" s="5"/>
-      <c r="AG62" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5">
+        <v>1</v>
+      </c>
       <c r="AI62" s="5"/>
       <c r="AJ62" s="5"/>
       <c r="AK62" s="5"/>
@@ -6767,8 +6838,9 @@
       <c r="AW62" s="5"/>
       <c r="AX62" s="5"/>
       <c r="AY62" s="5"/>
+      <c r="AZ62" s="5"/>
     </row>
-    <row r="63" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="11" t="s">
         <v>76</v>
       </c>
@@ -6827,20 +6899,20 @@
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
-      <c r="AA63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC63" s="11"/>
-      <c r="AD63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF63" s="11"/>
-      <c r="AG63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI63" s="11"/>
       <c r="AJ63" s="11"/>
       <c r="AK63" s="11"/>
@@ -6858,8 +6930,9 @@
       <c r="AW63" s="11"/>
       <c r="AX63" s="11"/>
       <c r="AY63" s="11"/>
+      <c r="AZ63" s="11"/>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>76</v>
       </c>
@@ -6918,20 +6991,20 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
-      <c r="AA64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5">
+        <v>1</v>
+      </c>
       <c r="AC64" s="5"/>
-      <c r="AD64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5">
+        <v>1</v>
+      </c>
       <c r="AF64" s="5"/>
-      <c r="AG64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5">
+        <v>1</v>
+      </c>
       <c r="AI64" s="5"/>
       <c r="AJ64" s="5"/>
       <c r="AK64" s="5"/>
@@ -6949,8 +7022,9 @@
       <c r="AW64" s="5"/>
       <c r="AX64" s="5"/>
       <c r="AY64" s="5"/>
+      <c r="AZ64" s="5"/>
     </row>
-    <row r="65" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="11" t="s">
         <v>76</v>
       </c>
@@ -7009,20 +7083,20 @@
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
-      <c r="AA65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC65" s="11"/>
-      <c r="AD65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF65" s="11"/>
-      <c r="AG65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI65" s="11"/>
       <c r="AJ65" s="11"/>
       <c r="AK65" s="11"/>
@@ -7040,8 +7114,9 @@
       <c r="AW65" s="11"/>
       <c r="AX65" s="11"/>
       <c r="AY65" s="11"/>
+      <c r="AZ65" s="11"/>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>76</v>
       </c>
@@ -7100,20 +7175,20 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
-      <c r="AA66" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5">
+        <v>1</v>
+      </c>
       <c r="AC66" s="5"/>
-      <c r="AD66" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5">
+        <v>1</v>
+      </c>
       <c r="AF66" s="5"/>
-      <c r="AG66" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5">
+        <v>1</v>
+      </c>
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
       <c r="AK66" s="5"/>
@@ -7131,8 +7206,9 @@
       <c r="AW66" s="5"/>
       <c r="AX66" s="5"/>
       <c r="AY66" s="5"/>
+      <c r="AZ66" s="5"/>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>76</v>
       </c>
@@ -7191,20 +7267,20 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
-      <c r="AA67" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5">
+        <v>1</v>
+      </c>
       <c r="AC67" s="5"/>
-      <c r="AD67" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5">
+        <v>1</v>
+      </c>
       <c r="AF67" s="5"/>
-      <c r="AG67" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5">
+        <v>1</v>
+      </c>
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
       <c r="AK67" s="5"/>
@@ -7222,8 +7298,9 @@
       <c r="AW67" s="5"/>
       <c r="AX67" s="5"/>
       <c r="AY67" s="5"/>
+      <c r="AZ67" s="5"/>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>76</v>
       </c>
@@ -7282,20 +7359,20 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
-      <c r="AA68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5">
+        <v>1</v>
+      </c>
       <c r="AC68" s="5"/>
-      <c r="AD68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5">
+        <v>1</v>
+      </c>
       <c r="AF68" s="5"/>
-      <c r="AG68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5">
+        <v>1</v>
+      </c>
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
       <c r="AK68" s="5"/>
@@ -7313,8 +7390,9 @@
       <c r="AW68" s="5"/>
       <c r="AX68" s="5"/>
       <c r="AY68" s="5"/>
+      <c r="AZ68" s="5"/>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>76</v>
       </c>
@@ -7373,20 +7451,20 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
-      <c r="AA69" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="8">
+        <v>0</v>
+      </c>
       <c r="AC69" s="5"/>
-      <c r="AD69" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="8">
+        <v>0</v>
+      </c>
       <c r="AF69" s="5"/>
-      <c r="AG69" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="8">
+        <v>0</v>
+      </c>
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
       <c r="AK69" s="5"/>
@@ -7404,8 +7482,9 @@
       <c r="AW69" s="5"/>
       <c r="AX69" s="5"/>
       <c r="AY69" s="5"/>
+      <c r="AZ69" s="5"/>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>76</v>
       </c>
@@ -7464,20 +7543,20 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
-      <c r="AA70" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5">
+        <v>1</v>
+      </c>
       <c r="AC70" s="5"/>
-      <c r="AD70" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5">
+        <v>1</v>
+      </c>
       <c r="AF70" s="5"/>
-      <c r="AG70" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5">
+        <v>1</v>
+      </c>
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
       <c r="AK70" s="5"/>
@@ -7495,8 +7574,9 @@
       <c r="AW70" s="5"/>
       <c r="AX70" s="5"/>
       <c r="AY70" s="5"/>
+      <c r="AZ70" s="5"/>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>76</v>
       </c>
@@ -7555,20 +7635,20 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
-      <c r="AA71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5">
+        <v>1</v>
+      </c>
       <c r="AC71" s="5"/>
-      <c r="AD71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5">
+        <v>1</v>
+      </c>
       <c r="AF71" s="5"/>
-      <c r="AG71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5">
+        <v>1</v>
+      </c>
       <c r="AI71" s="5"/>
       <c r="AJ71" s="5"/>
       <c r="AK71" s="5"/>
@@ -7586,8 +7666,9 @@
       <c r="AW71" s="5"/>
       <c r="AX71" s="5"/>
       <c r="AY71" s="5"/>
+      <c r="AZ71" s="5"/>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
@@ -7646,20 +7727,20 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5">
+        <v>1</v>
+      </c>
       <c r="AC72" s="5"/>
-      <c r="AD72" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5">
+        <v>1</v>
+      </c>
       <c r="AF72" s="5"/>
-      <c r="AG72" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5">
+        <v>1</v>
+      </c>
       <c r="AI72" s="5"/>
       <c r="AJ72" s="5"/>
       <c r="AK72" s="5"/>
@@ -7677,8 +7758,9 @@
       <c r="AW72" s="5"/>
       <c r="AX72" s="5"/>
       <c r="AY72" s="5"/>
+      <c r="AZ72" s="5"/>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>76</v>
       </c>
@@ -7737,20 +7819,20 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5">
+        <v>1</v>
+      </c>
       <c r="AC73" s="5"/>
-      <c r="AD73" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5">
+        <v>1</v>
+      </c>
       <c r="AF73" s="5"/>
-      <c r="AG73" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5">
+        <v>1</v>
+      </c>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="5"/>
       <c r="AK73" s="5"/>
@@ -7768,8 +7850,9 @@
       <c r="AW73" s="5"/>
       <c r="AX73" s="5"/>
       <c r="AY73" s="5"/>
+      <c r="AZ73" s="5"/>
     </row>
-    <row r="74" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="11" t="s">
         <v>76</v>
       </c>
@@ -7828,20 +7911,20 @@
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
-      <c r="AA74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC74" s="11"/>
-      <c r="AD74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF74" s="11"/>
-      <c r="AG74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI74" s="11"/>
       <c r="AJ74" s="11"/>
       <c r="AK74" s="11"/>
@@ -7859,8 +7942,9 @@
       <c r="AW74" s="11"/>
       <c r="AX74" s="11"/>
       <c r="AY74" s="11"/>
+      <c r="AZ74" s="11"/>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -7919,20 +8003,20 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
-      <c r="AA75" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="8">
+        <v>0</v>
+      </c>
       <c r="AC75" s="5"/>
-      <c r="AD75" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="8">
+        <v>0</v>
+      </c>
       <c r="AF75" s="5"/>
-      <c r="AG75" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="8">
+        <v>0</v>
+      </c>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
       <c r="AK75" s="5"/>
@@ -7950,8 +8034,9 @@
       <c r="AW75" s="5"/>
       <c r="AX75" s="5"/>
       <c r="AY75" s="5"/>
+      <c r="AZ75" s="5"/>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
@@ -8010,20 +8095,20 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC76" s="5"/>
-      <c r="AD76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF76" s="5"/>
-      <c r="AG76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
       <c r="AK76" s="5"/>
@@ -8041,8 +8126,9 @@
       <c r="AW76" s="5"/>
       <c r="AX76" s="5"/>
       <c r="AY76" s="5"/>
+      <c r="AZ76" s="5"/>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
@@ -8101,20 +8187,20 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
-      <c r="AA77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC77" s="5"/>
-      <c r="AD77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF77" s="5"/>
-      <c r="AG77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH77" s="5"/>
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI77" s="5"/>
       <c r="AJ77" s="5"/>
       <c r="AK77" s="5"/>
@@ -8132,8 +8218,9 @@
       <c r="AW77" s="5"/>
       <c r="AX77" s="5"/>
       <c r="AY77" s="5"/>
+      <c r="AZ77" s="5"/>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -8192,20 +8279,20 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-      <c r="AA78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC78" s="5"/>
-      <c r="AD78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF78" s="5"/>
-      <c r="AG78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
       <c r="AK78" s="5"/>
@@ -8223,8 +8310,9 @@
       <c r="AW78" s="5"/>
       <c r="AX78" s="5"/>
       <c r="AY78" s="5"/>
+      <c r="AZ78" s="5"/>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
         <v>76</v>
       </c>
@@ -8283,20 +8371,20 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
-      <c r="AA79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC79" s="5"/>
-      <c r="AD79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF79" s="5"/>
-      <c r="AG79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI79" s="5"/>
       <c r="AJ79" s="5"/>
       <c r="AK79" s="5"/>
@@ -8314,8 +8402,9 @@
       <c r="AW79" s="5"/>
       <c r="AX79" s="5"/>
       <c r="AY79" s="5"/>
+      <c r="AZ79" s="5"/>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>76</v>
       </c>
@@ -8374,20 +8463,20 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
-      <c r="AA80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC80" s="5"/>
-      <c r="AD80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF80" s="5"/>
-      <c r="AG80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
       <c r="AK80" s="5"/>
@@ -8405,8 +8494,9 @@
       <c r="AW80" s="5"/>
       <c r="AX80" s="5"/>
       <c r="AY80" s="5"/>
+      <c r="AZ80" s="5"/>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>76</v>
       </c>
@@ -8465,20 +8555,20 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
-      <c r="AA81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC81" s="5"/>
-      <c r="AD81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF81" s="5"/>
-      <c r="AG81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH81" s="5"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI81" s="5"/>
       <c r="AJ81" s="5"/>
       <c r="AK81" s="5"/>
@@ -8496,8 +8586,9 @@
       <c r="AW81" s="5"/>
       <c r="AX81" s="5"/>
       <c r="AY81" s="5"/>
+      <c r="AZ81" s="5"/>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>76</v>
       </c>
@@ -8556,20 +8647,20 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
-      <c r="AA82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC82" s="5"/>
-      <c r="AD82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF82" s="5"/>
-      <c r="AG82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI82" s="5"/>
       <c r="AJ82" s="5"/>
       <c r="AK82" s="5"/>
@@ -8587,8 +8678,9 @@
       <c r="AW82" s="5"/>
       <c r="AX82" s="5"/>
       <c r="AY82" s="5"/>
+      <c r="AZ82" s="5"/>
     </row>
-    <row r="83" spans="1:51" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="11" t="s">
         <v>76</v>
       </c>
@@ -8647,20 +8739,20 @@
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
-      <c r="AA83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB83" s="11"/>
+      <c r="AA83" s="11"/>
+      <c r="AB83" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AC83" s="11"/>
-      <c r="AD83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE83" s="11"/>
+      <c r="AD83" s="11"/>
+      <c r="AE83" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AF83" s="11"/>
-      <c r="AG83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH83" s="11"/>
+      <c r="AG83" s="11"/>
+      <c r="AH83" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="AI83" s="11"/>
       <c r="AJ83" s="11"/>
       <c r="AK83" s="11"/>
@@ -8678,8 +8770,9 @@
       <c r="AW83" s="11"/>
       <c r="AX83" s="11"/>
       <c r="AY83" s="11"/>
+      <c r="AZ83" s="11"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>76</v>
       </c>
@@ -8738,20 +8831,20 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
-      <c r="AA84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AC84" s="5"/>
-      <c r="AD84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AF84" s="5"/>
-      <c r="AG84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH84" s="5"/>
+      <c r="AG84" s="5"/>
+      <c r="AH84" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AI84" s="5"/>
       <c r="AJ84" s="5"/>
       <c r="AK84" s="5"/>
@@ -8769,8 +8862,9 @@
       <c r="AW84" s="5"/>
       <c r="AX84" s="5"/>
       <c r="AY84" s="5"/>
+      <c r="AZ84" s="5"/>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>76</v>
       </c>
@@ -8828,22 +8922,22 @@
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
-      <c r="Z85" s="16"/>
-      <c r="AA85" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB85" s="16"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="16"/>
+      <c r="AB85" s="16">
+        <v>1</v>
+      </c>
       <c r="AC85" s="16"/>
-      <c r="AD85" s="16">
-        <v>1</v>
-      </c>
-      <c r="AE85" s="16"/>
+      <c r="AD85" s="16"/>
+      <c r="AE85" s="16">
+        <v>1</v>
+      </c>
       <c r="AF85" s="16"/>
-      <c r="AG85" s="16">
-        <v>1</v>
-      </c>
-      <c r="AH85" s="16"/>
-      <c r="AI85" s="5"/>
+      <c r="AG85" s="16"/>
+      <c r="AH85" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="16"/>
       <c r="AJ85" s="5"/>
       <c r="AK85" s="5"/>
       <c r="AL85" s="5"/>
@@ -8860,26 +8954,27 @@
       <c r="AW85" s="5"/>
       <c r="AX85" s="5"/>
       <c r="AY85" s="5"/>
+      <c r="AZ85" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="Z1:AI1"/>
+    <mergeCell ref="AK1:AZ1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="J1:X1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J1:W1"/>
-    <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="AJ1:AY1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536EC4EB-B849-4628-A431-D6B31DCBD3E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C9F0B-C79B-456E-9D96-2F3D088A89F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="180">
   <si>
     <t>ANATOMY</t>
   </si>
@@ -533,6 +533,39 @@
   </si>
   <si>
     <t>bad</t>
+  </si>
+  <si>
+    <t>MLT41|MLT43|MLT44|MLT51|MLT53|MLT54|MLT55</t>
+  </si>
+  <si>
+    <t>MLT22|MLT31|MLT32|MLT33|MLT41|MLT42|MLT43|MLT51|MLT52|MLT53|MLT54|MRF11|MRF12|MRF13|MRF14|MRF24|MRF25|MRT11|MRT21|MRT22|MRT23|MRT31|MRT32|MRT33|MRT34|MRT41|MRT42|MRT43|MRT44|MRT51|MRT52|MRT53|MRT54|MRT55</t>
+  </si>
+  <si>
+    <t>MLF14|MLT31|MLT32|MLT33|MLT34|MLT35|MLT41|MLT42|MLT43|MLT44|MLT45|MLT51|MLT52|MLT53|MLT54|MLT55|MLT56|MRF14|MRT21|MRT31|MRT32|MRT33|MRT41|MRT42|MRT43|MRT51|MRT52</t>
+  </si>
+  <si>
+    <t>MLT31|MLT41|MLT42|MLT51|MLT52|MRT31|MRT32|MRT33|MRT34|MRT41|MRT42|MRT43|MRT44|MRT51|MRT52|MRT53|MRT54|MRT55|MRT56|MRT57</t>
+  </si>
+  <si>
+    <t>MRT21|MRT22|MRT31|MRT32|MRT41|MRT42|MRT51|MRT52</t>
+  </si>
+  <si>
+    <t>MRT51|MRT52|MRT53</t>
+  </si>
+  <si>
+    <t>MLT51|MLT52</t>
+  </si>
+  <si>
+    <t>MRT52|MRT53</t>
+  </si>
+  <si>
+    <t>MRT41|MRT51|MRT52</t>
+  </si>
+  <si>
+    <t>MLF11|MLF12|MLF13|MLF14|MLT21|MLT31|MLT32|MLT41|MLT42|MLT51|MLT52</t>
+  </si>
+  <si>
+    <t>MLT41|MLT42|MLT43|MLT44|MLT51|MLT52|MLT53|MLT54</t>
   </si>
 </sst>
 </file>
@@ -657,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,6 +733,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,81 +1155,85 @@
   <dimension ref="A1:AZ85"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="O30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="21" max="21" width="9.06640625" style="21"/>
+    <col min="24" max="24" width="9.06640625" style="21"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="C1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
+      <c r="J1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1189,32 +1241,32 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19" t="s">
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
       <c r="X2" s="3" t="s">
         <v>167</v>
       </c>
@@ -1222,21 +1274,21 @@
       <c r="Z2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23" t="s">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23" t="s">
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>15</v>
@@ -1244,27 +1296,27 @@
       <c r="AL2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="17"/>
+      <c r="AN2" s="22"/>
       <c r="AO2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AP2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17" t="s">
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17" t="s">
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="17"/>
+      <c r="AW2" s="22"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
@@ -1556,12 +1608,12 @@
       <c r="T5" s="5">
         <v>1</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="X5" s="17"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -1648,12 +1700,12 @@
       <c r="T6" s="9">
         <v>1</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="18" t="s">
         <v>78</v>
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
+      <c r="X6" s="18"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -1740,12 +1792,12 @@
       <c r="T7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="X7" s="17"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
@@ -1832,12 +1884,12 @@
       <c r="T8" s="5">
         <v>1</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="X8" s="17"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -1924,12 +1976,12 @@
       <c r="T9" s="9">
         <v>1</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="18" t="s">
         <v>78</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
+      <c r="X9" s="18"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -2016,12 +2068,12 @@
       <c r="T10" s="9">
         <v>1</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="18" t="s">
         <v>78</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
+      <c r="X10" s="18"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -2108,12 +2160,12 @@
       <c r="T11" s="5">
         <v>1</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="X11" s="17"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
@@ -2200,12 +2252,12 @@
       <c r="T12" s="5">
         <v>1</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
+      <c r="X12" s="17"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -2292,12 +2344,14 @@
       <c r="T13" s="5">
         <v>1</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
+      <c r="X13" s="17" t="s">
+        <v>169</v>
+      </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
@@ -2384,12 +2438,12 @@
       <c r="T14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="X14" s="17"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -2476,12 +2530,12 @@
       <c r="T15" s="5">
         <v>1</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="X15" s="17"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -2568,12 +2622,12 @@
       <c r="T16" s="11">
         <v>1</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="19" t="s">
         <v>78</v>
       </c>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="X16" s="19"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
@@ -2660,12 +2714,12 @@
       <c r="T17" s="11">
         <v>1</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="19" t="s">
         <v>78</v>
       </c>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
+      <c r="X17" s="19"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
@@ -2752,12 +2806,12 @@
       <c r="T18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="X18" s="19"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
@@ -2844,12 +2898,12 @@
       <c r="T19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
+      <c r="X19" s="19"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
@@ -2936,12 +2990,12 @@
       <c r="T20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
+      <c r="X20" s="19"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
@@ -3028,12 +3082,12 @@
       <c r="T21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
+      <c r="X21" s="19"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
@@ -3120,12 +3174,12 @@
       <c r="T22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="U22" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
+      <c r="X22" s="17"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -3212,12 +3266,12 @@
       <c r="T23" s="5">
         <v>1</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
+      <c r="X23" s="17"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
@@ -3304,12 +3358,12 @@
       <c r="T24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
+      <c r="X24" s="17"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -3396,12 +3450,14 @@
       <c r="T25" s="5">
         <v>1</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="U25" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
+      <c r="X25" s="17" t="s">
+        <v>170</v>
+      </c>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
@@ -3488,12 +3544,12 @@
       <c r="T26" s="5">
         <v>1</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="U26" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
+      <c r="X26" s="17"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -3580,12 +3636,12 @@
       <c r="T27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
+      <c r="X27" s="17"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -3672,12 +3728,12 @@
       <c r="T28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="U28" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
+      <c r="X28" s="17"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
@@ -3764,12 +3820,12 @@
       <c r="T29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="U29" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
+      <c r="X29" s="17"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
@@ -3856,12 +3912,12 @@
       <c r="T30" s="5">
         <v>1</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="U30" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
+      <c r="X30" s="17"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -3948,12 +4004,12 @@
       <c r="T31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="U31" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
+      <c r="X31" s="17"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
@@ -4040,12 +4096,12 @@
       <c r="T32" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U32" s="11" t="s">
+      <c r="U32" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
+      <c r="X32" s="19"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
@@ -4132,12 +4188,12 @@
       <c r="T33" s="9">
         <v>1</v>
       </c>
-      <c r="U33" s="9" t="s">
+      <c r="U33" s="18" t="s">
         <v>78</v>
       </c>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
+      <c r="X33" s="18"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -4224,12 +4280,12 @@
       <c r="T34" s="5">
         <v>1</v>
       </c>
-      <c r="U34" s="5" t="s">
+      <c r="U34" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
+      <c r="X34" s="17"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
@@ -4316,11 +4372,11 @@
       <c r="T35" s="5">
         <v>1</v>
       </c>
-      <c r="U35" s="5" t="s">
+      <c r="U35" s="17" t="s">
         <v>111</v>
       </c>
       <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
+      <c r="X35" s="17"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -4407,12 +4463,12 @@
       <c r="T36" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
+      <c r="X36" s="19"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
@@ -4499,12 +4555,14 @@
       <c r="T37" s="5">
         <v>1</v>
       </c>
-      <c r="U37" s="5" t="s">
+      <c r="U37" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
+      <c r="X37" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
@@ -4591,12 +4649,11 @@
       <c r="T38" s="5">
         <v>1</v>
       </c>
-      <c r="U38" s="5" t="s">
+      <c r="U38" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
@@ -4683,12 +4740,14 @@
       <c r="T39" s="5">
         <v>1</v>
       </c>
-      <c r="U39" s="5" t="s">
+      <c r="U39" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
+      <c r="X39" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
@@ -4775,12 +4834,12 @@
       <c r="T40" s="5">
         <v>0</v>
       </c>
-      <c r="U40" s="5" t="s">
+      <c r="U40" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
+      <c r="X40" s="17"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
@@ -4867,12 +4926,14 @@
       <c r="T41" s="5">
         <v>0</v>
       </c>
-      <c r="U41" s="5" t="s">
+      <c r="U41" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
+      <c r="X41" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
@@ -4959,12 +5020,12 @@
       <c r="T42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U42" s="5" t="s">
+      <c r="U42" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
+      <c r="X42" s="17"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
@@ -5051,12 +5112,12 @@
       <c r="T43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U43" s="5" t="s">
+      <c r="U43" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
+      <c r="X43" s="17"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
@@ -5143,12 +5204,12 @@
       <c r="T44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U44" s="5" t="s">
+      <c r="U44" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
+      <c r="X44" s="17"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
@@ -5235,12 +5296,12 @@
       <c r="T45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U45" s="5" t="s">
+      <c r="U45" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
+      <c r="X45" s="17"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
@@ -5327,12 +5388,12 @@
       <c r="T46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U46" s="5" t="s">
+      <c r="U46" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
+      <c r="X46" s="17"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
@@ -5419,12 +5480,14 @@
       <c r="T47" s="5">
         <v>1</v>
       </c>
-      <c r="U47" s="5" t="s">
+      <c r="U47" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
+      <c r="X47" s="17" t="s">
+        <v>177</v>
+      </c>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
@@ -5511,12 +5574,12 @@
       <c r="T48" s="5">
         <v>1</v>
       </c>
-      <c r="U48" s="5" t="s">
+      <c r="U48" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
+      <c r="X48" s="17"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
@@ -5603,12 +5666,12 @@
       <c r="T49" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U49" s="11" t="s">
+      <c r="U49" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
+      <c r="X49" s="19"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
@@ -5695,12 +5758,12 @@
       <c r="T50" s="5">
         <v>1</v>
       </c>
-      <c r="U50" s="5" t="s">
+      <c r="U50" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
+      <c r="X50" s="17"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -5787,12 +5850,12 @@
       <c r="T51" s="5">
         <v>0</v>
       </c>
-      <c r="U51" s="5" t="s">
+      <c r="U51" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
+      <c r="X51" s="17"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
@@ -5879,12 +5942,12 @@
       <c r="T52" s="5">
         <v>1</v>
       </c>
-      <c r="U52" s="5" t="s">
+      <c r="U52" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
+      <c r="X52" s="17"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
@@ -5971,12 +6034,12 @@
       <c r="T53" s="5">
         <v>1</v>
       </c>
-      <c r="U53" s="5" t="s">
+      <c r="U53" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
+      <c r="X53" s="17"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
@@ -6063,12 +6126,12 @@
       <c r="T54" s="5">
         <v>1</v>
       </c>
-      <c r="U54" s="5" t="s">
+      <c r="U54" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
+      <c r="X54" s="17"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
@@ -6155,12 +6218,12 @@
       <c r="T55" s="5">
         <v>1</v>
       </c>
-      <c r="U55" s="5" t="s">
+      <c r="U55" s="17" t="s">
         <v>132</v>
       </c>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
+      <c r="X55" s="17"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
@@ -6247,12 +6310,12 @@
       <c r="T56" s="5">
         <v>1</v>
       </c>
-      <c r="U56" s="5" t="s">
+      <c r="U56" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
+      <c r="X56" s="17"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
@@ -6339,12 +6402,12 @@
       <c r="T57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U57" s="11" t="s">
+      <c r="U57" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
+      <c r="X57" s="19"/>
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
@@ -6431,12 +6494,12 @@
       <c r="T58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U58" s="11" t="s">
+      <c r="U58" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
+      <c r="X58" s="19"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
@@ -6523,12 +6586,12 @@
       <c r="T59" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U59" s="13" t="s">
+      <c r="U59" s="20" t="s">
         <v>90</v>
       </c>
       <c r="V59" s="13"/>
       <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
+      <c r="X59" s="20"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
@@ -6615,12 +6678,12 @@
       <c r="T60" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U60" s="11" t="s">
+      <c r="U60" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
+      <c r="X60" s="19"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
@@ -6707,12 +6770,12 @@
       <c r="T61" s="9">
         <v>1</v>
       </c>
-      <c r="U61" s="9" t="s">
+      <c r="U61" s="18" t="s">
         <v>78</v>
       </c>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
+      <c r="X61" s="18"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -6799,12 +6862,12 @@
       <c r="T62" s="5">
         <v>0</v>
       </c>
-      <c r="U62" s="5" t="s">
+      <c r="U62" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
+      <c r="X62" s="17"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
@@ -6891,12 +6954,12 @@
       <c r="T63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U63" s="11" t="s">
+      <c r="U63" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
+      <c r="X63" s="19"/>
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
@@ -6983,12 +7046,12 @@
       <c r="T64" s="5">
         <v>0</v>
       </c>
-      <c r="U64" s="5" t="s">
+      <c r="U64" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
+      <c r="X64" s="17"/>
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
@@ -7075,12 +7138,12 @@
       <c r="T65" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U65" s="11" t="s">
+      <c r="U65" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
+      <c r="X65" s="19"/>
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
@@ -7167,12 +7230,12 @@
       <c r="T66" s="5">
         <v>0</v>
       </c>
-      <c r="U66" s="5" t="s">
+      <c r="U66" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
+      <c r="X66" s="17"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
@@ -7259,12 +7322,14 @@
       <c r="T67" s="5">
         <v>1</v>
       </c>
-      <c r="U67" s="5" t="s">
+      <c r="U67" s="17" t="s">
         <v>132</v>
       </c>
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
+      <c r="X67" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
@@ -7351,12 +7416,12 @@
       <c r="T68" s="5">
         <v>0</v>
       </c>
-      <c r="U68" s="5" t="s">
+      <c r="U68" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
+      <c r="X68" s="17"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
@@ -7443,12 +7508,12 @@
       <c r="T69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U69" s="5" t="s">
+      <c r="U69" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
+      <c r="X69" s="17"/>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
@@ -7535,12 +7600,14 @@
       <c r="T70" s="5">
         <v>1</v>
       </c>
-      <c r="U70" s="5" t="s">
+      <c r="U70" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
+      <c r="X70" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
@@ -7627,12 +7694,14 @@
       <c r="T71" s="5">
         <v>0</v>
       </c>
-      <c r="U71" s="5" t="s">
+      <c r="U71" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
+      <c r="X71" s="17" t="s">
+        <v>173</v>
+      </c>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
@@ -7719,12 +7788,14 @@
       <c r="T72" s="5">
         <v>1</v>
       </c>
-      <c r="U72" s="5" t="s">
+      <c r="U72" s="17" t="s">
         <v>151</v>
       </c>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
+      <c r="X72" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
@@ -7811,12 +7882,14 @@
       <c r="T73" s="5">
         <v>1</v>
       </c>
-      <c r="U73" s="5" t="s">
+      <c r="U73" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
+      <c r="X73" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
@@ -7903,12 +7976,12 @@
       <c r="T74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U74" s="11" t="s">
+      <c r="U74" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V74" s="11"/>
       <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
+      <c r="X74" s="19"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
@@ -7995,12 +8068,12 @@
       <c r="T75" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U75" s="5" t="s">
+      <c r="U75" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
+      <c r="X75" s="17"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
@@ -8087,12 +8160,12 @@
       <c r="T76" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U76" s="5" t="s">
+      <c r="U76" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
+      <c r="X76" s="17"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
@@ -8179,12 +8252,12 @@
       <c r="T77" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U77" s="5" t="s">
+      <c r="U77" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
+      <c r="X77" s="17"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
@@ -8271,12 +8344,12 @@
       <c r="T78" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U78" s="5" t="s">
+      <c r="U78" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
+      <c r="X78" s="17"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
@@ -8363,12 +8436,12 @@
       <c r="T79" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U79" s="5" t="s">
+      <c r="U79" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
+      <c r="X79" s="17"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
@@ -8455,12 +8528,12 @@
       <c r="T80" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U80" s="5" t="s">
+      <c r="U80" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
+      <c r="X80" s="17"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
@@ -8547,12 +8620,12 @@
       <c r="T81" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U81" s="5" t="s">
+      <c r="U81" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
+      <c r="X81" s="17"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
@@ -8639,12 +8712,12 @@
       <c r="T82" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U82" s="5" t="s">
+      <c r="U82" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
+      <c r="X82" s="17"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
@@ -8731,12 +8804,12 @@
       <c r="T83" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U83" s="11" t="s">
+      <c r="U83" s="19" t="s">
         <v>90</v>
       </c>
       <c r="V83" s="11"/>
       <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
+      <c r="X83" s="19"/>
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
@@ -8823,12 +8896,12 @@
       <c r="T84" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="U84" s="5" t="s">
+      <c r="U84" s="17" t="s">
         <v>90</v>
       </c>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
+      <c r="X84" s="17"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
@@ -8915,12 +8988,12 @@
       <c r="T85" s="5">
         <v>1</v>
       </c>
-      <c r="U85" s="5" t="s">
+      <c r="U85" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
+      <c r="X85" s="17"/>
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
       <c r="AA85" s="16"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C9F0B-C79B-456E-9D96-2F3D088A89F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE166E-8D37-41BB-BD9A-62B51F3A4B93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4095" windowHeight="9000" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEG_ANALYSIS_MASTERFILE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="184">
   <si>
     <t>ANATOMY</t>
   </si>
@@ -562,10 +562,22 @@
     <t>MRT41|MRT51|MRT52</t>
   </si>
   <si>
-    <t>MLF11|MLF12|MLF13|MLF14|MLT21|MLT31|MLT32|MLT41|MLT42|MLT51|MLT52</t>
-  </si>
-  <si>
     <t>MLT41|MLT42|MLT43|MLT44|MLT51|MLT52|MLT53|MLT54</t>
+  </si>
+  <si>
+    <t>MLF11|MLF12|MLF13|MLF14|MLF21|MLF22|MLF23|MLF24|MLF25|MLT21|MLT31|MLT32|MLT41|MLT42|MLT51|MLT52|MRF11|MRF12|MRF13|MRF14|MRF21|MRF22|MRF23|MRF24|MRF25|MRT21|MRT31|MRT32|MRT41|MRT42|MRT51|MRT52|MZF01</t>
+  </si>
+  <si>
+    <t>MLF11|MLF12|MLF13|MLF14|MLF21|MLF22|MLF23|MLF24|MLF25|MLT11|MLT21|MLT22|MLT31|MLT32|MLT33|MLT41|MLT42|MLT43|MLT51|MLT52|MLT53|MRF11|MRF12|MRF13|MRF14|MRF21|MRF22|MRF23|MRF24|MRF25|MRT11|MRT21|MRT22|MRT31|MRT32|MRT33|MRT41|MRT42|MRT43|MRT51|MRT52|MRT53|MZF01</t>
+  </si>
+  <si>
+    <t>EEG001|EEG002|EEG003|EEG004|EEG005|EEG006|EEG007|EEG009</t>
+  </si>
+  <si>
+    <t>EEG003|EEG004|EEG005|EEG006|EEG007|EEG008</t>
+  </si>
+  <si>
+    <t>EEG005|EEG006|EEG007|EEG008</t>
   </si>
 </sst>
 </file>
@@ -690,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,12 +764,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,6 +774,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,10 +1173,10 @@
   <dimension ref="A1:AZ85"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="X41" sqref="X41"/>
+      <selection pane="bottomRight" activeCell="AB76" sqref="AB76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1170,64 +1188,64 @@
     <row r="1" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
+      <c r="J1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="26" t="s">
+      <c r="AK1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
@@ -1241,32 +1259,32 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
       <c r="X2" s="3" t="s">
         <v>167</v>
       </c>
@@ -1274,21 +1292,21 @@
       <c r="Z2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28" t="s">
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28" t="s">
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>15</v>
@@ -1649,97 +1667,97 @@
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
     </row>
-    <row r="6" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="9">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S6" s="9" t="s">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="9">
-        <v>1</v>
-      </c>
-      <c r="U6" s="18" t="s">
+      <c r="T6" s="13">
+        <v>1</v>
+      </c>
+      <c r="U6" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9">
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13">
         <v>-1</v>
       </c>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9">
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13">
         <v>-1</v>
       </c>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9">
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13">
         <v>-1</v>
       </c>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
@@ -4598,96 +4616,97 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="5"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5">
-        <v>1</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5" t="s">
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5" t="s">
+      <c r="O38" s="9"/>
+      <c r="P38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5" t="s">
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="S38" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T38" s="5">
-        <v>1</v>
-      </c>
-      <c r="U38" s="17" t="s">
+      <c r="T38" s="9">
+        <v>1</v>
+      </c>
+      <c r="U38" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="5"/>
-      <c r="AZ38" s="5"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9"/>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
+      <c r="AT38" s="9"/>
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
@@ -4746,7 +4765,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
@@ -4932,7 +4951,7 @@
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
@@ -4973,7 +4992,7 @@
       <c r="A42" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="5">
@@ -4985,42 +5004,42 @@
       <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>90</v>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T42" s="5">
+        <v>0</v>
+      </c>
+      <c r="U42" s="21" t="s">
         <v>90</v>
       </c>
       <c r="V42" s="5"/>
@@ -5029,18 +5048,18 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
-      <c r="AB42" s="5" t="s">
-        <v>90</v>
+      <c r="AB42" s="5">
+        <v>0</v>
       </c>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
-      <c r="AE42" s="5" t="s">
-        <v>90</v>
+      <c r="AE42" s="5">
+        <v>0</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
-      <c r="AH42" s="5" t="s">
-        <v>90</v>
+      <c r="AH42" s="5">
+        <v>0</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
@@ -5065,7 +5084,7 @@
       <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C43" s="5">
@@ -5077,43 +5096,43 @@
       <c r="E43" s="5">
         <v>0</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>90</v>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T43" s="5">
+        <v>1</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
@@ -5121,18 +5140,18 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
-      <c r="AB43" s="5" t="s">
-        <v>90</v>
+      <c r="AB43" s="5">
+        <v>0</v>
       </c>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
-      <c r="AE43" s="5" t="s">
-        <v>90</v>
+      <c r="AE43" s="5">
+        <v>0</v>
       </c>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
-      <c r="AH43" s="5" t="s">
-        <v>90</v>
+      <c r="AH43" s="5">
+        <v>0</v>
       </c>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
@@ -5157,7 +5176,7 @@
       <c r="A44" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C44" s="5">
@@ -5169,43 +5188,43 @@
       <c r="E44" s="5">
         <v>0</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>90</v>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T44" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
+      </c>
+      <c r="T44" s="5">
+        <v>1</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
@@ -5213,18 +5232,18 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
-      <c r="AB44" s="5" t="s">
-        <v>90</v>
+      <c r="AB44" s="5">
+        <v>0</v>
       </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
-      <c r="AE44" s="5" t="s">
-        <v>90</v>
+      <c r="AE44" s="5">
+        <v>0</v>
       </c>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
-      <c r="AH44" s="5" t="s">
-        <v>90</v>
+      <c r="AH44" s="5">
+        <v>0</v>
       </c>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
@@ -5615,97 +5634,97 @@
       <c r="AY48" s="5"/>
       <c r="AZ48" s="5"/>
     </row>
-    <row r="49" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="11">
-        <v>0</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U49" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI49" s="11"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="11"/>
-      <c r="AL49" s="11"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="11"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="11"/>
-      <c r="AQ49" s="11"/>
-      <c r="AR49" s="11"/>
-      <c r="AS49" s="11"/>
-      <c r="AT49" s="11"/>
-      <c r="AU49" s="11"/>
-      <c r="AV49" s="11"/>
-      <c r="AW49" s="11"/>
-      <c r="AX49" s="11"/>
-      <c r="AY49" s="11"/>
-      <c r="AZ49" s="11"/>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O49" s="13"/>
+      <c r="P49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T49" s="13">
+        <v>1</v>
+      </c>
+      <c r="U49" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="13"/>
+      <c r="AO49" s="13"/>
+      <c r="AP49" s="13"/>
+      <c r="AQ49" s="13"/>
+      <c r="AR49" s="13"/>
+      <c r="AS49" s="13"/>
+      <c r="AT49" s="13"/>
+      <c r="AU49" s="13"/>
+      <c r="AV49" s="13"/>
+      <c r="AW49" s="13"/>
+      <c r="AX49" s="13"/>
+      <c r="AY49" s="13"/>
+      <c r="AZ49" s="13"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
@@ -6131,7 +6150,9 @@
       </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="17"/>
+      <c r="X54" s="17" t="s">
+        <v>179</v>
+      </c>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
@@ -6171,11 +6192,11 @@
       <c r="A55" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="8">
-        <v>0</v>
+      <c r="C55" s="16">
+        <v>1</v>
       </c>
       <c r="D55" s="5">
         <v>0</v>
@@ -6542,8 +6563,8 @@
       <c r="B59" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="15">
-        <v>0</v>
+      <c r="C59" s="30">
+        <v>1</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>90</v>
@@ -6595,18 +6616,18 @@
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
-      <c r="AB59" s="15">
-        <v>0</v>
+      <c r="AB59" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="AC59" s="13"/>
       <c r="AD59" s="13"/>
-      <c r="AE59" s="15">
-        <v>0</v>
+      <c r="AE59" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="AF59" s="13"/>
       <c r="AG59" s="13"/>
-      <c r="AH59" s="15">
-        <v>0</v>
+      <c r="AH59" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -7461,55 +7482,55 @@
       <c r="A69" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="8">
-        <v>0</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>90</v>
+      <c r="C69" s="16">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q69" s="5"/>
       <c r="R69" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T69" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T69" s="5">
+        <v>1</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
@@ -7517,17 +7538,17 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
-      <c r="AB69" s="8">
+      <c r="AB69" s="16">
         <v>0</v>
       </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
-      <c r="AE69" s="8">
+      <c r="AE69" s="16">
         <v>0</v>
       </c>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
-      <c r="AH69" s="8">
+      <c r="AH69" s="16">
         <v>0</v>
       </c>
       <c r="AI69" s="5"/>
@@ -8021,10 +8042,10 @@
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="8">
         <v>0</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -8077,17 +8098,17 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
-      <c r="AB75" s="8">
+      <c r="AB75" s="16">
         <v>0</v>
       </c>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
-      <c r="AE75" s="8">
+      <c r="AE75" s="16">
         <v>0</v>
       </c>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
-      <c r="AH75" s="8">
+      <c r="AH75" s="16">
         <v>0</v>
       </c>
       <c r="AI75" s="5"/>
@@ -8116,8 +8137,8 @@
       <c r="B76" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="8">
-        <v>0</v>
+      <c r="C76" s="16">
+        <v>1</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>90</v>
@@ -8169,17 +8190,17 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
-      <c r="AB76" s="5" t="s">
+      <c r="AB76" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
-      <c r="AE76" s="5" t="s">
+      <c r="AE76" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
-      <c r="AH76" s="5" t="s">
+      <c r="AH76" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AI76" s="5"/>
@@ -8205,52 +8226,52 @@
       <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="8">
-        <v>0</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>90</v>
+      <c r="C77" s="16">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="5">
+        <v>0</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O77" s="5"/>
       <c r="P77" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q77" s="5"/>
       <c r="R77" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T77" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T77" s="5">
+        <v>0</v>
       </c>
       <c r="U77" s="17" t="s">
         <v>90</v>
@@ -8261,18 +8282,18 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
-      <c r="AB77" s="5" t="s">
-        <v>90</v>
+      <c r="AB77" s="5">
+        <v>0</v>
       </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
-      <c r="AE77" s="5" t="s">
-        <v>90</v>
+      <c r="AE77" s="5">
+        <v>0</v>
       </c>
       <c r="AF77" s="5"/>
       <c r="AG77" s="5"/>
-      <c r="AH77" s="5" t="s">
-        <v>90</v>
+      <c r="AH77" s="5">
+        <v>0</v>
       </c>
       <c r="AI77" s="5"/>
       <c r="AJ77" s="5"/>
@@ -8300,8 +8321,8 @@
       <c r="B78" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="8">
-        <v>0</v>
+      <c r="C78" s="16">
+        <v>1</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>90</v>
@@ -8481,55 +8502,55 @@
       <c r="A80" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="8">
-        <v>0</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>90</v>
+      <c r="C80" s="16">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T80" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T80" s="5">
+        <v>1</v>
       </c>
       <c r="U80" s="17" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
@@ -8537,18 +8558,18 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
-      <c r="AB80" s="5" t="s">
-        <v>90</v>
+      <c r="AB80" s="5">
+        <v>0</v>
       </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
-      <c r="AE80" s="5" t="s">
-        <v>90</v>
+      <c r="AE80" s="5">
+        <v>0</v>
       </c>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
-      <c r="AH80" s="5" t="s">
-        <v>90</v>
+      <c r="AH80" s="5">
+        <v>0</v>
       </c>
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
@@ -8668,8 +8689,8 @@
       <c r="B82" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="8">
-        <v>0</v>
+      <c r="C82" s="16">
+        <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>90</v>
@@ -8849,55 +8870,55 @@
       <c r="A84" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="8">
-        <v>0</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>90</v>
+      <c r="C84" s="16">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O84" s="5"/>
       <c r="P84" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q84" s="5"/>
       <c r="R84" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T84" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T84" s="5">
+        <v>1</v>
       </c>
       <c r="U84" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
@@ -8905,18 +8926,18 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
-      <c r="AB84" s="5" t="s">
-        <v>90</v>
+      <c r="AB84" s="5">
+        <v>0</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
-      <c r="AE84" s="5" t="s">
-        <v>90</v>
+      <c r="AE84" s="5">
+        <v>0</v>
       </c>
       <c r="AF84" s="5"/>
       <c r="AG84" s="5"/>
-      <c r="AH84" s="5" t="s">
-        <v>90</v>
+      <c r="AH84" s="5">
+        <v>0</v>
       </c>
       <c r="AI84" s="5"/>
       <c r="AJ84" s="5"/>
@@ -8944,7 +8965,7 @@
       <c r="B85" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="8">
         <v>0</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -9031,6 +9052,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="Z1:AI1"/>
@@ -9043,11 +9069,6 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="J1:X1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE166E-8D37-41BB-BD9A-62B51F3A4B93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0B77A041-0A96-4A27-90C9-B7969605821D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="4095" windowHeight="9000" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -16,7 +16,7 @@
   <sheets>
     <sheet name="MEG_ANALYSIS_MASTERFILE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="186">
   <si>
     <t>ANATOMY</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>EEG005|EEG006|EEG007|EEG008</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>|+++++|MLF14|MLT31|MLT41|MRF11|MRF12|MRF13|MRF14|MRT21|MRT31|MRT41|MRT51|MRT52</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,7 +767,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -776,17 +794,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,13 +1182,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ85"/>
+  <dimension ref="A1:AZ86"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="M37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="AB76" sqref="AB76"/>
+      <selection pane="bottomRight" activeCell="X52" sqref="X52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1188,70 +1200,70 @@
     <row r="1" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
+      <c r="J1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="24" t="s">
+      <c r="AK1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1259,32 +1271,32 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
       <c r="X2" s="3" t="s">
         <v>167</v>
       </c>
@@ -1292,21 +1304,21 @@
       <c r="Z2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26" t="s">
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26" t="s">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>15</v>
@@ -1314,27 +1326,27 @@
       <c r="AL2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AM2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="22"/>
+      <c r="AN2" s="24"/>
       <c r="AO2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="22" t="s">
+      <c r="AP2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22" t="s">
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22" t="s">
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="22"/>
+      <c r="AW2" s="24"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
@@ -4672,7 +4684,7 @@
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-      <c r="X38" s="29"/>
+      <c r="X38" s="22"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -4999,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
@@ -5049,17 +5061,17 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
@@ -5091,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
@@ -5141,17 +5153,17 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
@@ -5183,10 +5195,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
@@ -5233,17 +5245,17 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
@@ -5645,10 +5657,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="13">
         <v>0</v>
@@ -5966,7 +5978,9 @@
       </c>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="17"/>
+      <c r="X52" s="32" t="s">
+        <v>185</v>
+      </c>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
@@ -6199,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
@@ -6372,97 +6386,97 @@
       <c r="AY56" s="5"/>
       <c r="AZ56" s="5"/>
     </row>
-    <row r="57" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="11">
-        <v>0</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U57" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="11"/>
-      <c r="AH57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI57" s="11"/>
-      <c r="AJ57" s="11"/>
-      <c r="AK57" s="11"/>
-      <c r="AL57" s="11"/>
-      <c r="AM57" s="11"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="11"/>
-      <c r="AP57" s="11"/>
-      <c r="AQ57" s="11"/>
-      <c r="AR57" s="11"/>
-      <c r="AS57" s="11"/>
-      <c r="AT57" s="11"/>
-      <c r="AU57" s="11"/>
-      <c r="AV57" s="11"/>
-      <c r="AW57" s="11"/>
-      <c r="AX57" s="11"/>
-      <c r="AY57" s="11"/>
-      <c r="AZ57" s="11"/>
+      <c r="C57" s="13">
+        <v>0</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="13"/>
+      <c r="J57" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S57" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T57" s="13">
+        <v>1</v>
+      </c>
+      <c r="U57" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="13"/>
+      <c r="AH57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="13"/>
+      <c r="AJ57" s="13"/>
+      <c r="AK57" s="13"/>
+      <c r="AL57" s="13"/>
+      <c r="AM57" s="13"/>
+      <c r="AN57" s="13"/>
+      <c r="AO57" s="13"/>
+      <c r="AP57" s="13"/>
+      <c r="AQ57" s="13"/>
+      <c r="AR57" s="13"/>
+      <c r="AS57" s="13"/>
+      <c r="AT57" s="13"/>
+      <c r="AU57" s="13"/>
+      <c r="AV57" s="13"/>
+      <c r="AW57" s="13"/>
+      <c r="AX57" s="13"/>
+      <c r="AY57" s="13"/>
+      <c r="AZ57" s="13"/>
     </row>
     <row r="58" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="11" t="s">
@@ -6563,7 +6577,7 @@
       <c r="B59" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="23">
         <v>1</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -6740,564 +6754,564 @@
       <c r="AY60" s="11"/>
       <c r="AZ60" s="11"/>
     </row>
-    <row r="61" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="13">
+        <v>0</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T61" s="13">
+        <v>0</v>
+      </c>
+      <c r="U61" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="13"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="13"/>
+      <c r="AL61" s="13"/>
+      <c r="AM61" s="13"/>
+      <c r="AN61" s="13"/>
+      <c r="AO61" s="13"/>
+      <c r="AP61" s="13"/>
+      <c r="AQ61" s="13"/>
+      <c r="AR61" s="13"/>
+      <c r="AS61" s="13"/>
+      <c r="AT61" s="13"/>
+      <c r="AU61" s="13"/>
+      <c r="AV61" s="13"/>
+      <c r="AW61" s="13"/>
+      <c r="AX61" s="13"/>
+      <c r="AY61" s="13"/>
+      <c r="AZ61" s="13"/>
+    </row>
+    <row r="62" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="9">
-        <v>1</v>
-      </c>
-      <c r="D61" s="9">
-        <v>1</v>
-      </c>
-      <c r="E61" s="9">
-        <v>1</v>
-      </c>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>1</v>
-      </c>
-      <c r="H61" s="9">
-        <v>1</v>
-      </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9" t="s">
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9">
+        <v>1</v>
+      </c>
+      <c r="F62" s="9">
+        <v>0</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="9">
+        <v>1</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="K62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9" t="s">
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9" t="s">
+      <c r="O62" s="9"/>
+      <c r="P62" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S61" s="9" t="s">
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S62" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T61" s="9">
-        <v>1</v>
-      </c>
-      <c r="U61" s="18" t="s">
+      <c r="T62" s="9">
+        <v>1</v>
+      </c>
+      <c r="U62" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="9">
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9">
         <v>-1</v>
       </c>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="9">
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9">
         <v>-1</v>
       </c>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="9"/>
-      <c r="AH61" s="9">
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9">
         <v>-1</v>
       </c>
-      <c r="AI61" s="9"/>
-      <c r="AJ61" s="9"/>
-      <c r="AK61" s="9"/>
-      <c r="AL61" s="9"/>
-      <c r="AM61" s="9"/>
-      <c r="AN61" s="9"/>
-      <c r="AO61" s="9"/>
-      <c r="AP61" s="9"/>
-      <c r="AQ61" s="9"/>
-      <c r="AR61" s="9"/>
-      <c r="AS61" s="9"/>
-      <c r="AT61" s="9"/>
-      <c r="AU61" s="9"/>
-      <c r="AV61" s="9"/>
-      <c r="AW61" s="9"/>
-      <c r="AX61" s="9"/>
-      <c r="AY61" s="9"/>
-      <c r="AZ61" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
+      <c r="AM62" s="9"/>
+      <c r="AN62" s="9"/>
+      <c r="AO62" s="9"/>
+      <c r="AP62" s="9"/>
+      <c r="AQ62" s="9"/>
+      <c r="AR62" s="9"/>
+      <c r="AS62" s="9"/>
+      <c r="AT62" s="9"/>
+      <c r="AU62" s="9"/>
+      <c r="AV62" s="9"/>
+      <c r="AW62" s="9"/>
+      <c r="AX62" s="9"/>
+      <c r="AY62" s="9"/>
+      <c r="AZ62" s="9"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A63" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="5">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1</v>
-      </c>
-      <c r="F62" s="16">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5">
-        <v>1</v>
-      </c>
-      <c r="H62" s="5">
-        <v>1</v>
-      </c>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="16">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K63" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5" t="s">
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5" t="s">
+      <c r="O63" s="5"/>
+      <c r="P63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5" t="s">
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="S62" s="5" t="s">
+      <c r="S63" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T62" s="5">
-        <v>0</v>
-      </c>
-      <c r="U62" s="17" t="s">
+      <c r="T63" s="5">
+        <v>0</v>
+      </c>
+      <c r="U63" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="5"/>
-      <c r="AH62" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI62" s="5"/>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="5"/>
-      <c r="AL62" s="5"/>
-      <c r="AM62" s="5"/>
-      <c r="AN62" s="5"/>
-      <c r="AO62" s="5"/>
-      <c r="AP62" s="5"/>
-      <c r="AQ62" s="5"/>
-      <c r="AR62" s="5"/>
-      <c r="AS62" s="5"/>
-      <c r="AT62" s="5"/>
-      <c r="AU62" s="5"/>
-      <c r="AV62" s="5"/>
-      <c r="AW62" s="5"/>
-      <c r="AX62" s="5"/>
-      <c r="AY62" s="5"/>
-      <c r="AZ62" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="5"/>
+      <c r="AR63" s="5"/>
+      <c r="AS63" s="5"/>
+      <c r="AT63" s="5"/>
+      <c r="AU63" s="5"/>
+      <c r="AV63" s="5"/>
+      <c r="AW63" s="5"/>
+      <c r="AX63" s="5"/>
+      <c r="AY63" s="5"/>
+      <c r="AZ63" s="5"/>
     </row>
-    <row r="63" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="11" t="s">
+    <row r="64" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B64" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="11">
-        <v>0</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U63" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="19"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-      <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
-      <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
-      <c r="AP63" s="11"/>
-      <c r="AQ63" s="11"/>
-      <c r="AR63" s="11"/>
-      <c r="AS63" s="11"/>
-      <c r="AT63" s="11"/>
-      <c r="AU63" s="11"/>
-      <c r="AV63" s="11"/>
-      <c r="AW63" s="11"/>
-      <c r="AX63" s="11"/>
-      <c r="AY63" s="11"/>
-      <c r="AZ63" s="11"/>
+      <c r="C64" s="11">
+        <v>0</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U64" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="11"/>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="11"/>
+      <c r="AR64" s="11"/>
+      <c r="AS64" s="11"/>
+      <c r="AT64" s="11"/>
+      <c r="AU64" s="11"/>
+      <c r="AV64" s="11"/>
+      <c r="AW64" s="11"/>
+      <c r="AX64" s="11"/>
+      <c r="AY64" s="11"/>
+      <c r="AZ64" s="11"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A65" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="5">
-        <v>1</v>
-      </c>
-      <c r="G64" s="5">
-        <v>1</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1</v>
-      </c>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K65" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5" t="s">
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5" t="s">
+      <c r="O65" s="5"/>
+      <c r="P65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5" t="s">
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="S64" s="5" t="s">
+      <c r="S65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T64" s="5">
-        <v>0</v>
-      </c>
-      <c r="U64" s="17" t="s">
+      <c r="T65" s="5">
+        <v>0</v>
+      </c>
+      <c r="U65" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI64" s="5"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="5"/>
-      <c r="AL64" s="5"/>
-      <c r="AM64" s="5"/>
-      <c r="AN64" s="5"/>
-      <c r="AO64" s="5"/>
-      <c r="AP64" s="5"/>
-      <c r="AQ64" s="5"/>
-      <c r="AR64" s="5"/>
-      <c r="AS64" s="5"/>
-      <c r="AT64" s="5"/>
-      <c r="AU64" s="5"/>
-      <c r="AV64" s="5"/>
-      <c r="AW64" s="5"/>
-      <c r="AX64" s="5"/>
-      <c r="AY64" s="5"/>
-      <c r="AZ64" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="5"/>
+      <c r="AS65" s="5"/>
+      <c r="AT65" s="5"/>
+      <c r="AU65" s="5"/>
+      <c r="AV65" s="5"/>
+      <c r="AW65" s="5"/>
+      <c r="AX65" s="5"/>
+      <c r="AY65" s="5"/>
+      <c r="AZ65" s="5"/>
     </row>
-    <row r="65" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="11" t="s">
+    <row r="66" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B66" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="11">
-        <v>0</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U65" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="11"/>
-      <c r="AB65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="11"/>
-      <c r="AE65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF65" s="11"/>
-      <c r="AG65" s="11"/>
-      <c r="AH65" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI65" s="11"/>
-      <c r="AJ65" s="11"/>
-      <c r="AK65" s="11"/>
-      <c r="AL65" s="11"/>
-      <c r="AM65" s="11"/>
-      <c r="AN65" s="11"/>
-      <c r="AO65" s="11"/>
-      <c r="AP65" s="11"/>
-      <c r="AQ65" s="11"/>
-      <c r="AR65" s="11"/>
-      <c r="AS65" s="11"/>
-      <c r="AT65" s="11"/>
-      <c r="AU65" s="11"/>
-      <c r="AV65" s="11"/>
-      <c r="AW65" s="11"/>
-      <c r="AX65" s="11"/>
-      <c r="AY65" s="11"/>
-      <c r="AZ65" s="11"/>
-    </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
-        <v>1</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-      <c r="F66" s="5">
-        <v>1</v>
-      </c>
-      <c r="G66" s="5">
-        <v>1</v>
-      </c>
-      <c r="H66" s="5">
-        <v>1</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="S66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T66" s="5">
-        <v>0</v>
-      </c>
-      <c r="U66" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
-      <c r="AH66" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI66" s="5"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="5"/>
-      <c r="AL66" s="5"/>
-      <c r="AM66" s="5"/>
-      <c r="AN66" s="5"/>
-      <c r="AO66" s="5"/>
-      <c r="AP66" s="5"/>
-      <c r="AQ66" s="5"/>
-      <c r="AR66" s="5"/>
-      <c r="AS66" s="5"/>
-      <c r="AT66" s="5"/>
-      <c r="AU66" s="5"/>
-      <c r="AV66" s="5"/>
-      <c r="AW66" s="5"/>
-      <c r="AX66" s="5"/>
-      <c r="AY66" s="5"/>
-      <c r="AZ66" s="5"/>
+      <c r="C66" s="11">
+        <v>0</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U66" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AB66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC66" s="11"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="11"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="11"/>
+      <c r="AP66" s="11"/>
+      <c r="AQ66" s="11"/>
+      <c r="AR66" s="11"/>
+      <c r="AS66" s="11"/>
+      <c r="AT66" s="11"/>
+      <c r="AU66" s="11"/>
+      <c r="AV66" s="11"/>
+      <c r="AW66" s="11"/>
+      <c r="AX66" s="11"/>
+      <c r="AY66" s="11"/>
+      <c r="AZ66" s="11"/>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -7341,16 +7355,14 @@
         <v>30</v>
       </c>
       <c r="T67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" s="17" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
-      <c r="X67" s="17" t="s">
-        <v>171</v>
-      </c>
+      <c r="X67" s="17"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
@@ -7391,7 +7403,7 @@
         <v>76</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -7435,14 +7447,16 @@
         <v>30</v>
       </c>
       <c r="T68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="17"/>
+      <c r="X68" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
@@ -7482,26 +7496,26 @@
       <c r="A69" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69" s="16">
+      <c r="B69" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="5">
         <v>1</v>
       </c>
       <c r="D69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5" t="s">
@@ -7521,16 +7535,16 @@
       </c>
       <c r="Q69" s="5"/>
       <c r="R69" s="5" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="S69" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T69" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" s="17" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
@@ -7538,18 +7552,18 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
-      <c r="AB69" s="16">
-        <v>0</v>
+      <c r="AB69" s="5">
+        <v>1</v>
       </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
-      <c r="AE69" s="16">
-        <v>0</v>
+      <c r="AE69" s="5">
+        <v>1</v>
       </c>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
-      <c r="AH69" s="16">
-        <v>0</v>
+      <c r="AH69" s="5">
+        <v>1</v>
       </c>
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
@@ -7574,10 +7588,10 @@
       <c r="A70" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="5">
+      <c r="B70" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="16">
         <v>1</v>
       </c>
       <c r="D70" s="5">
@@ -7587,13 +7601,13 @@
         <v>1</v>
       </c>
       <c r="F70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5" t="s">
@@ -7613,7 +7627,7 @@
       </c>
       <c r="Q70" s="5"/>
       <c r="R70" s="5" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="S70" s="5" t="s">
         <v>30</v>
@@ -7622,28 +7636,26 @@
         <v>1</v>
       </c>
       <c r="U70" s="17" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="17" t="s">
-        <v>172</v>
-      </c>
+      <c r="X70" s="17"/>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
-      <c r="AB70" s="5">
-        <v>1</v>
+      <c r="AB70" s="16">
+        <v>0</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
-      <c r="AE70" s="5">
-        <v>1</v>
+      <c r="AE70" s="16">
+        <v>0</v>
       </c>
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
-      <c r="AH70" s="5">
-        <v>1</v>
+      <c r="AH70" s="16">
+        <v>0</v>
       </c>
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
@@ -7669,7 +7681,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -7713,7 +7725,7 @@
         <v>30</v>
       </c>
       <c r="T71" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="17" t="s">
         <v>78</v>
@@ -7721,7 +7733,7 @@
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
@@ -7763,7 +7775,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
@@ -7774,7 +7786,7 @@
       <c r="E72" s="5">
         <v>1</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="5">
         <v>1</v>
       </c>
       <c r="G72" s="5">
@@ -7797,7 +7809,7 @@
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5" t="s">
@@ -7807,15 +7819,15 @@
         <v>30</v>
       </c>
       <c r="T72" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" s="17" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
@@ -7857,7 +7869,7 @@
         <v>76</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
@@ -7868,7 +7880,7 @@
       <c r="E73" s="5">
         <v>1</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="16">
         <v>1</v>
       </c>
       <c r="G73" s="5">
@@ -7891,7 +7903,7 @@
       </c>
       <c r="O73" s="5"/>
       <c r="P73" s="5" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5" t="s">
@@ -7904,12 +7916,12 @@
         <v>1</v>
       </c>
       <c r="U73" s="17" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
@@ -7946,199 +7958,201 @@
       <c r="AY73" s="5"/>
       <c r="AZ73" s="5"/>
     </row>
-    <row r="74" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="11" t="s">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T74" s="5">
+        <v>1</v>
+      </c>
+      <c r="U74" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="5"/>
+    </row>
+    <row r="75" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="11">
-        <v>0</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U74" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-      <c r="AB74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
-      <c r="AE74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF74" s="11"/>
-      <c r="AG74" s="11"/>
-      <c r="AH74" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI74" s="11"/>
-      <c r="AJ74" s="11"/>
-      <c r="AK74" s="11"/>
-      <c r="AL74" s="11"/>
-      <c r="AM74" s="11"/>
-      <c r="AN74" s="11"/>
-      <c r="AO74" s="11"/>
-      <c r="AP74" s="11"/>
-      <c r="AQ74" s="11"/>
-      <c r="AR74" s="11"/>
-      <c r="AS74" s="11"/>
-      <c r="AT74" s="11"/>
-      <c r="AU74" s="11"/>
-      <c r="AV74" s="11"/>
-      <c r="AW74" s="11"/>
-      <c r="AX74" s="11"/>
-      <c r="AY74" s="11"/>
-      <c r="AZ74" s="11"/>
-    </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A75" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" s="8">
-        <v>0</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U75" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="5"/>
-      <c r="AG75" s="5"/>
-      <c r="AH75" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="5"/>
-      <c r="AJ75" s="5"/>
-      <c r="AK75" s="5"/>
-      <c r="AL75" s="5"/>
-      <c r="AM75" s="5"/>
-      <c r="AN75" s="5"/>
-      <c r="AO75" s="5"/>
-      <c r="AP75" s="5"/>
-      <c r="AQ75" s="5"/>
-      <c r="AR75" s="5"/>
-      <c r="AS75" s="5"/>
-      <c r="AT75" s="5"/>
-      <c r="AU75" s="5"/>
-      <c r="AV75" s="5"/>
-      <c r="AW75" s="5"/>
-      <c r="AX75" s="5"/>
-      <c r="AY75" s="5"/>
-      <c r="AZ75" s="5"/>
+      <c r="C75" s="11">
+        <v>0</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U75" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC75" s="11"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF75" s="11"/>
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI75" s="11"/>
+      <c r="AJ75" s="11"/>
+      <c r="AK75" s="11"/>
+      <c r="AL75" s="11"/>
+      <c r="AM75" s="11"/>
+      <c r="AN75" s="11"/>
+      <c r="AO75" s="11"/>
+      <c r="AP75" s="11"/>
+      <c r="AQ75" s="11"/>
+      <c r="AR75" s="11"/>
+      <c r="AS75" s="11"/>
+      <c r="AT75" s="11"/>
+      <c r="AU75" s="11"/>
+      <c r="AV75" s="11"/>
+      <c r="AW75" s="11"/>
+      <c r="AX75" s="11"/>
+      <c r="AY75" s="11"/>
+      <c r="AZ75" s="11"/>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C76" s="16">
-        <v>1</v>
+      <c r="B76" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>90</v>
@@ -8190,18 +8204,18 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
-      <c r="AB76" s="8" t="s">
-        <v>90</v>
+      <c r="AB76" s="16">
+        <v>0</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
-      <c r="AE76" s="8" t="s">
-        <v>90</v>
+      <c r="AE76" s="16">
+        <v>0</v>
       </c>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
-      <c r="AH76" s="8" t="s">
-        <v>90</v>
+      <c r="AH76" s="16">
+        <v>0</v>
       </c>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
@@ -8226,52 +8240,52 @@
       <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>156</v>
+      <c r="B77" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C77" s="16">
         <v>1</v>
       </c>
-      <c r="D77" s="5">
-        <v>0</v>
-      </c>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77" s="5">
-        <v>0</v>
-      </c>
-      <c r="G77" s="5">
-        <v>0</v>
-      </c>
-      <c r="H77" s="5">
-        <v>0</v>
+      <c r="D77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="O77" s="5"/>
       <c r="P77" s="5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Q77" s="5"/>
       <c r="R77" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T77" s="5">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="U77" s="17" t="s">
         <v>90</v>
@@ -8282,18 +8296,18 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
-      <c r="AB77" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="5"/>
-      <c r="AH77" s="5">
-        <v>0</v>
+      <c r="AB77" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="16">
+        <v>1</v>
       </c>
       <c r="AI77" s="5"/>
       <c r="AJ77" s="5"/>
@@ -8318,52 +8332,52 @@
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>157</v>
+      <c r="B78" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="C78" s="16">
         <v>1</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>90</v>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O78" s="5"/>
       <c r="P78" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q78" s="5"/>
       <c r="R78" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T78" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T78" s="5">
+        <v>0</v>
       </c>
       <c r="U78" s="17" t="s">
         <v>90</v>
@@ -8374,18 +8388,18 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
-      <c r="AB78" s="5" t="s">
-        <v>90</v>
+      <c r="AB78" s="5">
+        <v>0</v>
       </c>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
-      <c r="AE78" s="5" t="s">
-        <v>90</v>
+      <c r="AE78" s="5">
+        <v>0</v>
       </c>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
-      <c r="AH78" s="5" t="s">
-        <v>90</v>
+      <c r="AH78" s="5">
+        <v>0</v>
       </c>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
@@ -8411,10 +8425,10 @@
         <v>76</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="8">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="C79" s="16">
+        <v>1</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>90</v>
@@ -8502,55 +8516,55 @@
       <c r="A80" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="16">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5">
-        <v>0</v>
-      </c>
-      <c r="E80" s="5">
-        <v>0</v>
-      </c>
-      <c r="F80" s="5">
-        <v>0</v>
-      </c>
-      <c r="G80" s="5">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5">
-        <v>0</v>
+      <c r="B80" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T80" s="5">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="U80" s="17" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
@@ -8558,18 +8572,18 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
-      <c r="AB80" s="5">
-        <v>0</v>
+      <c r="AB80" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
-      <c r="AE80" s="5">
-        <v>0</v>
+      <c r="AE80" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
-      <c r="AH80" s="5">
-        <v>0</v>
+      <c r="AH80" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
@@ -8594,55 +8608,55 @@
       <c r="A81" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="8">
-        <v>0</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>90</v>
+      <c r="B81" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="16">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O81" s="5"/>
       <c r="P81" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q81" s="5"/>
       <c r="R81" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T81" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T81" s="5">
+        <v>1</v>
       </c>
       <c r="U81" s="17" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
@@ -8650,18 +8664,18 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
-      <c r="AB81" s="5" t="s">
-        <v>90</v>
+      <c r="AB81" s="5">
+        <v>1</v>
       </c>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
-      <c r="AE81" s="5" t="s">
-        <v>90</v>
+      <c r="AE81" s="5">
+        <v>1</v>
       </c>
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
-      <c r="AH81" s="5" t="s">
-        <v>90</v>
+      <c r="AH81" s="5">
+        <v>1</v>
       </c>
       <c r="AI81" s="5"/>
       <c r="AJ81" s="5"/>
@@ -8686,52 +8700,52 @@
       <c r="A82" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>161</v>
+      <c r="B82" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="C82" s="16">
         <v>1</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>90</v>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="O82" s="5"/>
       <c r="P82" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T82" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T82" s="5">
+        <v>0</v>
       </c>
       <c r="U82" s="17" t="s">
         <v>90</v>
@@ -8742,18 +8756,18 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
-      <c r="AB82" s="5" t="s">
-        <v>90</v>
+      <c r="AB82" s="5">
+        <v>0</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
-      <c r="AE82" s="5" t="s">
-        <v>90</v>
+      <c r="AE82" s="5">
+        <v>0</v>
       </c>
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
-      <c r="AH82" s="5" t="s">
-        <v>90</v>
+      <c r="AH82" s="5">
+        <v>0</v>
       </c>
       <c r="AI82" s="5"/>
       <c r="AJ82" s="5"/>
@@ -8774,214 +8788,214 @@
       <c r="AY82" s="5"/>
       <c r="AZ82" s="5"/>
     </row>
-    <row r="83" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A83" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U83" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+      <c r="AP83" s="5"/>
+      <c r="AQ83" s="5"/>
+      <c r="AR83" s="5"/>
+      <c r="AS83" s="5"/>
+      <c r="AT83" s="5"/>
+      <c r="AU83" s="5"/>
+      <c r="AV83" s="5"/>
+      <c r="AW83" s="5"/>
+      <c r="AX83" s="5"/>
+      <c r="AY83" s="5"/>
+      <c r="AZ83" s="5"/>
+    </row>
+    <row r="84" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="11">
-        <v>0</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U83" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="19"/>
-      <c r="Y83" s="11"/>
-      <c r="Z83" s="11"/>
-      <c r="AA83" s="11"/>
-      <c r="AB83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC83" s="11"/>
-      <c r="AD83" s="11"/>
-      <c r="AE83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF83" s="11"/>
-      <c r="AG83" s="11"/>
-      <c r="AH83" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI83" s="11"/>
-      <c r="AJ83" s="11"/>
-      <c r="AK83" s="11"/>
-      <c r="AL83" s="11"/>
-      <c r="AM83" s="11"/>
-      <c r="AN83" s="11"/>
-      <c r="AO83" s="11"/>
-      <c r="AP83" s="11"/>
-      <c r="AQ83" s="11"/>
-      <c r="AR83" s="11"/>
-      <c r="AS83" s="11"/>
-      <c r="AT83" s="11"/>
-      <c r="AU83" s="11"/>
-      <c r="AV83" s="11"/>
-      <c r="AW83" s="11"/>
-      <c r="AX83" s="11"/>
-      <c r="AY83" s="11"/>
-      <c r="AZ83" s="11"/>
-    </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A84" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" s="16">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5">
-        <v>0</v>
-      </c>
-      <c r="E84" s="5">
-        <v>0</v>
-      </c>
-      <c r="F84" s="5">
-        <v>0</v>
-      </c>
-      <c r="G84" s="5">
-        <v>0</v>
-      </c>
-      <c r="H84" s="5">
-        <v>0</v>
-      </c>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S84" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T84" s="5">
-        <v>1</v>
-      </c>
-      <c r="U84" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="17"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
-      <c r="AE84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF84" s="5"/>
-      <c r="AG84" s="5"/>
-      <c r="AH84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI84" s="5"/>
-      <c r="AJ84" s="5"/>
-      <c r="AK84" s="5"/>
-      <c r="AL84" s="5"/>
-      <c r="AM84" s="5"/>
-      <c r="AN84" s="5"/>
-      <c r="AO84" s="5"/>
-      <c r="AP84" s="5"/>
-      <c r="AQ84" s="5"/>
-      <c r="AR84" s="5"/>
-      <c r="AS84" s="5"/>
-      <c r="AT84" s="5"/>
-      <c r="AU84" s="5"/>
-      <c r="AV84" s="5"/>
-      <c r="AW84" s="5"/>
-      <c r="AX84" s="5"/>
-      <c r="AY84" s="5"/>
-      <c r="AZ84" s="5"/>
+      <c r="C84" s="11">
+        <v>0</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U84" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="11"/>
+      <c r="AB84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC84" s="11"/>
+      <c r="AD84" s="11"/>
+      <c r="AE84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF84" s="11"/>
+      <c r="AG84" s="11"/>
+      <c r="AH84" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI84" s="11"/>
+      <c r="AJ84" s="11"/>
+      <c r="AK84" s="11"/>
+      <c r="AL84" s="11"/>
+      <c r="AM84" s="11"/>
+      <c r="AN84" s="11"/>
+      <c r="AO84" s="11"/>
+      <c r="AP84" s="11"/>
+      <c r="AQ84" s="11"/>
+      <c r="AR84" s="11"/>
+      <c r="AS84" s="11"/>
+      <c r="AT84" s="11"/>
+      <c r="AU84" s="11"/>
+      <c r="AV84" s="11"/>
+      <c r="AW84" s="11"/>
+      <c r="AX84" s="11"/>
+      <c r="AY84" s="11"/>
+      <c r="AZ84" s="11"/>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="8">
-        <v>0</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>90</v>
+      <c r="B85" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="16">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5" t="s">
@@ -9004,7 +9018,7 @@
         <v>90</v>
       </c>
       <c r="S85" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T85" s="5">
         <v>1</v>
@@ -9017,21 +9031,21 @@
       <c r="X85" s="17"/>
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
-      <c r="AA85" s="16"/>
-      <c r="AB85" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC85" s="16"/>
-      <c r="AD85" s="16"/>
-      <c r="AE85" s="16">
-        <v>1</v>
-      </c>
-      <c r="AF85" s="16"/>
-      <c r="AG85" s="16"/>
-      <c r="AH85" s="16">
-        <v>1</v>
-      </c>
-      <c r="AI85" s="16"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF85" s="5"/>
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="5"/>
       <c r="AJ85" s="5"/>
       <c r="AK85" s="5"/>
       <c r="AL85" s="5"/>
@@ -9050,13 +9064,100 @@
       <c r="AY85" s="5"/>
       <c r="AZ85" s="5"/>
     </row>
+    <row r="86" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A86" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T86" s="5">
+        <v>1</v>
+      </c>
+      <c r="U86" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="17"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="16"/>
+      <c r="AB86" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="16"/>
+      <c r="AD86" s="16"/>
+      <c r="AE86" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF86" s="16"/>
+      <c r="AG86" s="16"/>
+      <c r="AH86" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI86" s="16"/>
+      <c r="AJ86" s="5"/>
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="5"/>
+      <c r="AO86" s="5"/>
+      <c r="AP86" s="5"/>
+      <c r="AQ86" s="5"/>
+      <c r="AR86" s="5"/>
+      <c r="AS86" s="5"/>
+      <c r="AT86" s="5"/>
+      <c r="AU86" s="5"/>
+      <c r="AV86" s="5"/>
+      <c r="AW86" s="5"/>
+      <c r="AX86" s="5"/>
+      <c r="AY86" s="5"/>
+      <c r="AZ86" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="Z1:AI1"/>
@@ -9069,6 +9170,11 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="J1:X1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0B77A041-0A96-4A27-90C9-B7969605821D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7CC221-E446-4839-B5D0-19E075E9D8AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4095" windowHeight="9000" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5903" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEG_ANALYSIS_MASTERFILE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="184">
   <si>
     <t>ANATOMY</t>
   </si>
@@ -349,9 +349,6 @@
     <t>038</t>
   </si>
   <si>
-    <t>039</t>
-  </si>
-  <si>
     <t>040</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>EEG004|EEG005|EEG007|EEG008</t>
   </si>
   <si>
-    <t>051</t>
-  </si>
-  <si>
     <t>052</t>
   </si>
   <si>
@@ -448,15 +442,9 @@
     <t>083</t>
   </si>
   <si>
-    <t>086</t>
-  </si>
-  <si>
     <t>087</t>
   </si>
   <si>
-    <t>088</t>
-  </si>
-  <si>
     <t>089</t>
   </si>
   <si>
@@ -514,9 +502,6 @@
     <t>106</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>108</t>
   </si>
   <si>
@@ -584,13 +569,22 @@
   </si>
   <si>
     <t>|+++++|MLF14|MLT31|MLT41|MRF11|MRF12|MRF13|MRF14|MRT21|MRT31|MRT41|MRT51|MRT52</t>
+  </si>
+  <si>
+    <t>#nifti==NA: no MRI | grey: no MEG | red: bad MEG</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>078</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -633,6 +627,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -708,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,13 +774,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -794,11 +792,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,13 +1189,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ86"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="M37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="X52" sqref="X52"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1198,72 +1205,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
+      <c r="A1" s="32" t="s">
+        <v>181</v>
+      </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
+      <c r="J1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="28" t="s">
+      <c r="AK1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1271,54 +1280,54 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
       <c r="X2" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30" t="s">
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30" t="s">
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>15</v>
@@ -1326,27 +1335,27 @@
       <c r="AL2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="24"/>
+      <c r="AN2" s="25"/>
       <c r="AO2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24" t="s">
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24" t="s">
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="24"/>
+      <c r="AW2" s="25"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
@@ -1384,7 +1393,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O3" s="5">
         <v>17380395</v>
@@ -1510,7 +1519,7 @@
         <v>52</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
@@ -1622,7 +1631,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
@@ -1630,7 +1639,7 @@
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S5" s="5" t="s">
         <v>30</v>
@@ -1714,7 +1723,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13" t="s">
@@ -1771,97 +1780,97 @@
       <c r="AY6" s="13"/>
       <c r="AZ6" s="13"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
@@ -1898,7 +1907,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
@@ -1906,7 +1915,7 @@
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>30</v>
@@ -1990,7 +1999,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
@@ -2082,7 +2091,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
@@ -2174,7 +2183,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
@@ -2182,7 +2191,7 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>30</v>
@@ -2266,7 +2275,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
@@ -2274,7 +2283,7 @@
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>30</v>
@@ -2358,7 +2367,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="s">
@@ -2366,7 +2375,7 @@
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>30</v>
@@ -2380,7 +2389,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
@@ -2417,97 +2426,97 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
@@ -2544,7 +2553,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
@@ -2552,7 +2561,7 @@
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>30</v>
@@ -2601,189 +2610,189 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="5"/>
     </row>
-    <row r="16" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
+      <c r="C16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11" t="s">
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16" s="11" t="s">
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="11">
-        <v>1</v>
-      </c>
-      <c r="U16" s="19" t="s">
+      <c r="T16" s="13">
+        <v>1</v>
+      </c>
+      <c r="U16" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="11"/>
-      <c r="AU16" s="11"/>
-      <c r="AV16" s="11"/>
-      <c r="AW16" s="11"/>
-      <c r="AX16" s="11"/>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="11"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
     </row>
-    <row r="17" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
+      <c r="C17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11" t="s">
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S17" s="11" t="s">
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T17" s="11">
-        <v>1</v>
-      </c>
-      <c r="U17" s="19" t="s">
+      <c r="T17" s="13">
+        <v>1</v>
+      </c>
+      <c r="U17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
     </row>
     <row r="18" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
@@ -2793,13 +2802,13 @@
         <v>92</v>
       </c>
       <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>90</v>
@@ -2884,8 +2893,8 @@
       <c r="B19" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="11">
-        <v>0</v>
+      <c r="C19" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>90</v>
@@ -3069,13 +3078,13 @@
         <v>96</v>
       </c>
       <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>90</v>
@@ -3153,97 +3162,97 @@
       <c r="AY21" s="11"/>
       <c r="AZ21" s="11"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U22" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
@@ -3280,7 +3289,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
@@ -3288,7 +3297,7 @@
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>30</v>
@@ -3337,97 +3346,97 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="5"/>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U24" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="11"/>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="11"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="11"/>
+      <c r="AZ24" s="11"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
@@ -3464,7 +3473,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
@@ -3472,7 +3481,7 @@
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>90</v>
@@ -3486,7 +3495,7 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -3558,7 +3567,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
@@ -3566,7 +3575,7 @@
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S26" s="5" t="s">
         <v>30</v>
@@ -3615,195 +3624,195 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="5"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U27" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U28" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C29" s="5">
@@ -3926,7 +3935,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5" t="s">
@@ -3934,7 +3943,7 @@
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>30</v>
@@ -3983,285 +3992,285 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="5"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U31" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
     </row>
-    <row r="32" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="11">
-        <v>0</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
-      <c r="AL32" s="11"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
-      <c r="AR32" s="11"/>
-      <c r="AS32" s="11"/>
-      <c r="AT32" s="11"/>
-      <c r="AU32" s="11"/>
-      <c r="AV32" s="11"/>
-      <c r="AW32" s="11"/>
-      <c r="AX32" s="11"/>
-      <c r="AY32" s="11"/>
-      <c r="AZ32" s="11"/>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T32" s="9">
+        <v>1</v>
+      </c>
+      <c r="U32" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="9"/>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
     </row>
-    <row r="33" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9" t="s">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="T33" s="9">
-        <v>1</v>
-      </c>
-      <c r="U33" s="18" t="s">
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T33" s="5">
+        <v>1</v>
+      </c>
+      <c r="U33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="9"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>109</v>
@@ -4294,7 +4303,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5" t="s">
@@ -4302,18 +4311,17 @@
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="T34" s="5">
         <v>1</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V34" s="5"/>
+        <v>110</v>
+      </c>
       <c r="W34" s="5"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="5"/>
@@ -4356,7 +4364,7 @@
         <v>93</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -4386,7 +4394,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5" t="s">
@@ -4394,7 +4402,7 @@
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>30</v>
@@ -4403,10 +4411,13 @@
         <v>1</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>111</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="17"/>
+      <c r="X35" s="17" t="s">
+        <v>171</v>
+      </c>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -4442,97 +4453,97 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="5"/>
     </row>
-    <row r="36" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="11">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U36" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="11"/>
-      <c r="AQ36" s="11"/>
-      <c r="AR36" s="11"/>
-      <c r="AS36" s="11"/>
-      <c r="AT36" s="11"/>
-      <c r="AU36" s="11"/>
-      <c r="AV36" s="11"/>
-      <c r="AW36" s="11"/>
-      <c r="AX36" s="11"/>
-      <c r="AY36" s="11"/>
-      <c r="AZ36" s="11"/>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T36" s="9">
+        <v>1</v>
+      </c>
+      <c r="U36" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="9"/>
+      <c r="AQ36" s="9"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="9"/>
+      <c r="AV36" s="9"/>
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="9"/>
+      <c r="AY36" s="9"/>
+      <c r="AZ36" s="9"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
@@ -4550,7 +4561,7 @@
       <c r="E37" s="5">
         <v>1</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="16">
         <v>1</v>
       </c>
       <c r="G37" s="5">
@@ -4569,7 +4580,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5" t="s">
@@ -4577,7 +4588,7 @@
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>30</v>
@@ -4591,7 +4602,7 @@
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
@@ -4628,97 +4639,97 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="5"/>
     </row>
-    <row r="38" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="9">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9">
-        <v>1</v>
-      </c>
-      <c r="F38" s="9">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9">
-        <v>1</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9" t="s">
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9" t="s">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="S38" s="9" t="s">
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T38" s="9">
-        <v>1</v>
-      </c>
-      <c r="U38" s="18" t="s">
+      <c r="T38" s="5">
+        <v>0</v>
+      </c>
+      <c r="U38" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="9"/>
-      <c r="AL38" s="9"/>
-      <c r="AM38" s="9"/>
-      <c r="AN38" s="9"/>
-      <c r="AO38" s="9"/>
-      <c r="AP38" s="9"/>
-      <c r="AQ38" s="9"/>
-      <c r="AR38" s="9"/>
-      <c r="AS38" s="9"/>
-      <c r="AT38" s="9"/>
-      <c r="AU38" s="9"/>
-      <c r="AV38" s="9"/>
-      <c r="AW38" s="9"/>
-      <c r="AX38" s="9"/>
-      <c r="AY38" s="9"/>
-      <c r="AZ38" s="9"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
@@ -4755,7 +4766,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5" t="s">
@@ -4763,13 +4774,13 @@
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T39" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="17" t="s">
         <v>78</v>
@@ -4777,7 +4788,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
@@ -4818,7 +4829,7 @@
       <c r="A40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="5">
@@ -4831,13 +4842,13 @@
         <v>1</v>
       </c>
       <c r="F40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
@@ -4849,7 +4860,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5" t="s">
@@ -4857,7 +4868,7 @@
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>30</v>
@@ -4865,8 +4876,8 @@
       <c r="T40" s="5">
         <v>0</v>
       </c>
-      <c r="U40" s="17" t="s">
-        <v>78</v>
+      <c r="U40" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -4910,7 +4921,7 @@
       <c r="A41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C41" s="5">
@@ -4922,14 +4933,14 @@
       <c r="E41" s="5">
         <v>1</v>
       </c>
-      <c r="F41" s="16">
-        <v>1</v>
+      <c r="F41" s="5">
+        <v>0</v>
       </c>
       <c r="G41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5" t="s">
@@ -4941,7 +4952,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5" t="s">
@@ -4949,22 +4960,20 @@
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="17" t="s">
-        <v>178</v>
-      </c>
+      <c r="X41" s="17"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
@@ -5035,24 +5044,24 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T42" s="5">
-        <v>0</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="U42" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
@@ -5092,189 +5101,189 @@
       <c r="AY42" s="5"/>
       <c r="AZ42" s="5"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T43" s="5">
-        <v>1</v>
-      </c>
-      <c r="U43" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="5"/>
-      <c r="AU43" s="5"/>
-      <c r="AV43" s="5"/>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="5"/>
-      <c r="AZ43" s="5"/>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U43" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="11"/>
+      <c r="AZ43" s="11"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T44" s="5">
-        <v>1</v>
-      </c>
-      <c r="U44" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5"/>
-      <c r="AT44" s="5"/>
-      <c r="AU44" s="5"/>
-      <c r="AV44" s="5"/>
-      <c r="AW44" s="5"/>
-      <c r="AX44" s="5"/>
-      <c r="AY44" s="5"/>
-      <c r="AZ44" s="5"/>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U44" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="11"/>
+      <c r="AU44" s="11"/>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="11"/>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="11"/>
+      <c r="AZ44" s="11"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
@@ -5287,67 +5296,69 @@
         <v>1</v>
       </c>
       <c r="D45" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T45" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T45" s="5">
+        <v>1</v>
       </c>
       <c r="U45" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="17"/>
+      <c r="X45" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
-      <c r="AB45" s="5" t="s">
-        <v>90</v>
+      <c r="AB45" s="5">
+        <v>1</v>
       </c>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
-      <c r="AE45" s="5" t="s">
-        <v>90</v>
+      <c r="AE45" s="5">
+        <v>1</v>
       </c>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
-      <c r="AH45" s="5" t="s">
-        <v>90</v>
+      <c r="AH45" s="5">
+        <v>1</v>
       </c>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
@@ -5379,48 +5390,48 @@
         <v>1</v>
       </c>
       <c r="D46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T46" s="5">
+        <v>1</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
@@ -5428,18 +5439,18 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
-      <c r="AB46" s="5" t="s">
-        <v>90</v>
+      <c r="AB46" s="5">
+        <v>1</v>
       </c>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
-      <c r="AE46" s="5" t="s">
-        <v>90</v>
+      <c r="AE46" s="5">
+        <v>1</v>
       </c>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
-      <c r="AH46" s="5" t="s">
-        <v>90</v>
+      <c r="AH46" s="5">
+        <v>1</v>
       </c>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
@@ -5460,99 +5471,97 @@
       <c r="AY46" s="5"/>
       <c r="AZ46" s="5"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47" s="5">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5">
-        <v>1</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
-      <c r="I47" s="5"/>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13"/>
       <c r="J47" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
       <c r="N47" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O47" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="O47" s="13"/>
       <c r="P47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5" t="s">
-        <v>166</v>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T47" s="5">
+        <v>27</v>
+      </c>
+      <c r="T47" s="13">
         <v>1</v>
       </c>
       <c r="U47" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-      <c r="AR47" s="5"/>
-      <c r="AS47" s="5"/>
-      <c r="AT47" s="5"/>
-      <c r="AU47" s="5"/>
-      <c r="AV47" s="5"/>
-      <c r="AW47" s="5"/>
-      <c r="AX47" s="5"/>
-      <c r="AY47" s="5"/>
-      <c r="AZ47" s="5"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="13"/>
+      <c r="AM47" s="13"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="13"/>
+      <c r="AQ47" s="13"/>
+      <c r="AR47" s="13"/>
+      <c r="AS47" s="13"/>
+      <c r="AT47" s="13"/>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="13"/>
+      <c r="AW47" s="13"/>
+      <c r="AX47" s="13"/>
+      <c r="AY47" s="13"/>
+      <c r="AZ47" s="13"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
@@ -5564,19 +5573,19 @@
       <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-      <c r="F48" s="5">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5">
-        <v>1</v>
-      </c>
-      <c r="H48" s="5">
+      <c r="D48" s="16">
+        <v>1</v>
+      </c>
+      <c r="E48" s="16">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16">
+        <v>1</v>
+      </c>
+      <c r="G48" s="16">
+        <v>1</v>
+      </c>
+      <c r="H48" s="16">
         <v>1</v>
       </c>
       <c r="I48" s="5"/>
@@ -5589,7 +5598,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5" t="s">
@@ -5597,7 +5606,7 @@
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>30</v>
@@ -5646,97 +5655,97 @@
       <c r="AY48" s="5"/>
       <c r="AZ48" s="5"/>
     </row>
-    <row r="49" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="13">
-        <v>1</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13">
-        <v>1</v>
-      </c>
-      <c r="F49" s="13">
-        <v>0</v>
-      </c>
-      <c r="G49" s="13">
-        <v>0</v>
-      </c>
-      <c r="H49" s="13">
-        <v>0</v>
-      </c>
-      <c r="I49" s="13"/>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
       <c r="N49" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O49" s="13"/>
+        <v>160</v>
+      </c>
+      <c r="O49" s="5"/>
       <c r="P49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13" t="s">
-        <v>90</v>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T49" s="13">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="T49" s="5">
+        <v>0</v>
       </c>
       <c r="U49" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="13"/>
-      <c r="AO49" s="13"/>
-      <c r="AP49" s="13"/>
-      <c r="AQ49" s="13"/>
-      <c r="AR49" s="13"/>
-      <c r="AS49" s="13"/>
-      <c r="AT49" s="13"/>
-      <c r="AU49" s="13"/>
-      <c r="AV49" s="13"/>
-      <c r="AW49" s="13"/>
-      <c r="AX49" s="13"/>
-      <c r="AY49" s="13"/>
-      <c r="AZ49" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
@@ -5748,19 +5757,19 @@
       <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="D50" s="16">
-        <v>1</v>
-      </c>
-      <c r="E50" s="16">
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
         <v>1</v>
       </c>
       <c r="F50" s="16">
         <v>1</v>
       </c>
-      <c r="G50" s="16">
-        <v>1</v>
-      </c>
-      <c r="H50" s="16">
+      <c r="G50" s="5">
+        <v>1</v>
+      </c>
+      <c r="H50" s="5">
         <v>1</v>
       </c>
       <c r="I50" s="5"/>
@@ -5773,7 +5782,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5" t="s">
@@ -5781,7 +5790,7 @@
       </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S50" s="5" t="s">
         <v>30</v>
@@ -5794,7 +5803,9 @@
       </c>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="17"/>
+      <c r="X50" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -5846,7 +5857,7 @@
       <c r="E51" s="5">
         <v>1</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="16">
         <v>1</v>
       </c>
       <c r="G51" s="5">
@@ -5865,7 +5876,7 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5" t="s">
@@ -5873,13 +5884,13 @@
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T51" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="17" t="s">
         <v>78</v>
@@ -5957,7 +5968,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5" t="s">
@@ -5965,7 +5976,7 @@
       </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S52" s="5" t="s">
         <v>30</v>
@@ -5978,8 +5989,8 @@
       </c>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="32" t="s">
-        <v>185</v>
+      <c r="X52" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
@@ -6020,26 +6031,26 @@
       <c r="A53" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="16">
         <v>1</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
       </c>
       <c r="E53" s="5">
-        <v>1</v>
-      </c>
-      <c r="F53" s="16">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
       </c>
       <c r="G53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5" t="s">
@@ -6051,7 +6062,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5" t="s">
@@ -6059,16 +6070,16 @@
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="S53" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T53" s="5">
         <v>1</v>
       </c>
       <c r="U53" s="17" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
@@ -6113,7 +6124,7 @@
         <v>93</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -6143,7 +6154,7 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5" t="s">
@@ -6151,7 +6162,7 @@
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S54" s="5" t="s">
         <v>30</v>
@@ -6164,9 +6175,7 @@
       </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="17" t="s">
-        <v>179</v>
-      </c>
+      <c r="X54" s="17"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
@@ -6202,32 +6211,32 @@
       <c r="AY54" s="5"/>
       <c r="AZ54" s="5"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="16">
-        <v>1</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5"/>
+      <c r="B55" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="13"/>
       <c r="J55" s="5" t="s">
         <v>25</v>
       </c>
@@ -6237,164 +6246,164 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S55" s="5" t="s">
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S55" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="T55" s="5">
+      <c r="T55" s="13">
         <v>1</v>
       </c>
       <c r="U55" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="5"/>
-      <c r="AL55" s="5"/>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
-      <c r="AO55" s="5"/>
-      <c r="AP55" s="5"/>
-      <c r="AQ55" s="5"/>
-      <c r="AR55" s="5"/>
-      <c r="AS55" s="5"/>
-      <c r="AT55" s="5"/>
-      <c r="AU55" s="5"/>
-      <c r="AV55" s="5"/>
-      <c r="AW55" s="5"/>
-      <c r="AX55" s="5"/>
-      <c r="AY55" s="5"/>
-      <c r="AZ55" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="13"/>
+      <c r="AJ55" s="13"/>
+      <c r="AK55" s="13"/>
+      <c r="AL55" s="13"/>
+      <c r="AM55" s="13"/>
+      <c r="AN55" s="13"/>
+      <c r="AO55" s="13"/>
+      <c r="AP55" s="13"/>
+      <c r="AQ55" s="13"/>
+      <c r="AR55" s="13"/>
+      <c r="AS55" s="13"/>
+      <c r="AT55" s="13"/>
+      <c r="AU55" s="13"/>
+      <c r="AV55" s="13"/>
+      <c r="AW55" s="13"/>
+      <c r="AX55" s="13"/>
+      <c r="AY55" s="13"/>
+      <c r="AZ55" s="13"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1</v>
-      </c>
-      <c r="F56" s="16">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5">
-        <v>1</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1</v>
-      </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T56" s="5">
-        <v>1</v>
-      </c>
-      <c r="U56" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
-      <c r="AP56" s="5"/>
-      <c r="AQ56" s="5"/>
-      <c r="AR56" s="5"/>
-      <c r="AS56" s="5"/>
-      <c r="AT56" s="5"/>
-      <c r="AU56" s="5"/>
-      <c r="AV56" s="5"/>
-      <c r="AW56" s="5"/>
-      <c r="AX56" s="5"/>
-      <c r="AY56" s="5"/>
-      <c r="AZ56" s="5"/>
+      <c r="C56" s="15">
+        <v>0</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="U56" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI56" s="13"/>
+      <c r="AJ56" s="13"/>
+      <c r="AK56" s="13"/>
+      <c r="AL56" s="13"/>
+      <c r="AM56" s="13"/>
+      <c r="AN56" s="13"/>
+      <c r="AO56" s="13"/>
+      <c r="AP56" s="13"/>
+      <c r="AQ56" s="13"/>
+      <c r="AR56" s="13"/>
+      <c r="AS56" s="13"/>
+      <c r="AT56" s="13"/>
+      <c r="AU56" s="13"/>
+      <c r="AV56" s="13"/>
+      <c r="AW56" s="13"/>
+      <c r="AX56" s="13"/>
+      <c r="AY56" s="13"/>
+      <c r="AZ56" s="13"/>
     </row>
     <row r="57" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="13">
-        <v>0</v>
+      <c r="C57" s="23">
+        <v>1</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>90</v>
@@ -6412,33 +6421,33 @@
         <v>90</v>
       </c>
       <c r="I57" s="13"/>
-      <c r="J57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5" t="s">
-        <v>28</v>
+      <c r="J57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="Q57" s="13"/>
       <c r="R57" s="13" t="s">
         <v>90</v>
       </c>
       <c r="S57" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T57" s="13">
-        <v>1</v>
-      </c>
-      <c r="U57" s="17" t="s">
-        <v>78</v>
+        <v>90</v>
+      </c>
+      <c r="T57" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="U57" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="V57" s="13"/>
       <c r="W57" s="13"/>
@@ -6446,18 +6455,18 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
-      <c r="AB57" s="13">
-        <v>0</v>
+      <c r="AB57" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="AC57" s="13"/>
       <c r="AD57" s="13"/>
-      <c r="AE57" s="13">
-        <v>0</v>
+      <c r="AE57" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="AF57" s="13"/>
       <c r="AG57" s="13"/>
-      <c r="AH57" s="13">
-        <v>0</v>
+      <c r="AH57" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -6478,107 +6487,107 @@
       <c r="AY57" s="13"/>
       <c r="AZ57" s="13"/>
     </row>
-    <row r="58" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="11">
-        <v>0</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U58" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="11"/>
-      <c r="AT58" s="11"/>
-      <c r="AU58" s="11"/>
-      <c r="AV58" s="11"/>
-      <c r="AW58" s="11"/>
-      <c r="AX58" s="11"/>
-      <c r="AY58" s="11"/>
-      <c r="AZ58" s="11"/>
+      <c r="C58" s="13">
+        <v>1</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="T58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="U58" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF58" s="13"/>
+      <c r="AG58" s="13"/>
+      <c r="AH58" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI58" s="13"/>
+      <c r="AJ58" s="13"/>
+      <c r="AK58" s="13"/>
+      <c r="AL58" s="13"/>
+      <c r="AM58" s="13"/>
+      <c r="AN58" s="13"/>
+      <c r="AO58" s="13"/>
+      <c r="AP58" s="13"/>
+      <c r="AQ58" s="13"/>
+      <c r="AR58" s="13"/>
+      <c r="AS58" s="13"/>
+      <c r="AT58" s="13"/>
+      <c r="AU58" s="13"/>
+      <c r="AV58" s="13"/>
+      <c r="AW58" s="13"/>
+      <c r="AX58" s="13"/>
+      <c r="AY58" s="13"/>
+      <c r="AZ58" s="13"/>
     </row>
     <row r="59" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="23">
-        <v>1</v>
+      <c r="B59" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="15">
+        <v>0</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>90</v>
@@ -6597,29 +6606,29 @@
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K59" s="13" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O59" s="13"/>
       <c r="P59" s="13" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q59" s="13"/>
       <c r="R59" s="13" t="s">
         <v>90</v>
       </c>
       <c r="S59" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T59" s="13" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T59" s="13">
+        <v>0</v>
       </c>
       <c r="U59" s="20" t="s">
         <v>90</v>
@@ -6630,18 +6639,18 @@
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
-      <c r="AB59" s="15" t="s">
-        <v>90</v>
+      <c r="AB59" s="13">
+        <v>0</v>
       </c>
       <c r="AC59" s="13"/>
       <c r="AD59" s="13"/>
-      <c r="AE59" s="15" t="s">
-        <v>90</v>
+      <c r="AE59" s="13">
+        <v>0</v>
       </c>
       <c r="AF59" s="13"/>
       <c r="AG59" s="13"/>
-      <c r="AH59" s="15" t="s">
-        <v>90</v>
+      <c r="AH59" s="13">
+        <v>0</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -6662,106 +6671,106 @@
       <c r="AY59" s="13"/>
       <c r="AZ59" s="13"/>
     </row>
-    <row r="60" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="11">
-        <v>0</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U60" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
-      <c r="AH60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI60" s="11"/>
-      <c r="AJ60" s="11"/>
-      <c r="AK60" s="11"/>
-      <c r="AL60" s="11"/>
-      <c r="AM60" s="11"/>
-      <c r="AN60" s="11"/>
-      <c r="AO60" s="11"/>
-      <c r="AP60" s="11"/>
-      <c r="AQ60" s="11"/>
-      <c r="AR60" s="11"/>
-      <c r="AS60" s="11"/>
-      <c r="AT60" s="11"/>
-      <c r="AU60" s="11"/>
-      <c r="AV60" s="11"/>
-      <c r="AW60" s="11"/>
-      <c r="AX60" s="11"/>
-      <c r="AY60" s="11"/>
-      <c r="AZ60" s="11"/>
+      <c r="B60" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="15">
+        <v>0</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T60" s="13">
+        <v>0</v>
+      </c>
+      <c r="U60" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="13"/>
+      <c r="AG60" s="13"/>
+      <c r="AH60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="13"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="13"/>
+      <c r="AL60" s="13"/>
+      <c r="AM60" s="13"/>
+      <c r="AN60" s="13"/>
+      <c r="AO60" s="13"/>
+      <c r="AP60" s="13"/>
+      <c r="AQ60" s="13"/>
+      <c r="AR60" s="13"/>
+      <c r="AS60" s="13"/>
+      <c r="AT60" s="13"/>
+      <c r="AU60" s="13"/>
+      <c r="AV60" s="13"/>
+      <c r="AW60" s="13"/>
+      <c r="AX60" s="13"/>
+      <c r="AY60" s="13"/>
+      <c r="AZ60" s="13"/>
     </row>
     <row r="61" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="13">
+      <c r="B61" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="15">
         <v>0</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -6789,7 +6798,7 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O61" s="13"/>
       <c r="P61" s="13" t="s">
@@ -6803,10 +6812,10 @@
         <v>30</v>
       </c>
       <c r="T61" s="13">
-        <v>0</v>
-      </c>
-      <c r="U61" s="20" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="U61" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="V61" s="13"/>
       <c r="W61" s="13"/>
@@ -6851,7 +6860,7 @@
         <v>76</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" s="9">
         <v>1</v>
@@ -6881,7 +6890,7 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O62" s="9"/>
       <c r="P62" s="9" t="s">
@@ -6943,7 +6952,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -6973,7 +6982,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O63" s="5"/>
       <c r="P63" s="5" t="s">
@@ -6981,7 +6990,7 @@
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S63" s="5" t="s">
         <v>30</v>
@@ -7030,104 +7039,104 @@
       <c r="AY63" s="5"/>
       <c r="AZ63" s="5"/>
     </row>
-    <row r="64" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A64" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="11">
-        <v>0</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U64" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="19"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="11"/>
-      <c r="AE64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF64" s="11"/>
-      <c r="AG64" s="11"/>
-      <c r="AH64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI64" s="11"/>
-      <c r="AJ64" s="11"/>
-      <c r="AK64" s="11"/>
-      <c r="AL64" s="11"/>
-      <c r="AM64" s="11"/>
-      <c r="AN64" s="11"/>
-      <c r="AO64" s="11"/>
-      <c r="AP64" s="11"/>
-      <c r="AQ64" s="11"/>
-      <c r="AR64" s="11"/>
-      <c r="AS64" s="11"/>
-      <c r="AT64" s="11"/>
-      <c r="AU64" s="11"/>
-      <c r="AV64" s="11"/>
-      <c r="AW64" s="11"/>
-      <c r="AX64" s="11"/>
-      <c r="AY64" s="11"/>
-      <c r="AZ64" s="11"/>
+      <c r="B64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T64" s="5">
+        <v>0</v>
+      </c>
+      <c r="U64" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="5"/>
+      <c r="AQ64" s="5"/>
+      <c r="AR64" s="5"/>
+      <c r="AS64" s="5"/>
+      <c r="AT64" s="5"/>
+      <c r="AU64" s="5"/>
+      <c r="AV64" s="5"/>
+      <c r="AW64" s="5"/>
+      <c r="AX64" s="5"/>
+      <c r="AY64" s="5"/>
+      <c r="AZ64" s="5"/>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -7157,7 +7166,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="5" t="s">
@@ -7165,7 +7174,7 @@
       </c>
       <c r="Q65" s="5"/>
       <c r="R65" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S65" s="5" t="s">
         <v>30</v>
@@ -7214,104 +7223,106 @@
       <c r="AY65" s="5"/>
       <c r="AZ65" s="5"/>
     </row>
-    <row r="66" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A66" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="11">
-        <v>0</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U66" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="11"/>
-      <c r="AB66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC66" s="11"/>
-      <c r="AD66" s="11"/>
-      <c r="AE66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF66" s="11"/>
-      <c r="AG66" s="11"/>
-      <c r="AH66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI66" s="11"/>
-      <c r="AJ66" s="11"/>
-      <c r="AK66" s="11"/>
-      <c r="AL66" s="11"/>
-      <c r="AM66" s="11"/>
-      <c r="AN66" s="11"/>
-      <c r="AO66" s="11"/>
-      <c r="AP66" s="11"/>
-      <c r="AQ66" s="11"/>
-      <c r="AR66" s="11"/>
-      <c r="AS66" s="11"/>
-      <c r="AT66" s="11"/>
-      <c r="AU66" s="11"/>
-      <c r="AV66" s="11"/>
-      <c r="AW66" s="11"/>
-      <c r="AX66" s="11"/>
-      <c r="AY66" s="11"/>
-      <c r="AZ66" s="11"/>
+      <c r="B66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T66" s="5">
+        <v>1</v>
+      </c>
+      <c r="U66" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="5"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="5"/>
+      <c r="AU66" s="5"/>
+      <c r="AV66" s="5"/>
+      <c r="AW66" s="5"/>
+      <c r="AX66" s="5"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="5"/>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -7341,7 +7352,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="5" t="s">
@@ -7349,7 +7360,7 @@
       </c>
       <c r="Q67" s="5"/>
       <c r="R67" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S67" s="5" t="s">
         <v>30</v>
@@ -7402,10 +7413,10 @@
       <c r="A68" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="5">
+      <c r="B68" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="16">
         <v>1</v>
       </c>
       <c r="D68" s="5">
@@ -7415,13 +7426,13 @@
         <v>1</v>
       </c>
       <c r="F68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5" t="s">
@@ -7433,7 +7444,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O68" s="5"/>
       <c r="P68" s="5" t="s">
@@ -7441,7 +7452,7 @@
       </c>
       <c r="Q68" s="5"/>
       <c r="R68" s="5" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="S68" s="5" t="s">
         <v>30</v>
@@ -7450,28 +7461,26 @@
         <v>1</v>
       </c>
       <c r="U68" s="17" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="17" t="s">
-        <v>171</v>
-      </c>
+      <c r="X68" s="17"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
-      <c r="AB68" s="5">
-        <v>1</v>
+      <c r="AB68" s="16">
+        <v>0</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
-      <c r="AE68" s="5">
-        <v>1</v>
+      <c r="AE68" s="16">
+        <v>0</v>
       </c>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
-      <c r="AH68" s="5">
-        <v>1</v>
+      <c r="AH68" s="16">
+        <v>0</v>
       </c>
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
@@ -7497,7 +7506,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -7527,7 +7536,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5" t="s">
@@ -7535,20 +7544,22 @@
       </c>
       <c r="Q69" s="5"/>
       <c r="R69" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S69" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="17" t="s">
         <v>78</v>
       </c>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
-      <c r="X69" s="17"/>
+      <c r="X69" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
@@ -7588,10 +7599,10 @@
       <c r="A70" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C70" s="16">
+      <c r="B70" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="5">
         <v>1</v>
       </c>
       <c r="D70" s="5">
@@ -7601,13 +7612,13 @@
         <v>1</v>
       </c>
       <c r="F70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5" t="s">
@@ -7619,7 +7630,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O70" s="5"/>
       <c r="P70" s="5" t="s">
@@ -7627,35 +7638,37 @@
       </c>
       <c r="Q70" s="5"/>
       <c r="R70" s="5" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="S70" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" s="17" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="17"/>
+      <c r="X70" s="17" t="s">
+        <v>168</v>
+      </c>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
-      <c r="AB70" s="16">
-        <v>0</v>
+      <c r="AB70" s="5">
+        <v>1</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
-      <c r="AE70" s="16">
-        <v>0</v>
+      <c r="AE70" s="5">
+        <v>1</v>
       </c>
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
-      <c r="AH70" s="16">
-        <v>0</v>
+      <c r="AH70" s="5">
+        <v>1</v>
       </c>
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
@@ -7681,7 +7694,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -7692,7 +7705,7 @@
       <c r="E71" s="5">
         <v>1</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="16">
         <v>1</v>
       </c>
       <c r="G71" s="5">
@@ -7711,15 +7724,15 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O71" s="5"/>
       <c r="P71" s="5" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="Q71" s="5"/>
       <c r="R71" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S71" s="5" t="s">
         <v>30</v>
@@ -7728,12 +7741,12 @@
         <v>1</v>
       </c>
       <c r="U71" s="17" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
@@ -7805,7 +7818,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5" t="s">
@@ -7813,13 +7826,13 @@
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="S72" s="5" t="s">
         <v>30</v>
       </c>
       <c r="T72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="17" t="s">
         <v>78</v>
@@ -7827,7 +7840,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
@@ -7864,174 +7877,170 @@
       <c r="AY72" s="5"/>
       <c r="AZ72" s="5"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="5">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5">
-        <v>1</v>
-      </c>
-      <c r="E73" s="5">
-        <v>1</v>
-      </c>
-      <c r="F73" s="16">
-        <v>1</v>
-      </c>
-      <c r="G73" s="5">
-        <v>1</v>
-      </c>
-      <c r="H73" s="5">
-        <v>1</v>
-      </c>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="S73" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T73" s="5">
-        <v>1</v>
-      </c>
-      <c r="U73" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="5"/>
-      <c r="AH73" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI73" s="5"/>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="5"/>
-      <c r="AP73" s="5"/>
-      <c r="AQ73" s="5"/>
-      <c r="AR73" s="5"/>
-      <c r="AS73" s="5"/>
-      <c r="AT73" s="5"/>
-      <c r="AU73" s="5"/>
-      <c r="AV73" s="5"/>
-      <c r="AW73" s="5"/>
-      <c r="AX73" s="5"/>
-      <c r="AY73" s="5"/>
-      <c r="AZ73" s="5"/>
+      <c r="C73" s="11">
+        <v>0</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U73" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="11"/>
+      <c r="AL73" s="11"/>
+      <c r="AM73" s="11"/>
+      <c r="AN73" s="11"/>
+      <c r="AO73" s="11"/>
+      <c r="AP73" s="11"/>
+      <c r="AQ73" s="11"/>
+      <c r="AR73" s="11"/>
+      <c r="AS73" s="11"/>
+      <c r="AT73" s="11"/>
+      <c r="AU73" s="11"/>
+      <c r="AV73" s="11"/>
+      <c r="AW73" s="11"/>
+      <c r="AX73" s="11"/>
+      <c r="AY73" s="11"/>
+      <c r="AZ73" s="11"/>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="5">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5">
-        <v>1</v>
-      </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74" s="5">
-        <v>1</v>
-      </c>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
-      <c r="H74" s="5">
-        <v>1</v>
+      <c r="B74" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Q74" s="5"/>
       <c r="R74" s="5" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T74" s="5">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="U74" s="17" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="17" t="s">
-        <v>175</v>
-      </c>
+      <c r="X74" s="17"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
-      <c r="AB74" s="5">
-        <v>1</v>
+      <c r="AB74" s="16">
+        <v>0</v>
       </c>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
-      <c r="AE74" s="5">
-        <v>1</v>
+      <c r="AE74" s="16">
+        <v>0</v>
       </c>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
-      <c r="AH74" s="5">
-        <v>1</v>
+      <c r="AH74" s="16">
+        <v>0</v>
       </c>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="5"/>
@@ -8052,148 +8061,148 @@
       <c r="AY74" s="5"/>
       <c r="AZ74" s="5"/>
     </row>
-    <row r="75" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="11">
-        <v>0</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U75" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="19"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="11"/>
-      <c r="AE75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF75" s="11"/>
-      <c r="AG75" s="11"/>
-      <c r="AH75" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI75" s="11"/>
-      <c r="AJ75" s="11"/>
-      <c r="AK75" s="11"/>
-      <c r="AL75" s="11"/>
-      <c r="AM75" s="11"/>
-      <c r="AN75" s="11"/>
-      <c r="AO75" s="11"/>
-      <c r="AP75" s="11"/>
-      <c r="AQ75" s="11"/>
-      <c r="AR75" s="11"/>
-      <c r="AS75" s="11"/>
-      <c r="AT75" s="11"/>
-      <c r="AU75" s="11"/>
-      <c r="AV75" s="11"/>
-      <c r="AW75" s="11"/>
-      <c r="AX75" s="11"/>
-      <c r="AY75" s="11"/>
-      <c r="AZ75" s="11"/>
+      <c r="B75" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="16">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U75" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="16"/>
+      <c r="AE75" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF75" s="16"/>
+      <c r="AG75" s="16"/>
+      <c r="AH75" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="5"/>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="5"/>
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="5"/>
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="5"/>
+      <c r="AZ75" s="5"/>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" s="8">
-        <v>0</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>90</v>
+      <c r="B76" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="16">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O76" s="5"/>
       <c r="P76" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q76" s="5"/>
       <c r="R76" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T76" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T76" s="5">
+        <v>0</v>
       </c>
       <c r="U76" s="17" t="s">
         <v>90</v>
@@ -8204,17 +8213,17 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
-      <c r="AB76" s="16">
+      <c r="AB76" s="5">
         <v>0</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
-      <c r="AE76" s="16">
+      <c r="AE76" s="5">
         <v>0</v>
       </c>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
-      <c r="AH76" s="16">
+      <c r="AH76" s="5">
         <v>0</v>
       </c>
       <c r="AI76" s="5"/>
@@ -8236,148 +8245,148 @@
       <c r="AY76" s="5"/>
       <c r="AZ76" s="5"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="16">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U77" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC77" s="16"/>
-      <c r="AD77" s="16"/>
-      <c r="AE77" s="16">
-        <v>1</v>
-      </c>
-      <c r="AF77" s="16"/>
-      <c r="AG77" s="16"/>
-      <c r="AH77" s="16">
-        <v>1</v>
-      </c>
-      <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
-      <c r="AK77" s="5"/>
-      <c r="AL77" s="5"/>
-      <c r="AM77" s="5"/>
-      <c r="AN77" s="5"/>
-      <c r="AO77" s="5"/>
-      <c r="AP77" s="5"/>
-      <c r="AQ77" s="5"/>
-      <c r="AR77" s="5"/>
-      <c r="AS77" s="5"/>
-      <c r="AT77" s="5"/>
-      <c r="AU77" s="5"/>
-      <c r="AV77" s="5"/>
-      <c r="AW77" s="5"/>
-      <c r="AX77" s="5"/>
-      <c r="AY77" s="5"/>
-      <c r="AZ77" s="5"/>
+      <c r="B77" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="34">
+        <v>1</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U77" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC77" s="11"/>
+      <c r="AD77" s="11"/>
+      <c r="AE77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF77" s="11"/>
+      <c r="AG77" s="11"/>
+      <c r="AH77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI77" s="11"/>
+      <c r="AJ77" s="11"/>
+      <c r="AK77" s="11"/>
+      <c r="AL77" s="11"/>
+      <c r="AM77" s="11"/>
+      <c r="AN77" s="11"/>
+      <c r="AO77" s="11"/>
+      <c r="AP77" s="11"/>
+      <c r="AQ77" s="11"/>
+      <c r="AR77" s="11"/>
+      <c r="AS77" s="11"/>
+      <c r="AT77" s="11"/>
+      <c r="AU77" s="11"/>
+      <c r="AV77" s="11"/>
+      <c r="AW77" s="11"/>
+      <c r="AX77" s="11"/>
+      <c r="AY77" s="11"/>
+      <c r="AZ77" s="11"/>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="16">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1</v>
-      </c>
-      <c r="E78" s="5">
-        <v>1</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5">
-        <v>0</v>
+      <c r="B78" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="O78" s="5"/>
       <c r="P78" s="5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="Q78" s="5"/>
       <c r="R78" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T78" s="5">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="U78" s="17" t="s">
         <v>90</v>
@@ -8388,18 +8397,18 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
-      <c r="AB78" s="5">
-        <v>0</v>
+      <c r="AB78" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
-      <c r="AE78" s="5">
-        <v>0</v>
+      <c r="AE78" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
-      <c r="AH78" s="5">
-        <v>0</v>
+      <c r="AH78" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
@@ -8424,55 +8433,55 @@
       <c r="A79" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>157</v>
+      <c r="B79" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="C79" s="16">
         <v>1</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>90</v>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5">
+        <v>0</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O79" s="5"/>
       <c r="P79" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q79" s="5"/>
       <c r="R79" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T79" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T79" s="5">
+        <v>1</v>
       </c>
       <c r="U79" s="17" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
@@ -8480,18 +8489,18 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
-      <c r="AB79" s="5" t="s">
-        <v>90</v>
+      <c r="AB79" s="5">
+        <v>1</v>
       </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
-      <c r="AE79" s="5" t="s">
-        <v>90</v>
+      <c r="AE79" s="5">
+        <v>1</v>
       </c>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
-      <c r="AH79" s="5" t="s">
-        <v>90</v>
+      <c r="AH79" s="5">
+        <v>1</v>
       </c>
       <c r="AI79" s="5"/>
       <c r="AJ79" s="5"/>
@@ -8516,52 +8525,52 @@
       <c r="A80" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80" s="8">
-        <v>0</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>90</v>
+      <c r="B80" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="16">
+        <v>1</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T80" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T80" s="5">
+        <v>0</v>
       </c>
       <c r="U80" s="17" t="s">
         <v>90</v>
@@ -8572,18 +8581,18 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
-      <c r="AB80" s="5" t="s">
-        <v>90</v>
+      <c r="AB80" s="5">
+        <v>0</v>
       </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
-      <c r="AE80" s="5" t="s">
-        <v>90</v>
+      <c r="AE80" s="5">
+        <v>0</v>
       </c>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
-      <c r="AH80" s="5" t="s">
-        <v>90</v>
+      <c r="AH80" s="5">
+        <v>0</v>
       </c>
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
@@ -8604,113 +8613,113 @@
       <c r="AY80" s="5"/>
       <c r="AZ80" s="5"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C81" s="16">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5">
-        <v>1</v>
-      </c>
-      <c r="E81" s="5">
-        <v>1</v>
-      </c>
-      <c r="F81" s="5">
-        <v>0</v>
-      </c>
-      <c r="G81" s="5">
-        <v>0</v>
-      </c>
-      <c r="H81" s="5">
-        <v>0</v>
-      </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S81" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T81" s="5">
-        <v>1</v>
-      </c>
-      <c r="U81" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="17"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="5"/>
-      <c r="AE81" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF81" s="5"/>
-      <c r="AG81" s="5"/>
-      <c r="AH81" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI81" s="5"/>
-      <c r="AJ81" s="5"/>
-      <c r="AK81" s="5"/>
-      <c r="AL81" s="5"/>
-      <c r="AM81" s="5"/>
-      <c r="AN81" s="5"/>
-      <c r="AO81" s="5"/>
-      <c r="AP81" s="5"/>
-      <c r="AQ81" s="5"/>
-      <c r="AR81" s="5"/>
-      <c r="AS81" s="5"/>
-      <c r="AT81" s="5"/>
-      <c r="AU81" s="5"/>
-      <c r="AV81" s="5"/>
-      <c r="AW81" s="5"/>
-      <c r="AX81" s="5"/>
-      <c r="AY81" s="5"/>
-      <c r="AZ81" s="5"/>
+      <c r="B81" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="34">
+        <v>1</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U81" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+      <c r="AB81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="11"/>
+      <c r="AE81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF81" s="11"/>
+      <c r="AG81" s="11"/>
+      <c r="AH81" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI81" s="11"/>
+      <c r="AJ81" s="11"/>
+      <c r="AK81" s="11"/>
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
+      <c r="AN81" s="11"/>
+      <c r="AO81" s="11"/>
+      <c r="AP81" s="11"/>
+      <c r="AQ81" s="11"/>
+      <c r="AR81" s="11"/>
+      <c r="AS81" s="11"/>
+      <c r="AT81" s="11"/>
+      <c r="AU81" s="11"/>
+      <c r="AV81" s="11"/>
+      <c r="AW81" s="11"/>
+      <c r="AX81" s="11"/>
+      <c r="AY81" s="11"/>
+      <c r="AZ81" s="11"/>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" s="16">
         <v>1</v>
       </c>
       <c r="D82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
@@ -8731,7 +8740,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O82" s="5"/>
       <c r="P82" s="5" t="s">
@@ -8745,10 +8754,10 @@
         <v>30</v>
       </c>
       <c r="T82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
@@ -8757,17 +8766,17 @@
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
       <c r="AB82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI82" s="5"/>
       <c r="AJ82" s="5"/>
@@ -8793,10 +8802,10 @@
         <v>76</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="16">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>90</v>
@@ -8815,53 +8824,53 @@
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q83" s="5"/>
       <c r="R83" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T83" s="5" t="s">
-        <v>90</v>
+        <v>27</v>
+      </c>
+      <c r="T83" s="5">
+        <v>1</v>
       </c>
       <c r="U83" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="17"/>
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI83" s="5"/>
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="16"/>
+      <c r="AD83" s="16"/>
+      <c r="AE83" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF83" s="16"/>
+      <c r="AG83" s="16"/>
+      <c r="AH83" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI83" s="16"/>
       <c r="AJ83" s="5"/>
       <c r="AK83" s="5"/>
       <c r="AL83" s="5"/>
@@ -8880,284 +8889,13 @@
       <c r="AY83" s="5"/>
       <c r="AZ83" s="5"/>
     </row>
-    <row r="84" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="11">
-        <v>0</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="T84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U84" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V84" s="11"/>
-      <c r="W84" s="11"/>
-      <c r="X84" s="19"/>
-      <c r="Y84" s="11"/>
-      <c r="Z84" s="11"/>
-      <c r="AA84" s="11"/>
-      <c r="AB84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC84" s="11"/>
-      <c r="AD84" s="11"/>
-      <c r="AE84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF84" s="11"/>
-      <c r="AG84" s="11"/>
-      <c r="AH84" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI84" s="11"/>
-      <c r="AJ84" s="11"/>
-      <c r="AK84" s="11"/>
-      <c r="AL84" s="11"/>
-      <c r="AM84" s="11"/>
-      <c r="AN84" s="11"/>
-      <c r="AO84" s="11"/>
-      <c r="AP84" s="11"/>
-      <c r="AQ84" s="11"/>
-      <c r="AR84" s="11"/>
-      <c r="AS84" s="11"/>
-      <c r="AT84" s="11"/>
-      <c r="AU84" s="11"/>
-      <c r="AV84" s="11"/>
-      <c r="AW84" s="11"/>
-      <c r="AX84" s="11"/>
-      <c r="AY84" s="11"/>
-      <c r="AZ84" s="11"/>
-    </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A85" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C85" s="16">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5">
-        <v>1</v>
-      </c>
-      <c r="F85" s="5">
-        <v>0</v>
-      </c>
-      <c r="G85" s="5">
-        <v>0</v>
-      </c>
-      <c r="H85" s="5">
-        <v>0</v>
-      </c>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S85" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T85" s="5">
-        <v>1</v>
-      </c>
-      <c r="U85" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="17"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC85" s="5"/>
-      <c r="AD85" s="5"/>
-      <c r="AE85" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF85" s="5"/>
-      <c r="AG85" s="5"/>
-      <c r="AH85" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI85" s="5"/>
-      <c r="AJ85" s="5"/>
-      <c r="AK85" s="5"/>
-      <c r="AL85" s="5"/>
-      <c r="AM85" s="5"/>
-      <c r="AN85" s="5"/>
-      <c r="AO85" s="5"/>
-      <c r="AP85" s="5"/>
-      <c r="AQ85" s="5"/>
-      <c r="AR85" s="5"/>
-      <c r="AS85" s="5"/>
-      <c r="AT85" s="5"/>
-      <c r="AU85" s="5"/>
-      <c r="AV85" s="5"/>
-      <c r="AW85" s="5"/>
-      <c r="AX85" s="5"/>
-      <c r="AY85" s="5"/>
-      <c r="AZ85" s="5"/>
-    </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A86" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="8">
-        <v>0</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S86" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T86" s="5">
-        <v>1</v>
-      </c>
-      <c r="U86" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="17"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="16"/>
-      <c r="AB86" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC86" s="16"/>
-      <c r="AD86" s="16"/>
-      <c r="AE86" s="16">
-        <v>1</v>
-      </c>
-      <c r="AF86" s="16"/>
-      <c r="AG86" s="16"/>
-      <c r="AH86" s="16">
-        <v>1</v>
-      </c>
-      <c r="AI86" s="16"/>
-      <c r="AJ86" s="5"/>
-      <c r="AK86" s="5"/>
-      <c r="AL86" s="5"/>
-      <c r="AM86" s="5"/>
-      <c r="AN86" s="5"/>
-      <c r="AO86" s="5"/>
-      <c r="AP86" s="5"/>
-      <c r="AQ86" s="5"/>
-      <c r="AR86" s="5"/>
-      <c r="AS86" s="5"/>
-      <c r="AT86" s="5"/>
-      <c r="AU86" s="5"/>
-      <c r="AV86" s="5"/>
-      <c r="AW86" s="5"/>
-      <c r="AX86" s="5"/>
-      <c r="AY86" s="5"/>
-      <c r="AZ86" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="Z1:AI1"/>
@@ -9170,11 +8908,6 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="J1:X1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7CC221-E446-4839-B5D0-19E075E9D8AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B6422-246D-4E37-81E2-49C5715C7D50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="5903" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEG_ANALYSIS_MASTERFILE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="185">
   <si>
     <t>ANATOMY</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>078</t>
+  </si>
+  <si>
+    <t>EEG058|EEG059</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,6 +780,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,15 +811,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,10 +1198,10 @@
   <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1205,74 +1211,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="25" t="s">
         <v>181</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="C1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
+      <c r="J1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="27" t="s">
+      <c r="AK1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1280,32 +1286,32 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
       <c r="X2" s="3" t="s">
         <v>162</v>
       </c>
@@ -1313,21 +1319,21 @@
       <c r="Z2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29" t="s">
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29" t="s">
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>15</v>
@@ -1335,27 +1341,27 @@
       <c r="AL2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="25"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="25" t="s">
+      <c r="AP2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25" t="s">
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25" t="s">
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="25"/>
+      <c r="AW2" s="29"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
@@ -1705,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="13">
         <v>1</v>
@@ -1730,8 +1736,8 @@
         <v>28</v>
       </c>
       <c r="Q6" s="13"/>
-      <c r="R6" s="13" t="s">
-        <v>90</v>
+      <c r="R6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>30</v>
@@ -1749,17 +1755,17 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="13"/>
       <c r="AD6" s="13"/>
       <c r="AE6" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
       <c r="AH6" s="13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -1791,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -1981,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
@@ -2007,7 +2013,7 @@
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>30</v>
@@ -2025,17 +2031,17 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
@@ -2067,19 +2073,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
@@ -2893,8 +2899,8 @@
       <c r="B19" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>90</v>
+      <c r="C19" s="11">
+        <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>90</v>
@@ -2985,8 +2991,8 @@
       <c r="B20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="11">
-        <v>0</v>
+      <c r="C20" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>90</v>
@@ -3808,97 +3814,97 @@
       <c r="AY28" s="11"/>
       <c r="AZ28" s="11"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U29" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U29" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="11"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
@@ -4829,7 +4835,7 @@
       <c r="A40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="5">
@@ -4841,14 +4847,14 @@
       <c r="E40" s="5">
         <v>1</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="8">
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
@@ -4921,7 +4927,7 @@
       <c r="A41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C41" s="5">
@@ -4933,14 +4939,14 @@
       <c r="E41" s="5">
         <v>1</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="8">
         <v>0</v>
       </c>
       <c r="G41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5" t="s">
@@ -5013,7 +5019,7 @@
       <c r="A42" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C42" s="5">
@@ -5025,14 +5031,14 @@
       <c r="E42" s="5">
         <v>1</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="8">
         <v>0</v>
       </c>
       <c r="G42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5" t="s">
@@ -5475,7 +5481,7 @@
       <c r="A47" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="23" t="s">
         <v>123</v>
       </c>
       <c r="C47" s="13">
@@ -5487,14 +5493,14 @@
       <c r="E47" s="13">
         <v>1</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="15">
         <v>0</v>
       </c>
       <c r="G47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="5" t="s">
@@ -5532,17 +5538,17 @@
       <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="13"/>
       <c r="AD47" s="13"/>
       <c r="AE47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF47" s="13"/>
       <c r="AG47" s="13"/>
       <c r="AH47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -6040,17 +6046,17 @@
       <c r="D53" s="5">
         <v>1</v>
       </c>
-      <c r="E53" s="5">
-        <v>0</v>
+      <c r="E53" s="16">
+        <v>1</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5" t="s">
@@ -6088,17 +6094,17 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
@@ -6215,7 +6221,7 @@
       <c r="A55" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C55" s="15">
@@ -6307,7 +6313,7 @@
       <c r="A56" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C56" s="15">
@@ -6329,33 +6335,33 @@
         <v>90</v>
       </c>
       <c r="I56" s="13"/>
-      <c r="J56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>90</v>
+      <c r="J56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
-      <c r="N56" s="13" t="s">
-        <v>90</v>
+      <c r="N56" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="O56" s="13"/>
-      <c r="P56" s="13" t="s">
-        <v>90</v>
+      <c r="P56" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="Q56" s="13"/>
       <c r="R56" s="13" t="s">
         <v>90</v>
       </c>
       <c r="S56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="U56" s="20" t="s">
-        <v>90</v>
+        <v>27</v>
+      </c>
+      <c r="T56" s="13">
+        <v>1</v>
+      </c>
+      <c r="U56" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="V56" s="13"/>
       <c r="W56" s="13"/>
@@ -6363,18 +6369,18 @@
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
-      <c r="AB56" s="13" t="s">
-        <v>90</v>
+      <c r="AB56" s="13">
+        <v>0</v>
       </c>
       <c r="AC56" s="13"/>
       <c r="AD56" s="13"/>
-      <c r="AE56" s="13" t="s">
-        <v>90</v>
+      <c r="AE56" s="13">
+        <v>0</v>
       </c>
       <c r="AF56" s="13"/>
       <c r="AG56" s="13"/>
-      <c r="AH56" s="13" t="s">
-        <v>90</v>
+      <c r="AH56" s="13">
+        <v>0</v>
       </c>
       <c r="AI56" s="13"/>
       <c r="AJ56" s="13"/>
@@ -6405,49 +6411,49 @@
       <c r="C57" s="23">
         <v>1</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>90</v>
+      <c r="D57" s="15">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
       </c>
       <c r="I57" s="13"/>
-      <c r="J57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>90</v>
+      <c r="J57" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
-      <c r="N57" s="13" t="s">
-        <v>90</v>
+      <c r="N57" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="O57" s="13"/>
-      <c r="P57" s="13" t="s">
-        <v>90</v>
+      <c r="P57" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="Q57" s="13"/>
       <c r="R57" s="13" t="s">
         <v>90</v>
       </c>
       <c r="S57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="U57" s="20" t="s">
-        <v>90</v>
+        <v>184</v>
+      </c>
+      <c r="T57" s="13">
+        <v>1</v>
+      </c>
+      <c r="U57" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="V57" s="13"/>
       <c r="W57" s="13"/>
@@ -6455,18 +6461,18 @@
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
-      <c r="AB57" s="15" t="s">
-        <v>90</v>
+      <c r="AB57" s="23">
+        <v>0</v>
       </c>
       <c r="AC57" s="13"/>
       <c r="AD57" s="13"/>
-      <c r="AE57" s="15" t="s">
-        <v>90</v>
+      <c r="AE57" s="23">
+        <v>0</v>
       </c>
       <c r="AF57" s="13"/>
       <c r="AG57" s="13"/>
-      <c r="AH57" s="15" t="s">
-        <v>90</v>
+      <c r="AH57" s="23">
+        <v>0</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -6487,103 +6493,103 @@
       <c r="AY57" s="13"/>
       <c r="AZ57" s="13"/>
     </row>
-    <row r="58" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="13">
-        <v>1</v>
-      </c>
-      <c r="D58" s="13">
-        <v>0</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="S58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="U58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF58" s="13"/>
-      <c r="AG58" s="13"/>
-      <c r="AH58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI58" s="13"/>
-      <c r="AJ58" s="13"/>
-      <c r="AK58" s="13"/>
-      <c r="AL58" s="13"/>
-      <c r="AM58" s="13"/>
-      <c r="AN58" s="13"/>
-      <c r="AO58" s="13"/>
-      <c r="AP58" s="13"/>
-      <c r="AQ58" s="13"/>
-      <c r="AR58" s="13"/>
-      <c r="AS58" s="13"/>
-      <c r="AT58" s="13"/>
-      <c r="AU58" s="13"/>
-      <c r="AV58" s="13"/>
-      <c r="AW58" s="13"/>
-      <c r="AX58" s="13"/>
-      <c r="AY58" s="13"/>
-      <c r="AZ58" s="13"/>
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U58" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="11"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="11"/>
+      <c r="AX58" s="11"/>
+      <c r="AY58" s="11"/>
+      <c r="AZ58" s="11"/>
     </row>
     <row r="59" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="26" t="s">
         <v>183</v>
       </c>
       <c r="C59" s="15">
@@ -6675,7 +6681,7 @@
       <c r="A60" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="26" t="s">
         <v>179</v>
       </c>
       <c r="C60" s="15">
@@ -6767,7 +6773,7 @@
       <c r="A61" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="26" t="s">
         <v>182</v>
       </c>
       <c r="C61" s="15">
@@ -7413,7 +7419,7 @@
       <c r="A68" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="16">
@@ -7425,14 +7431,14 @@
       <c r="E68" s="5">
         <v>1</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="8">
         <v>0</v>
       </c>
       <c r="G68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5" t="s">
@@ -7470,17 +7476,17 @@
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
       <c r="AH68" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
@@ -7973,7 +7979,7 @@
       <c r="A74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C74" s="8">
@@ -7996,29 +8002,29 @@
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q74" s="5"/>
       <c r="R74" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T74" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T74" s="5">
+        <v>0</v>
       </c>
       <c r="U74" s="17" t="s">
         <v>90</v>
@@ -8071,49 +8077,49 @@
       <c r="C75" s="16">
         <v>1</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>90</v>
+      <c r="D75" s="8">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O75" s="5"/>
       <c r="P75" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q75" s="5"/>
       <c r="R75" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T75" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T75" s="5">
+        <v>1</v>
       </c>
       <c r="U75" s="17" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
@@ -8122,17 +8128,17 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC75" s="16"/>
       <c r="AD75" s="16"/>
       <c r="AE75" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF75" s="16"/>
       <c r="AG75" s="16"/>
       <c r="AH75" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
@@ -8157,7 +8163,7 @@
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C76" s="16">
@@ -8169,14 +8175,14 @@
       <c r="E76" s="5">
         <v>1</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="8">
         <v>0</v>
       </c>
       <c r="G76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5" t="s">
@@ -8214,17 +8220,17 @@
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
@@ -8252,7 +8258,7 @@
       <c r="B77" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="34">
+      <c r="C77" s="27">
         <v>1</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -8341,7 +8347,7 @@
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C78" s="8">
@@ -8364,29 +8370,29 @@
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O78" s="5"/>
       <c r="P78" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Q78" s="5"/>
       <c r="R78" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="T78" s="5" t="s">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="T78" s="5">
+        <v>0</v>
       </c>
       <c r="U78" s="17" t="s">
         <v>90</v>
@@ -8397,18 +8403,18 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
-      <c r="AB78" s="5" t="s">
-        <v>90</v>
+      <c r="AB78" s="5">
+        <v>0</v>
       </c>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
-      <c r="AE78" s="5" t="s">
-        <v>90</v>
+      <c r="AE78" s="5">
+        <v>0</v>
       </c>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
-      <c r="AH78" s="5" t="s">
-        <v>90</v>
+      <c r="AH78" s="5">
+        <v>0</v>
       </c>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
@@ -8433,7 +8439,7 @@
       <c r="A79" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="16" t="s">
         <v>155</v>
       </c>
       <c r="C79" s="16">
@@ -8445,14 +8451,14 @@
       <c r="E79" s="5">
         <v>1</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="8">
         <v>0</v>
       </c>
       <c r="G79" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5" t="s">
@@ -8531,20 +8537,20 @@
       <c r="C80" s="16">
         <v>1</v>
       </c>
-      <c r="D80" s="8">
-        <v>0</v>
+      <c r="D80" s="16">
+        <v>1</v>
       </c>
       <c r="E80" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="G80" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5" t="s">
@@ -8587,12 +8593,12 @@
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
@@ -8620,7 +8626,7 @@
       <c r="B81" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="34">
+      <c r="C81" s="27">
         <v>1</v>
       </c>
       <c r="D81" s="11" t="s">
@@ -8709,7 +8715,7 @@
       <c r="A82" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C82" s="16">
@@ -8721,14 +8727,14 @@
       <c r="E82" s="5">
         <v>1</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="8">
         <v>0</v>
       </c>
       <c r="G82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5" t="s">
@@ -8801,7 +8807,7 @@
       <c r="A83" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C83" s="8">
@@ -8858,17 +8864,17 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="16"/>
       <c r="AB83" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="16"/>
       <c r="AD83" s="16"/>
       <c r="AE83" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="16"/>
       <c r="AG83" s="16"/>
       <c r="AH83" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI83" s="16"/>
       <c r="AJ83" s="5"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B6422-246D-4E37-81E2-49C5715C7D50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9FE97-C7F3-45C4-9A31-6D351394B18E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEG_ANALYSIS_MASTERFILE" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="185">
   <si>
     <t>ANATOMY</t>
   </si>
@@ -1198,10 +1198,10 @@
   <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6224,23 +6224,23 @@
       <c r="B55" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="15">
-        <v>0</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>90</v>
+      <c r="C55" s="23">
+        <v>1</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="5" t="s">
@@ -6316,23 +6316,23 @@
       <c r="B56" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="15">
-        <v>0</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>90</v>
+      <c r="C56" s="23">
+        <v>1</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="5" t="s">
@@ -6411,10 +6411,10 @@
       <c r="C57" s="23">
         <v>1</v>
       </c>
-      <c r="D57" s="15">
-        <v>0</v>
-      </c>
-      <c r="E57" s="13">
+      <c r="D57" s="23">
+        <v>1</v>
+      </c>
+      <c r="E57" s="15">
         <v>0</v>
       </c>
       <c r="F57" s="13">
@@ -6592,23 +6592,23 @@
       <c r="B59" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="15">
-        <v>0</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>90</v>
+      <c r="C59" s="23">
+        <v>1</v>
+      </c>
+      <c r="D59" s="15">
+        <v>0</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
@@ -6684,23 +6684,23 @@
       <c r="B60" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C60" s="15">
-        <v>0</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>90</v>
+      <c r="C60" s="23">
+        <v>1</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
@@ -6776,23 +6776,23 @@
       <c r="B61" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C61" s="15">
-        <v>0</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>90</v>
+      <c r="C61" s="23">
+        <v>1</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="13" t="s">
@@ -7982,23 +7982,23 @@
       <c r="B74" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="8">
-        <v>0</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>90</v>
+      <c r="C74" s="16">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5" t="s">
@@ -8077,10 +8077,10 @@
       <c r="C75" s="16">
         <v>1</v>
       </c>
-      <c r="D75" s="8">
-        <v>0</v>
-      </c>
-      <c r="E75" s="5">
+      <c r="D75" s="16">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8">
         <v>0</v>
       </c>
       <c r="F75" s="5">
@@ -8350,23 +8350,23 @@
       <c r="B78" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="8">
-        <v>0</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>90</v>
+      <c r="C78" s="16">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5" t="s">
@@ -8587,7 +8587,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
-      <c r="AB80" s="5">
+      <c r="AB80" s="8">
         <v>0</v>
       </c>
       <c r="AC80" s="5"/>
@@ -8810,23 +8810,23 @@
       <c r="B83" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="8">
-        <v>0</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>90</v>
+      <c r="C83" s="16">
+        <v>1</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="s">

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF9FE97-C7F3-45C4-9A31-6D351394B18E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A38E12-6171-4497-BE41-D6E6A7891DD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -795,6 +795,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -805,12 +811,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,10 +1198,10 @@
   <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1215,64 +1215,64 @@
         <v>181</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
+      <c r="J1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="31" t="s">
+      <c r="Z1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="31" t="s">
+      <c r="AK1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
@@ -1286,32 +1286,32 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
       <c r="X2" s="3" t="s">
         <v>162</v>
       </c>
@@ -1319,21 +1319,21 @@
       <c r="Z2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33" t="s">
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33" t="s">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>15</v>
@@ -6227,20 +6227,20 @@
       <c r="C55" s="23">
         <v>1</v>
       </c>
-      <c r="D55" s="15">
-        <v>0</v>
-      </c>
-      <c r="E55" s="13">
-        <v>0</v>
-      </c>
-      <c r="F55" s="13">
+      <c r="D55" s="23">
+        <v>1</v>
+      </c>
+      <c r="E55" s="23">
+        <v>1</v>
+      </c>
+      <c r="F55" s="15">
         <v>0</v>
       </c>
       <c r="G55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="5" t="s">
@@ -6319,20 +6319,20 @@
       <c r="C56" s="23">
         <v>1</v>
       </c>
-      <c r="D56" s="15">
-        <v>0</v>
-      </c>
-      <c r="E56" s="13">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13">
+      <c r="D56" s="23">
+        <v>1</v>
+      </c>
+      <c r="E56" s="23">
+        <v>1</v>
+      </c>
+      <c r="F56" s="15">
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="5" t="s">
@@ -6414,17 +6414,17 @@
       <c r="D57" s="23">
         <v>1</v>
       </c>
-      <c r="E57" s="15">
-        <v>0</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="E57" s="23">
+        <v>1</v>
+      </c>
+      <c r="F57" s="15">
         <v>0</v>
       </c>
       <c r="G57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="5" t="s">
@@ -6503,10 +6503,10 @@
       <c r="C58" s="11">
         <v>1</v>
       </c>
-      <c r="D58" s="11">
-        <v>0</v>
-      </c>
-      <c r="E58" s="11">
+      <c r="D58" s="27">
+        <v>0</v>
+      </c>
+      <c r="E58" s="27">
         <v>0</v>
       </c>
       <c r="F58" s="11" t="s">
@@ -6595,20 +6595,20 @@
       <c r="C59" s="23">
         <v>1</v>
       </c>
-      <c r="D59" s="15">
-        <v>0</v>
-      </c>
-      <c r="E59" s="13">
-        <v>0</v>
-      </c>
-      <c r="F59" s="13">
+      <c r="D59" s="23">
+        <v>1</v>
+      </c>
+      <c r="E59" s="23">
+        <v>1</v>
+      </c>
+      <c r="F59" s="15">
         <v>0</v>
       </c>
       <c r="G59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
@@ -6687,20 +6687,20 @@
       <c r="C60" s="23">
         <v>1</v>
       </c>
-      <c r="D60" s="15">
-        <v>0</v>
-      </c>
-      <c r="E60" s="13">
-        <v>0</v>
-      </c>
-      <c r="F60" s="13">
+      <c r="D60" s="23">
+        <v>1</v>
+      </c>
+      <c r="E60" s="23">
+        <v>1</v>
+      </c>
+      <c r="F60" s="15">
         <v>0</v>
       </c>
       <c r="G60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
@@ -6779,20 +6779,20 @@
       <c r="C61" s="23">
         <v>1</v>
       </c>
-      <c r="D61" s="15">
-        <v>0</v>
-      </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="D61" s="23">
+        <v>1</v>
+      </c>
+      <c r="E61" s="23">
+        <v>1</v>
+      </c>
+      <c r="F61" s="15">
         <v>0</v>
       </c>
       <c r="G61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="13" t="s">
@@ -7985,20 +7985,20 @@
       <c r="C74" s="16">
         <v>1</v>
       </c>
-      <c r="D74" s="8">
-        <v>0</v>
-      </c>
-      <c r="E74" s="5">
-        <v>0</v>
-      </c>
-      <c r="F74" s="5">
+      <c r="D74" s="16">
+        <v>1</v>
+      </c>
+      <c r="E74" s="16">
+        <v>1</v>
+      </c>
+      <c r="F74" s="8">
         <v>0</v>
       </c>
       <c r="G74" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5" t="s">
@@ -8080,17 +8080,17 @@
       <c r="D75" s="16">
         <v>1</v>
       </c>
-      <c r="E75" s="8">
-        <v>0</v>
-      </c>
-      <c r="F75" s="5">
+      <c r="E75" s="16">
+        <v>1</v>
+      </c>
+      <c r="F75" s="8">
         <v>0</v>
       </c>
       <c r="G75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5" t="s">
@@ -8353,20 +8353,20 @@
       <c r="C78" s="16">
         <v>1</v>
       </c>
-      <c r="D78" s="8">
-        <v>0</v>
-      </c>
-      <c r="E78" s="5">
-        <v>0</v>
-      </c>
-      <c r="F78" s="5">
+      <c r="D78" s="16">
+        <v>1</v>
+      </c>
+      <c r="E78" s="16">
+        <v>1</v>
+      </c>
+      <c r="F78" s="8">
         <v>0</v>
       </c>
       <c r="G78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5" t="s">
@@ -8813,20 +8813,20 @@
       <c r="C83" s="16">
         <v>1</v>
       </c>
-      <c r="D83" s="8">
-        <v>0</v>
+      <c r="D83" s="16">
+        <v>1</v>
       </c>
       <c r="E83" s="5">
-        <v>0</v>
-      </c>
-      <c r="F83" s="5">
+        <v>1</v>
+      </c>
+      <c r="F83" s="8">
         <v>0</v>
       </c>
       <c r="G83" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5" t="s">
@@ -8897,11 +8897,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="Z1:AI1"/>
@@ -8914,6 +8909,11 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="J1:X1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A38E12-6171-4497-BE41-D6E6A7891DD0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD2582-68D9-4A52-A0F2-A3CA7443F81E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -783,9 +783,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,12 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -811,6 +802,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,7 +1201,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="AH52" sqref="AH52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1215,70 +1215,70 @@
         <v>181</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
+      <c r="J1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1286,32 +1286,32 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
       <c r="X2" s="3" t="s">
         <v>162</v>
       </c>
@@ -1319,21 +1319,21 @@
       <c r="Z2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>15</v>
@@ -1341,27 +1341,27 @@
       <c r="AL2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AM2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="29"/>
+      <c r="AN2" s="28"/>
       <c r="AO2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AP2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29" t="s">
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29" t="s">
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="29"/>
+      <c r="AW2" s="28"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
@@ -2075,7 +2075,7 @@
       <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>1</v>
       </c>
       <c r="F10" s="9">
@@ -3818,7 +3818,7 @@
       <c r="A29" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>104</v>
       </c>
       <c r="C29" s="11">
@@ -4847,8 +4847,8 @@
       <c r="E40" s="5">
         <v>1</v>
       </c>
-      <c r="F40" s="8">
-        <v>0</v>
+      <c r="F40" s="16">
+        <v>1</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -4939,8 +4939,8 @@
       <c r="E41" s="5">
         <v>1</v>
       </c>
-      <c r="F41" s="8">
-        <v>0</v>
+      <c r="F41" s="16">
+        <v>1</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -5031,8 +5031,8 @@
       <c r="E42" s="5">
         <v>1</v>
       </c>
-      <c r="F42" s="8">
-        <v>0</v>
+      <c r="F42" s="16">
+        <v>1</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -5493,8 +5493,8 @@
       <c r="E47" s="13">
         <v>1</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
+      <c r="F47" s="23">
+        <v>1</v>
       </c>
       <c r="G47" s="13">
         <v>1</v>
@@ -6037,7 +6037,7 @@
       <c r="A53" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C53" s="16">
@@ -6050,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="5">
         <v>1</v>
@@ -6094,17 +6094,17 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
@@ -6221,7 +6221,7 @@
       <c r="A55" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="23" t="s">
         <v>132</v>
       </c>
       <c r="C55" s="23">
@@ -6233,8 +6233,8 @@
       <c r="E55" s="23">
         <v>1</v>
       </c>
-      <c r="F55" s="15">
-        <v>0</v>
+      <c r="F55" s="23">
+        <v>1</v>
       </c>
       <c r="G55" s="13">
         <v>1</v>
@@ -6278,17 +6278,17 @@
       <c r="Z55" s="13"/>
       <c r="AA55" s="13"/>
       <c r="AB55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="13"/>
       <c r="AD55" s="13"/>
       <c r="AE55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF55" s="13"/>
       <c r="AG55" s="13"/>
       <c r="AH55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -6313,7 +6313,7 @@
       <c r="A56" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="23" t="s">
         <v>133</v>
       </c>
       <c r="C56" s="23">
@@ -6325,8 +6325,8 @@
       <c r="E56" s="23">
         <v>1</v>
       </c>
-      <c r="F56" s="15">
-        <v>0</v>
+      <c r="F56" s="23">
+        <v>1</v>
       </c>
       <c r="G56" s="13">
         <v>1</v>
@@ -6370,17 +6370,17 @@
       <c r="Z56" s="13"/>
       <c r="AA56" s="13"/>
       <c r="AB56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" s="13"/>
       <c r="AD56" s="13"/>
       <c r="AE56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56" s="13"/>
       <c r="AG56" s="13"/>
       <c r="AH56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56" s="13"/>
       <c r="AJ56" s="13"/>
@@ -6405,7 +6405,7 @@
       <c r="A57" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="23" t="s">
         <v>134</v>
       </c>
       <c r="C57" s="23">
@@ -6462,17 +6462,17 @@
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
       <c r="AB57" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="13"/>
       <c r="AD57" s="13"/>
       <c r="AE57" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF57" s="13"/>
       <c r="AG57" s="13"/>
       <c r="AH57" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -6497,16 +6497,16 @@
       <c r="A58" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>135</v>
       </c>
       <c r="C58" s="11">
         <v>1</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="26">
         <v>0</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="26">
         <v>0</v>
       </c>
       <c r="F58" s="11" t="s">
@@ -6589,7 +6589,7 @@
       <c r="A59" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="35" t="s">
         <v>183</v>
       </c>
       <c r="C59" s="23">
@@ -6601,8 +6601,8 @@
       <c r="E59" s="23">
         <v>1</v>
       </c>
-      <c r="F59" s="15">
-        <v>0</v>
+      <c r="F59" s="23">
+        <v>1</v>
       </c>
       <c r="G59" s="13">
         <v>1</v>
@@ -6646,17 +6646,17 @@
       <c r="Z59" s="13"/>
       <c r="AA59" s="13"/>
       <c r="AB59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59" s="13"/>
       <c r="AD59" s="13"/>
       <c r="AE59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59" s="13"/>
       <c r="AG59" s="13"/>
       <c r="AH59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -6681,7 +6681,7 @@
       <c r="A60" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="35" t="s">
         <v>179</v>
       </c>
       <c r="C60" s="23">
@@ -6693,8 +6693,8 @@
       <c r="E60" s="23">
         <v>1</v>
       </c>
-      <c r="F60" s="15">
-        <v>0</v>
+      <c r="F60" s="23">
+        <v>1</v>
       </c>
       <c r="G60" s="13">
         <v>1</v>
@@ -6738,17 +6738,17 @@
       <c r="Z60" s="13"/>
       <c r="AA60" s="13"/>
       <c r="AB60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" s="13"/>
       <c r="AD60" s="13"/>
       <c r="AE60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF60" s="13"/>
       <c r="AG60" s="13"/>
       <c r="AH60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -6773,7 +6773,7 @@
       <c r="A61" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="35" t="s">
         <v>182</v>
       </c>
       <c r="C61" s="23">
@@ -6830,17 +6830,17 @@
       <c r="Z61" s="13"/>
       <c r="AA61" s="13"/>
       <c r="AB61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="13"/>
       <c r="AD61" s="13"/>
       <c r="AE61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61" s="13"/>
       <c r="AG61" s="13"/>
       <c r="AH61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -7431,8 +7431,8 @@
       <c r="E68" s="5">
         <v>1</v>
       </c>
-      <c r="F68" s="8">
-        <v>0</v>
+      <c r="F68" s="16">
+        <v>1</v>
       </c>
       <c r="G68" s="5">
         <v>1</v>
@@ -7979,7 +7979,7 @@
       <c r="A74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="16" t="s">
         <v>150</v>
       </c>
       <c r="C74" s="16">
@@ -7991,8 +7991,8 @@
       <c r="E74" s="16">
         <v>1</v>
       </c>
-      <c r="F74" s="8">
-        <v>0</v>
+      <c r="F74" s="16">
+        <v>1</v>
       </c>
       <c r="G74" s="5">
         <v>1</v>
@@ -8036,17 +8036,17 @@
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="5"/>
@@ -8071,7 +8071,7 @@
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="16" t="s">
         <v>151</v>
       </c>
       <c r="C75" s="16">
@@ -8128,17 +8128,17 @@
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75" s="16"/>
       <c r="AD75" s="16"/>
       <c r="AE75" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF75" s="16"/>
       <c r="AG75" s="16"/>
       <c r="AH75" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
@@ -8175,8 +8175,8 @@
       <c r="E76" s="5">
         <v>1</v>
       </c>
-      <c r="F76" s="8">
-        <v>0</v>
+      <c r="F76" s="16">
+        <v>1</v>
       </c>
       <c r="G76" s="5">
         <v>1</v>
@@ -8258,7 +8258,7 @@
       <c r="B77" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="27">
+      <c r="C77" s="26">
         <v>1</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -8347,7 +8347,7 @@
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="16" t="s">
         <v>154</v>
       </c>
       <c r="C78" s="16">
@@ -8359,8 +8359,8 @@
       <c r="E78" s="16">
         <v>1</v>
       </c>
-      <c r="F78" s="8">
-        <v>0</v>
+      <c r="F78" s="16">
+        <v>1</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
@@ -8404,17 +8404,17 @@
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
       <c r="AB78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
       <c r="AH78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI78" s="5"/>
       <c r="AJ78" s="5"/>
@@ -8451,8 +8451,8 @@
       <c r="E79" s="5">
         <v>1</v>
       </c>
-      <c r="F79" s="8">
-        <v>0</v>
+      <c r="F79" s="16">
+        <v>1</v>
       </c>
       <c r="G79" s="5">
         <v>1</v>
@@ -8531,7 +8531,7 @@
       <c r="A80" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="16" t="s">
         <v>156</v>
       </c>
       <c r="C80" s="16">
@@ -8543,8 +8543,8 @@
       <c r="E80" s="5">
         <v>1</v>
       </c>
-      <c r="F80" s="5">
-        <v>0</v>
+      <c r="F80" s="16">
+        <v>1</v>
       </c>
       <c r="G80" s="5">
         <v>1</v>
@@ -8587,8 +8587,8 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
-      <c r="AB80" s="8">
-        <v>0</v>
+      <c r="AB80" s="16">
+        <v>1</v>
       </c>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
@@ -8623,10 +8623,10 @@
       <c r="A81" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="27">
+      <c r="C81" s="26">
         <v>1</v>
       </c>
       <c r="D81" s="11" t="s">
@@ -8635,7 +8635,7 @@
       <c r="E81" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="26" t="s">
         <v>90</v>
       </c>
       <c r="G81" s="11" t="s">
@@ -8727,8 +8727,8 @@
       <c r="E82" s="5">
         <v>1</v>
       </c>
-      <c r="F82" s="8">
-        <v>0</v>
+      <c r="F82" s="16">
+        <v>1</v>
       </c>
       <c r="G82" s="5">
         <v>1</v>
@@ -8807,7 +8807,7 @@
       <c r="A83" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="16" t="s">
         <v>159</v>
       </c>
       <c r="C83" s="16">
@@ -8819,8 +8819,8 @@
       <c r="E83" s="5">
         <v>1</v>
       </c>
-      <c r="F83" s="8">
-        <v>0</v>
+      <c r="F83" s="16">
+        <v>1</v>
       </c>
       <c r="G83" s="5">
         <v>1</v>
@@ -8864,17 +8864,17 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="16"/>
       <c r="AB83" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC83" s="16"/>
       <c r="AD83" s="16"/>
       <c r="AE83" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF83" s="16"/>
       <c r="AG83" s="16"/>
       <c r="AH83" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI83" s="16"/>
       <c r="AJ83" s="5"/>
@@ -8897,6 +8897,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="Z1:AI1"/>
@@ -8909,11 +8914,6 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="J1:X1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/meta/MEG_ANALYSIS_MASTERFILE.xlsx
+++ b/meta/MEG_ANALYSIS_MASTERFILE.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\meditation\ERC\Analyses\MEG\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CD2582-68D9-4A52-A0F2-A3CA7443F81E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="MEG_ANALYSIS_MASTERFILE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="184">
   <si>
     <t>ANATOMY</t>
   </si>
@@ -578,15 +567,12 @@
   </si>
   <si>
     <t>078</t>
-  </si>
-  <si>
-    <t>EEG058|EEG059</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -789,7 +775,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -802,15 +797,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,7 +927,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -993,7 +979,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1187,98 +1173,98 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="AH52" sqref="AH52"/>
+      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="9.06640625" style="21"/>
-    <col min="24" max="24" width="9.06640625" style="21"/>
+    <col min="21" max="21" width="9" style="21"/>
+    <col min="24" max="24" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>181</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
+      <c r="J1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1286,32 +1272,32 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
       <c r="X2" s="3" t="s">
         <v>162</v>
       </c>
@@ -1319,21 +1305,21 @@
       <c r="Z2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32" t="s">
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32" t="s">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>15</v>
@@ -1341,32 +1327,32 @@
       <c r="AL2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="28" t="s">
+      <c r="AM2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="28"/>
+      <c r="AN2" s="29"/>
       <c r="AO2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="28" t="s">
+      <c r="AP2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28" t="s">
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28" t="s">
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="28"/>
+      <c r="AW2" s="29"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1442,7 @@
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1602,7 +1588,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -1694,7 +1680,7 @@
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
     </row>
-    <row r="6" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>76</v>
       </c>
@@ -1786,7 +1772,7 @@
       <c r="AY6" s="13"/>
       <c r="AZ6" s="13"/>
     </row>
-    <row r="7" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>76</v>
       </c>
@@ -1878,7 +1864,7 @@
       <c r="AY7" s="11"/>
       <c r="AZ7" s="11"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -1970,7 +1956,7 @@
       <c r="AY8" s="5"/>
       <c r="AZ8" s="5"/>
     </row>
-    <row r="9" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
@@ -2062,7 +2048,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="9"/>
     </row>
-    <row r="10" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>76</v>
       </c>
@@ -2154,7 +2140,7 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -2246,7 +2232,7 @@
       <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -2338,7 +2324,7 @@
       <c r="AY12" s="5"/>
       <c r="AZ12" s="5"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -2432,7 +2418,7 @@
       <c r="AY13" s="5"/>
       <c r="AZ13" s="5"/>
     </row>
-    <row r="14" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>76</v>
       </c>
@@ -2524,7 +2510,7 @@
       <c r="AY14" s="11"/>
       <c r="AZ14" s="11"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -2616,7 +2602,7 @@
       <c r="AY15" s="5"/>
       <c r="AZ15" s="5"/>
     </row>
-    <row r="16" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>76</v>
       </c>
@@ -2708,7 +2694,7 @@
       <c r="AY16" s="13"/>
       <c r="AZ16" s="13"/>
     </row>
-    <row r="17" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>76</v>
       </c>
@@ -2800,7 +2786,7 @@
       <c r="AY17" s="13"/>
       <c r="AZ17" s="13"/>
     </row>
-    <row r="18" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -2892,7 +2878,7 @@
       <c r="AY18" s="11"/>
       <c r="AZ18" s="11"/>
     </row>
-    <row r="19" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>93</v>
       </c>
@@ -2984,7 +2970,7 @@
       <c r="AY19" s="11"/>
       <c r="AZ19" s="11"/>
     </row>
-    <row r="20" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>76</v>
       </c>
@@ -3076,7 +3062,7 @@
       <c r="AY20" s="11"/>
       <c r="AZ20" s="11"/>
     </row>
-    <row r="21" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>93</v>
       </c>
@@ -3168,7 +3154,7 @@
       <c r="AY21" s="11"/>
       <c r="AZ21" s="11"/>
     </row>
-    <row r="22" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>76</v>
       </c>
@@ -3260,7 +3246,7 @@
       <c r="AY22" s="11"/>
       <c r="AZ22" s="11"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -3352,7 +3338,7 @@
       <c r="AY23" s="5"/>
       <c r="AZ23" s="5"/>
     </row>
-    <row r="24" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>76</v>
       </c>
@@ -3444,7 +3430,7 @@
       <c r="AY24" s="11"/>
       <c r="AZ24" s="11"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -3538,7 +3524,7 @@
       <c r="AY25" s="5"/>
       <c r="AZ25" s="5"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -3630,7 +3616,7 @@
       <c r="AY26" s="5"/>
       <c r="AZ26" s="5"/>
     </row>
-    <row r="27" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>76</v>
       </c>
@@ -3722,7 +3708,7 @@
       <c r="AY27" s="11"/>
       <c r="AZ27" s="11"/>
     </row>
-    <row r="28" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>76</v>
       </c>
@@ -3814,7 +3800,7 @@
       <c r="AY28" s="11"/>
       <c r="AZ28" s="11"/>
     </row>
-    <row r="29" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>76</v>
       </c>
@@ -3906,7 +3892,7 @@
       <c r="AY29" s="11"/>
       <c r="AZ29" s="11"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
@@ -3998,7 +3984,7 @@
       <c r="AY30" s="5"/>
       <c r="AZ30" s="5"/>
     </row>
-    <row r="31" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>76</v>
       </c>
@@ -4090,7 +4076,7 @@
       <c r="AY31" s="11"/>
       <c r="AZ31" s="11"/>
     </row>
-    <row r="32" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>76</v>
       </c>
@@ -4182,7 +4168,7 @@
       <c r="AY32" s="9"/>
       <c r="AZ32" s="9"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
@@ -4274,7 +4260,7 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="5"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
@@ -4365,7 +4351,7 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="5"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -4459,7 +4445,7 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="5"/>
     </row>
-    <row r="36" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>93</v>
       </c>
@@ -4551,7 +4537,7 @@
       <c r="AY36" s="9"/>
       <c r="AZ36" s="9"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>93</v>
       </c>
@@ -4645,7 +4631,7 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="5"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>93</v>
       </c>
@@ -4737,7 +4723,7 @@
       <c r="AY38" s="5"/>
       <c r="AZ38" s="5"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>93</v>
       </c>
@@ -4783,7 +4769,7 @@
         <v>161</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T39" s="5">
         <v>0</v>
@@ -4831,7 +4817,7 @@
       <c r="AY39" s="5"/>
       <c r="AZ39" s="5"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>93</v>
       </c>
@@ -4923,7 +4909,7 @@
       <c r="AY40" s="5"/>
       <c r="AZ40" s="5"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>93</v>
       </c>
@@ -5015,7 +5001,7 @@
       <c r="AY41" s="5"/>
       <c r="AZ41" s="5"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>93</v>
       </c>
@@ -5107,7 +5093,7 @@
       <c r="AY42" s="5"/>
       <c r="AZ42" s="5"/>
     </row>
-    <row r="43" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>93</v>
       </c>
@@ -5199,7 +5185,7 @@
       <c r="AY43" s="11"/>
       <c r="AZ43" s="11"/>
     </row>
-    <row r="44" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>93</v>
       </c>
@@ -5291,7 +5277,7 @@
       <c r="AY44" s="11"/>
       <c r="AZ44" s="11"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>93</v>
       </c>
@@ -5385,7 +5371,7 @@
       <c r="AY45" s="5"/>
       <c r="AZ45" s="5"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
@@ -5477,7 +5463,7 @@
       <c r="AY46" s="5"/>
       <c r="AZ46" s="5"/>
     </row>
-    <row r="47" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>93</v>
       </c>
@@ -5569,7 +5555,7 @@
       <c r="AY47" s="13"/>
       <c r="AZ47" s="13"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>93</v>
       </c>
@@ -5661,7 +5647,7 @@
       <c r="AY48" s="5"/>
       <c r="AZ48" s="5"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>93</v>
       </c>
@@ -5753,7 +5739,7 @@
       <c r="AY49" s="5"/>
       <c r="AZ49" s="5"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>93</v>
       </c>
@@ -5847,7 +5833,7 @@
       <c r="AY50" s="5"/>
       <c r="AZ50" s="5"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
@@ -5939,7 +5925,7 @@
       <c r="AY51" s="5"/>
       <c r="AZ51" s="5"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>93</v>
       </c>
@@ -5985,7 +5971,7 @@
         <v>161</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T52" s="5">
         <v>1</v>
@@ -6033,7 +6019,7 @@
       <c r="AY52" s="5"/>
       <c r="AZ52" s="5"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>93</v>
       </c>
@@ -6125,7 +6111,7 @@
       <c r="AY53" s="5"/>
       <c r="AZ53" s="5"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>93</v>
       </c>
@@ -6217,7 +6203,7 @@
       <c r="AY54" s="5"/>
       <c r="AZ54" s="5"/>
     </row>
-    <row r="55" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>93</v>
       </c>
@@ -6309,7 +6295,7 @@
       <c r="AY55" s="13"/>
       <c r="AZ55" s="13"/>
     </row>
-    <row r="56" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>93</v>
       </c>
@@ -6401,7 +6387,7 @@
       <c r="AY56" s="13"/>
       <c r="AZ56" s="13"/>
     </row>
-    <row r="57" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>93</v>
       </c>
@@ -6447,7 +6433,7 @@
         <v>90</v>
       </c>
       <c r="S57" s="13" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="T57" s="13">
         <v>1</v>
@@ -6493,7 +6479,7 @@
       <c r="AY57" s="13"/>
       <c r="AZ57" s="13"/>
     </row>
-    <row r="58" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>93</v>
       </c>
@@ -6585,11 +6571,11 @@
       <c r="AY58" s="11"/>
       <c r="AZ58" s="11"/>
     </row>
-    <row r="59" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C59" s="23">
@@ -6677,11 +6663,11 @@
       <c r="AY59" s="13"/>
       <c r="AZ59" s="13"/>
     </row>
-    <row r="60" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="28" t="s">
         <v>179</v>
       </c>
       <c r="C60" s="23">
@@ -6769,11 +6755,11 @@
       <c r="AY60" s="13"/>
       <c r="AZ60" s="13"/>
     </row>
-    <row r="61" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:52" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="28" t="s">
         <v>182</v>
       </c>
       <c r="C61" s="23">
@@ -6861,7 +6847,7 @@
       <c r="AY61" s="13"/>
       <c r="AZ61" s="13"/>
     </row>
-    <row r="62" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>76</v>
       </c>
@@ -6953,7 +6939,7 @@
       <c r="AY62" s="9"/>
       <c r="AZ62" s="9"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>76</v>
       </c>
@@ -7045,7 +7031,7 @@
       <c r="AY63" s="5"/>
       <c r="AZ63" s="5"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>76</v>
       </c>
@@ -7137,7 +7123,7 @@
       <c r="AY64" s="5"/>
       <c r="AZ64" s="5"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>76</v>
       </c>
@@ -7229,7 +7215,7 @@
       <c r="AY65" s="5"/>
       <c r="AZ65" s="5"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>76</v>
       </c>
@@ -7323,7 +7309,7 @@
       <c r="AY66" s="5"/>
       <c r="AZ66" s="5"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>76</v>
       </c>
@@ -7415,7 +7401,7 @@
       <c r="AY67" s="5"/>
       <c r="AZ67" s="5"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>76</v>
       </c>
@@ -7507,7 +7493,7 @@
       <c r="AY68" s="5"/>
       <c r="AZ68" s="5"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>76</v>
       </c>
@@ -7601,7 +7587,7 @@
       <c r="AY69" s="5"/>
       <c r="AZ69" s="5"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>76</v>
       </c>
@@ -7695,7 +7681,7 @@
       <c r="AY70" s="5"/>
       <c r="AZ70" s="5"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>76</v>
       </c>
@@ -7741,7 +7727,7 @@
         <v>161</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T71" s="5">
         <v>1</v>
@@ -7789,7 +7775,7 @@
       <c r="AY71" s="5"/>
       <c r="AZ71" s="5"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
@@ -7883,7 +7869,7 @@
       <c r="AY72" s="5"/>
       <c r="AZ72" s="5"/>
     </row>
-    <row r="73" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>76</v>
       </c>
@@ -7975,7 +7961,7 @@
       <c r="AY73" s="11"/>
       <c r="AZ73" s="11"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>76</v>
       </c>
@@ -8067,7 +8053,7 @@
       <c r="AY74" s="5"/>
       <c r="AZ74" s="5"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -8159,7 +8145,7 @@
       <c r="AY75" s="5"/>
       <c r="AZ75" s="5"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
@@ -8251,7 +8237,7 @@
       <c r="AY76" s="5"/>
       <c r="AZ76" s="5"/>
     </row>
-    <row r="77" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>76</v>
       </c>
@@ -8343,7 +8329,7 @@
       <c r="AY77" s="11"/>
       <c r="AZ77" s="11"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -8435,7 +8421,7 @@
       <c r="AY78" s="5"/>
       <c r="AZ78" s="5"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>76</v>
       </c>
@@ -8527,7 +8513,7 @@
       <c r="AY79" s="5"/>
       <c r="AZ79" s="5"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>76</v>
       </c>
@@ -8619,7 +8605,7 @@
       <c r="AY80" s="5"/>
       <c r="AZ80" s="5"/>
     </row>
-    <row r="81" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:52" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>76</v>
       </c>
@@ -8711,7 +8697,7 @@
       <c r="AY81" s="11"/>
       <c r="AZ81" s="11"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>76</v>
       </c>
@@ -8803,7 +8789,7 @@
       <c r="AY82" s="5"/>
       <c r="AZ82" s="5"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>76</v>
       </c>
@@ -8897,11 +8883,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="Z1:AI1"/>
@@ -8914,6 +8895,11 @@
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="J1:X1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
